--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -16461,23 +16461,39 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="A5" t="s" s="53">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s" s="53">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="C5" s="54">
+        <v>41937</v>
+      </c>
+      <c r="D5" s="54">
+        <v>10080</v>
+      </c>
+      <c r="E5" s="54">
+        <v>8339</v>
+      </c>
+      <c r="F5" s="54">
+        <v>5335</v>
+      </c>
+      <c r="G5" s="54">
+        <v>3004</v>
+      </c>
+      <c r="H5" s="54">
+        <v>1741</v>
+      </c>
+      <c r="I5" s="54">
+        <v>566</v>
+      </c>
+      <c r="J5" s="54">
+        <v>1175</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="5">
@@ -17847,35 +17863,35 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>967171</v>
+        <v>1009108</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>218008</v>
+        <v>228088</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>109850</v>
+        <v>118189</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E9+E20+E21+E29+E30+E41+E44+E45+E47</f>
-        <v>80073</v>
+        <v>85408</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
-        <v>29777</v>
+        <v>32781</v>
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>108158</v>
+        <v>109899</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H21+H29+H41+H45+H47</f>
-        <v>76152</v>
+        <v>76718</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>32006</v>
+        <v>33181</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="6"/>
@@ -17903,35 +17919,35 @@
       </c>
       <c r="C55" s="8">
         <f>COUNTIF(C2:C51,"&gt;0")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D55" s="8">
         <f>COUNTIF(D2:D51,"&gt;0")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" s="8">
         <f>COUNTIF(E2:E51,"&gt;0")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="8">
         <f>COUNTIF(F2:F51,"&gt;0")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G55" s="8">
         <f>COUNTIF(G2:G51,"&gt;0")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H55" s="8">
         <f>COUNTIF(H2:H51,"&gt;0")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I55" s="8">
         <f>COUNTIF(I2:I51,"&gt;0")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J55" s="8">
         <f>COUNTIF(J2:J51,"&gt;0")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -30640,7 +30656,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -30769,92 +30785,92 @@
       <c r="N3" s="56"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="A4" t="s" s="53">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="C4" s="54">
+        <v>37731</v>
+      </c>
+      <c r="D4" s="54">
+        <v>8838</v>
+      </c>
+      <c r="E4" s="54">
+        <v>7897</v>
+      </c>
+      <c r="F4" s="54">
+        <v>5861</v>
+      </c>
+      <c r="G4" s="54">
+        <v>2036</v>
+      </c>
+      <c r="H4" s="54">
+        <v>941</v>
+      </c>
+      <c r="I4" s="54">
+        <v>499</v>
+      </c>
+      <c r="J4" s="54">
+        <v>442</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B5" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C5" s="6">
         <v>15079</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="6">
         <v>6942</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="6">
         <v>2436</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="6">
         <v>2019</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="6">
         <v>417</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="6">
         <v>4506</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I5" s="6">
         <v>3472</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J5" s="6">
         <v>1034</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" hidden="1">
-      <c r="A5" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" hidden="1">
       <c r="A6" t="s" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6">
-        <v>113229</v>
-      </c>
-      <c r="D6" s="6">
-        <v>27110</v>
-      </c>
-      <c r="E6" s="6">
-        <v>8258</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6002</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2256</v>
-      </c>
-      <c r="H6" s="6">
-        <v>18852</v>
-      </c>
-      <c r="I6" s="6">
-        <v>18768</v>
-      </c>
-      <c r="J6" s="6">
-        <v>84</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -30862,34 +30878,34 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
-        <v>17441</v>
+        <v>113229</v>
       </c>
       <c r="D7" s="6">
-        <v>3270</v>
+        <v>27110</v>
       </c>
       <c r="E7" s="6">
-        <v>64</v>
+        <v>8258</v>
       </c>
       <c r="F7" s="6">
-        <v>45</v>
+        <v>6002</v>
       </c>
       <c r="G7" s="6">
-        <v>19</v>
+        <v>2256</v>
       </c>
       <c r="H7" s="6">
-        <v>3206</v>
+        <v>18852</v>
       </c>
       <c r="I7" s="6">
-        <v>2327</v>
+        <v>18768</v>
       </c>
       <c r="J7" s="6">
-        <v>879</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -30897,136 +30913,136 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="53">
+      <c r="A8" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6">
+        <v>17441</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3270</v>
+      </c>
+      <c r="E8" s="6">
+        <v>64</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6">
+        <v>19</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3206</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2327</v>
+      </c>
+      <c r="J8" s="6">
+        <v>879</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="53">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="53">
+      <c r="B9" t="s" s="53">
         <v>23</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C9" s="54">
         <v>9111</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3903</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6">
-        <v>87736</v>
-      </c>
-      <c r="D10" s="6">
-        <v>13921</v>
-      </c>
-      <c r="E10" s="6">
-        <v>13247</v>
-      </c>
-      <c r="F10" s="6">
-        <v>8114</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5133</v>
-      </c>
-      <c r="H10" s="6">
-        <v>674</v>
-      </c>
-      <c r="I10" s="6">
-        <v>320</v>
-      </c>
-      <c r="J10" s="6">
-        <v>354</v>
-      </c>
+        <v>3903</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" ht="15" customHeight="1" hidden="1">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
+        <v>87736</v>
+      </c>
+      <c r="D11" s="6">
+        <v>13921</v>
+      </c>
+      <c r="E11" s="6">
+        <v>13247</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8114</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5133</v>
+      </c>
+      <c r="H11" s="6">
+        <v>674</v>
+      </c>
+      <c r="I11" s="6">
+        <v>320</v>
+      </c>
+      <c r="J11" s="6">
+        <v>354</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" hidden="1">
       <c r="A12" t="s" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3485</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1120</v>
-      </c>
-      <c r="E12" s="6">
-        <v>370</v>
-      </c>
-      <c r="F12" s="6">
-        <v>276</v>
-      </c>
-      <c r="G12" s="6">
-        <v>94</v>
-      </c>
-      <c r="H12" s="6">
-        <v>750</v>
-      </c>
-      <c r="I12" s="6">
-        <v>612</v>
-      </c>
-      <c r="J12" s="6">
-        <v>138</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -31034,34 +31050,34 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6">
-        <v>7528</v>
+        <v>3485</v>
       </c>
       <c r="D13" s="6">
-        <v>2387</v>
+        <v>1120</v>
       </c>
       <c r="E13" s="6">
-        <v>1468</v>
+        <v>370</v>
       </c>
       <c r="F13" s="6">
-        <v>797</v>
+        <v>276</v>
       </c>
       <c r="G13" s="6">
-        <v>671</v>
+        <v>94</v>
       </c>
       <c r="H13" s="6">
-        <v>919</v>
+        <v>750</v>
       </c>
       <c r="I13" s="6">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="J13" s="6">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -31069,65 +31085,71 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="53">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s" s="53">
-        <v>35</v>
-      </c>
-      <c r="C14" s="54">
-        <v>8025</v>
-      </c>
-      <c r="D14" s="54">
-        <v>3924</v>
-      </c>
-      <c r="E14" s="54">
-        <v>2730</v>
-      </c>
-      <c r="F14" s="54">
-        <v>2181</v>
-      </c>
-      <c r="G14" s="54">
-        <v>549</v>
-      </c>
-      <c r="H14" s="54">
-        <v>1194</v>
-      </c>
-      <c r="I14" s="54">
-        <v>1023</v>
-      </c>
-      <c r="J14" s="54">
-        <v>171</v>
-      </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
+      <c r="A14" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7528</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2387</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1468</v>
+      </c>
+      <c r="F14" s="6">
+        <v>797</v>
+      </c>
+      <c r="G14" s="6">
+        <v>671</v>
+      </c>
+      <c r="H14" s="6">
+        <v>919</v>
+      </c>
+      <c r="I14" s="6">
+        <v>635</v>
+      </c>
+      <c r="J14" s="6">
+        <v>284</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="53">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="53">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="54">
-        <v>29224</v>
+        <v>8025</v>
       </c>
       <c r="D15" s="54">
-        <v>4033</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
+        <v>3924</v>
+      </c>
+      <c r="E15" s="54">
+        <v>2730</v>
+      </c>
+      <c r="F15" s="54">
+        <v>2181</v>
+      </c>
+      <c r="G15" s="54">
+        <v>549</v>
+      </c>
       <c r="H15" s="54">
-        <v>4033</v>
+        <v>1194</v>
       </c>
       <c r="I15" s="54">
-        <v>1536</v>
+        <v>1023</v>
       </c>
       <c r="J15" s="54">
-        <v>2497</v>
+        <v>171</v>
       </c>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
@@ -31135,128 +31157,138 @@
       <c r="N15" s="56"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="5">
+      <c r="A16" t="s" s="53">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="53">
+        <v>37</v>
+      </c>
+      <c r="C16" s="54">
+        <v>29224</v>
+      </c>
+      <c r="D16" s="54">
+        <v>4033</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54">
+        <v>4033</v>
+      </c>
+      <c r="I16" s="54">
+        <v>1536</v>
+      </c>
+      <c r="J16" s="54">
+        <v>2497</v>
+      </c>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="B16" t="s" s="5">
+      <c r="B17" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <v>25385</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>2821</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>736</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>689</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>47</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="6">
         <v>2085</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I17" s="6">
         <v>988</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J17" s="6">
         <v>1097</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="53">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="s" s="53">
         <v>40</v>
       </c>
-      <c r="B17" t="s" s="53">
+      <c r="B18" t="s" s="53">
         <v>41</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C18" s="54">
         <v>8869</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D18" s="54">
         <v>2590</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E18" s="54">
         <v>1807</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F18" s="54">
         <v>790</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G18" s="54">
         <v>1001</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H18" s="54">
         <v>783</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I18" s="54">
         <v>548</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J18" s="54">
         <v>235</v>
       </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="5">
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="B18" t="s" s="5">
+      <c r="B19" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>27010</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>7754</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>2691</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>844</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>1847</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <v>5063</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I19" s="6">
         <v>4284</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J19" s="6">
         <v>779</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" hidden="1">
-      <c r="A19" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -31264,10 +31296,10 @@
     </row>
     <row r="20" ht="15" customHeight="1" hidden="1">
       <c r="A20" t="s" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -31282,33 +31314,21 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" hidden="1">
       <c r="A21" t="s" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6791</v>
-      </c>
-      <c r="D21" s="6">
-        <v>160</v>
-      </c>
-      <c r="E21" s="6">
-        <v>9</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>151</v>
-      </c>
-      <c r="I21" s="6">
-        <v>73</v>
-      </c>
-      <c r="J21" s="6">
-        <v>78</v>
-      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -31316,110 +31336,108 @@
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6">
-        <v>18607</v>
+        <v>6791</v>
       </c>
       <c r="D22" s="6">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="E22" s="6">
-        <v>820</v>
+        <v>9</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>710</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="I22" s="6">
+        <v>73</v>
+      </c>
+      <c r="J22" s="6">
+        <v>78</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="53">
+      <c r="A23" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="C23" s="6">
+        <v>18607</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1530</v>
+      </c>
+      <c r="E23" s="6">
+        <v>820</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>710</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="s" s="53">
         <v>50</v>
       </c>
-      <c r="B23" t="s" s="53">
+      <c r="B24" t="s" s="53">
         <v>51</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C24" s="54">
         <v>1715</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="C24" s="6">
-        <v>35425</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1226</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6">
-        <v>1226</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6">
-        <v>1226</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="6">
-        <v>8330</v>
+        <v>35425</v>
       </c>
       <c r="D25" s="6">
-        <v>2166</v>
-      </c>
-      <c r="E25" s="6">
-        <v>973</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <v>973</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6">
-        <v>1193</v>
-      </c>
-      <c r="I25" s="6">
-        <v>533</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6">
-        <v>660</v>
+        <v>1226</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -31427,232 +31445,246 @@
       <c r="N25" s="7"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="53">
+      <c r="A26" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6">
+        <v>8330</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2166</v>
+      </c>
+      <c r="E26" s="6">
+        <v>973</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>973</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1193</v>
+      </c>
+      <c r="I26" s="6">
+        <v>533</v>
+      </c>
+      <c r="J26" s="6">
+        <v>660</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="s" s="53">
         <v>56</v>
       </c>
-      <c r="B26" t="s" s="53">
+      <c r="B27" t="s" s="53">
         <v>57</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C27" s="54">
         <v>23062</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D27" s="54">
         <v>11904</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E27" s="54">
         <v>78469</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F27" s="54">
         <v>4850</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G27" s="54">
         <v>2619</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H27" s="54">
         <v>4435</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I27" s="54">
         <v>2097</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J27" s="54">
         <v>2338</v>
       </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" hidden="1">
-      <c r="A27" t="s" s="5">
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" hidden="1">
+      <c r="A28" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="B27" t="s" s="5">
+      <c r="B28" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2538</v>
-      </c>
-      <c r="D28" s="6">
-        <v>329</v>
-      </c>
-      <c r="E28" s="6">
-        <v>213</v>
-      </c>
-      <c r="F28" s="6">
-        <v>59</v>
-      </c>
-      <c r="G28" s="6">
-        <v>154</v>
-      </c>
-      <c r="H28" s="6">
-        <v>116</v>
-      </c>
-      <c r="I28" s="6">
-        <v>17</v>
-      </c>
-      <c r="J28" s="6">
-        <v>99</v>
-      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="53">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s" s="53">
-        <v>63</v>
-      </c>
-      <c r="C29" s="54">
-        <v>23969</v>
-      </c>
-      <c r="D29" s="54">
-        <v>6974</v>
-      </c>
-      <c r="E29" s="54">
-        <v>3971</v>
-      </c>
-      <c r="F29" s="54">
-        <v>3771</v>
-      </c>
-      <c r="G29" s="54">
-        <v>200</v>
-      </c>
-      <c r="H29" s="54">
-        <v>3003</v>
-      </c>
-      <c r="I29" s="54">
-        <v>3000</v>
-      </c>
-      <c r="J29" s="54">
-        <v>3</v>
-      </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
+      <c r="A29" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2538</v>
+      </c>
+      <c r="D29" s="6">
+        <v>329</v>
+      </c>
+      <c r="E29" s="6">
+        <v>213</v>
+      </c>
+      <c r="F29" s="6">
+        <v>59</v>
+      </c>
+      <c r="G29" s="6">
+        <v>154</v>
+      </c>
+      <c r="H29" s="6">
+        <v>116</v>
+      </c>
+      <c r="I29" s="6">
+        <v>17</v>
+      </c>
+      <c r="J29" s="6">
+        <v>99</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="53">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s" s="53">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="54">
-        <v>1401</v>
+        <v>23969</v>
       </c>
       <c r="D30" s="54">
-        <v>397</v>
+        <v>6974</v>
       </c>
       <c r="E30" s="54">
-        <v>267</v>
-      </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+        <v>3971</v>
+      </c>
+      <c r="F30" s="54">
+        <v>3771</v>
+      </c>
+      <c r="G30" s="54">
+        <v>200</v>
+      </c>
       <c r="H30" s="54">
-        <v>130</v>
-      </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
+        <v>3003</v>
+      </c>
+      <c r="I30" s="54">
+        <v>3000</v>
+      </c>
+      <c r="J30" s="54">
+        <v>3</v>
+      </c>
       <c r="K30" s="56"/>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
       <c r="N30" s="56"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="C31" s="6">
-        <v>5388</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="A31" t="s" s="53">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s" s="53">
+        <v>65</v>
+      </c>
+      <c r="C31" s="54">
+        <v>1401</v>
+      </c>
+      <c r="D31" s="54">
+        <v>397</v>
+      </c>
+      <c r="E31" s="54">
+        <v>267</v>
+      </c>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54">
+        <v>130</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2359</v>
-      </c>
-      <c r="D32" s="6">
-        <v>31</v>
-      </c>
-      <c r="E32" s="6">
-        <f>G32</f>
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5388</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6">
-        <f>J32</f>
-        <v>26</v>
-      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6">
-        <v>26</v>
-      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" ht="15" customHeight="1" hidden="1">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2359</v>
+      </c>
+      <c r="D33" s="6">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6">
+        <f>G33</f>
+        <v>5</v>
+      </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="6">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6">
+        <f>J33</f>
+        <v>26</v>
+      </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6">
+        <v>26</v>
+      </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -31660,10 +31692,10 @@
     </row>
     <row r="34" ht="15" customHeight="1" hidden="1">
       <c r="A34" t="s" s="5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -31678,37 +31710,21 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" ht="15" customHeight="1" hidden="1">
       <c r="A35" t="s" s="5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="C35" s="6">
-        <v>12254</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2503</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1698</v>
-      </c>
-      <c r="F35" s="6">
-        <v>209</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1489</v>
-      </c>
-      <c r="H35" s="6">
-        <v>805</v>
-      </c>
-      <c r="I35" s="6">
-        <v>89</v>
-      </c>
-      <c r="J35" s="6">
-        <v>716</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -31716,76 +31732,82 @@
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="6">
-        <v>38380</v>
+        <v>12254</v>
       </c>
       <c r="D36" s="6">
-        <v>7341</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+        <v>2503</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1698</v>
+      </c>
+      <c r="F36" s="6">
+        <v>209</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1489</v>
+      </c>
       <c r="H36" s="6">
-        <v>7341</v>
+        <v>805</v>
       </c>
       <c r="I36" s="6">
-        <v>5139</v>
+        <v>89</v>
       </c>
       <c r="J36" s="6">
-        <v>2202</v>
+        <v>716</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" ht="15" customHeight="1" hidden="1">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C37" s="6">
+        <v>38380</v>
+      </c>
+      <c r="D37" s="6">
+        <v>7341</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="H37" s="6">
+        <v>7341</v>
+      </c>
+      <c r="I37" s="6">
+        <v>5139</v>
+      </c>
+      <c r="J37" s="6">
+        <v>2202</v>
+      </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" ht="15" customHeight="1" hidden="1">
       <c r="A38" t="s" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="C38" s="6">
-        <v>22628</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1993</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1993</v>
-      </c>
-      <c r="F38" s="6">
-        <v>763</v>
-      </c>
-      <c r="G38" s="6">
-        <v>1230</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -31796,35 +31818,29 @@
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="5">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="6">
-        <v>14292</v>
+        <v>22628</v>
       </c>
       <c r="D39" s="6">
-        <v>1547</v>
+        <v>1993</v>
       </c>
       <c r="E39" s="6">
-        <v>1515</v>
+        <v>1993</v>
       </c>
       <c r="F39" s="6">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G39" s="6">
-        <v>745</v>
-      </c>
-      <c r="H39" s="6">
-        <v>32</v>
-      </c>
-      <c r="I39" s="6">
-        <v>6</v>
-      </c>
-      <c r="J39" s="6">
-        <v>26</v>
-      </c>
+        <v>1230</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -31832,113 +31848,129 @@
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="s" s="5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="6">
-        <v>42101</v>
+        <v>14292</v>
       </c>
       <c r="D40" s="6">
-        <v>5941</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+        <v>1547</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1515</v>
+      </c>
+      <c r="F40" s="6">
+        <v>770</v>
+      </c>
+      <c r="G40" s="6">
+        <v>745</v>
+      </c>
       <c r="H40" s="6">
-        <v>5941</v>
+        <v>32</v>
       </c>
       <c r="I40" s="6">
-        <v>3656</v>
+        <v>6</v>
       </c>
       <c r="J40" s="6">
-        <v>2285</v>
+        <v>26</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" ht="16.6" customHeight="1">
-      <c r="A41" t="s" s="53">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="C41" s="6">
+        <v>42101</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5941</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
+        <v>5941</v>
+      </c>
+      <c r="I41" s="6">
+        <v>3656</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2285</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" ht="16.6" customHeight="1">
+      <c r="A42" t="s" s="53">
         <v>86</v>
       </c>
-      <c r="B41" t="s" s="53">
+      <c r="B42" t="s" s="53">
         <v>87</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C42" s="54">
         <v>1491</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D42" s="54">
         <v>350</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E42" s="54">
         <v>277</v>
       </c>
-      <c r="F41" s="54">
+      <c r="F42" s="54">
         <v>237</v>
       </c>
-      <c r="G41" s="54">
+      <c r="G42" s="54">
         <v>37</v>
       </c>
-      <c r="H41" s="54">
+      <c r="H42" s="54">
         <v>73</v>
       </c>
-      <c r="I41" s="54">
+      <c r="I42" s="54">
         <v>33</v>
       </c>
-      <c r="J41" s="54">
+      <c r="J42" s="54">
         <v>18</v>
       </c>
-      <c r="K41" t="s" s="87">
+      <c r="K42" t="s" s="87">
         <v>154</v>
       </c>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="5">
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B43" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C43" s="6">
         <v>17318</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>2655</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>1480</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6">
-        <v>1175</v>
-      </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" hidden="1">
-      <c r="A43" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6">
+        <v>1175</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="7"/>
@@ -31946,16 +31978,14 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" ht="15" customHeight="1" hidden="1">
       <c r="A44" t="s" s="5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="C44" s="6">
-        <v>21382</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -31968,14 +31998,16 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" ht="15" customHeight="1" hidden="1">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" t="s" s="5">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="C45" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="C45" s="6">
+        <v>21382</v>
+      </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -31988,27 +32020,19 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" ht="15" customHeight="1" hidden="1">
       <c r="A46" t="s" s="5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>97</v>
-      </c>
-      <c r="C46" s="6">
-        <v>5579</v>
-      </c>
-      <c r="D46" s="6">
-        <v>2652</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1152</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6">
-        <v>1500</v>
-      </c>
+      <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="7"/>
@@ -32016,19 +32040,27 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" ht="15" customHeight="1" hidden="1">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" t="s" s="5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5579</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2652</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1152</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="6">
+        <v>1500</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="7"/>
@@ -32036,29 +32068,19 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" ht="15" customHeight="1" hidden="1">
       <c r="A48" t="s" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="C48" s="8">
-        <v>1066</v>
-      </c>
-      <c r="D48" s="6">
-        <f>E48+H48</f>
-        <v>250</v>
-      </c>
-      <c r="E48" s="6">
-        <v>92</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6">
-        <f>27+131</f>
-        <v>158</v>
-      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
@@ -32068,95 +32090,95 @@
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="s" s="5">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="C49" s="6">
-        <v>17330</v>
+        <v>101</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1066</v>
       </c>
       <c r="D49" s="6">
-        <v>6054</v>
-      </c>
-      <c r="E49" s="6"/>
+        <f>E49+H49</f>
+        <v>250</v>
+      </c>
+      <c r="E49" s="6">
+        <v>92</v>
+      </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>6054</v>
-      </c>
-      <c r="I49" s="6">
-        <v>4064</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1990</v>
-      </c>
+        <f>27+131</f>
+        <v>158</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="6"/>
+      <c r="N49" s="7"/>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="5">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="6">
-        <v>23765</v>
+        <v>17330</v>
       </c>
       <c r="D50" s="6">
-        <v>12152</v>
-      </c>
-      <c r="E50" s="6">
-        <v>4676</v>
-      </c>
-      <c r="F50" s="6">
-        <v>2672</v>
-      </c>
-      <c r="G50" s="6">
-        <v>2004</v>
-      </c>
+        <v>6054</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="6">
-        <v>7476</v>
+        <v>6054</v>
       </c>
       <c r="I50" s="6">
-        <v>3768</v>
+        <v>4064</v>
       </c>
       <c r="J50" s="6">
-        <v>3708</v>
+        <v>1990</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
+      <c r="N50" s="6"/>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="s" s="5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" s="6">
-        <v>6640</v>
+        <v>23765</v>
       </c>
       <c r="D51" s="6">
-        <v>865</v>
+        <v>12152</v>
       </c>
       <c r="E51" s="6">
-        <v>865</v>
+        <v>4676</v>
       </c>
       <c r="F51" s="6">
-        <v>65</v>
+        <v>2672</v>
       </c>
       <c r="G51" s="6">
-        <v>800</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+        <v>2004</v>
+      </c>
+      <c r="H51" s="6">
+        <v>7476</v>
+      </c>
+      <c r="I51" s="6">
+        <v>3768</v>
+      </c>
+      <c r="J51" s="6">
+        <v>3708</v>
+      </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -32164,51 +32186,65 @@
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="5">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="6">
-        <v>2364</v>
+        <v>6640</v>
       </c>
       <c r="D52" s="6">
-        <v>681</v>
+        <v>865</v>
       </c>
       <c r="E52" s="6">
-        <v>482</v>
+        <v>865</v>
       </c>
       <c r="F52" s="6">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G52" s="6">
-        <v>458</v>
-      </c>
-      <c r="H52" s="6">
-        <v>199</v>
-      </c>
-      <c r="I52" s="6">
-        <v>72</v>
-      </c>
-      <c r="J52" s="6">
-        <v>127</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="A53" t="s" s="5">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s" s="5">
+        <v>109</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2364</v>
+      </c>
+      <c r="D53" s="6">
+        <v>681</v>
+      </c>
+      <c r="E53" s="6">
+        <v>482</v>
+      </c>
+      <c r="F53" s="6">
+        <v>24</v>
+      </c>
+      <c r="G53" s="6">
+        <v>458</v>
+      </c>
+      <c r="H53" s="6">
+        <v>199</v>
+      </c>
+      <c r="I53" s="6">
+        <v>72</v>
+      </c>
+      <c r="J53" s="6">
+        <v>127</v>
+      </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -32216,103 +32252,119 @@
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="7"/>
-      <c r="B54" t="s" s="9">
-        <v>110</v>
-      </c>
-      <c r="C54" s="10">
-        <f>SUM(C2:C52)</f>
-        <v>742162</v>
-      </c>
-      <c r="D54" s="10">
-        <f>SUM(D2:D52)</f>
-        <v>147107</v>
-      </c>
-      <c r="E54" s="10">
-        <f>SUM(E2:E52)</f>
-        <v>134045</v>
-      </c>
-      <c r="F54" s="10">
-        <f>SUM(F2:F52)+E21+E22+E30+E42+E46+E48</f>
-        <v>39804</v>
-      </c>
-      <c r="G54" s="10">
-        <f>SUM(G2:G52)</f>
-        <v>23222</v>
-      </c>
-      <c r="H54" s="10">
-        <f>SUM(H2:H52)</f>
-        <v>84066</v>
-      </c>
-      <c r="I54" s="10">
-        <f>SUM(I2:I52)+H22+H30+H42+H46+H48</f>
-        <v>60892</v>
-      </c>
-      <c r="J54" s="10">
-        <f>SUM(J2:J52)</f>
-        <v>23153</v>
-      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="6"/>
+      <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="B55" t="s" s="9">
+        <v>110</v>
+      </c>
+      <c r="C55" s="10">
+        <f>SUM(C2:C53)</f>
+        <v>779893</v>
+      </c>
+      <c r="D55" s="10">
+        <f>SUM(D2:D53)</f>
+        <v>155945</v>
+      </c>
+      <c r="E55" s="10">
+        <f>SUM(E2:E53)</f>
+        <v>141942</v>
+      </c>
+      <c r="F55" s="10">
+        <f>SUM(F2:F53)+E22+E23+E31+E43+E47+E49</f>
+        <v>45665</v>
+      </c>
+      <c r="G55" s="10">
+        <f>SUM(G2:G53)</f>
+        <v>25258</v>
+      </c>
+      <c r="H55" s="10">
+        <f>SUM(H2:H53)</f>
+        <v>85007</v>
+      </c>
+      <c r="I55" s="10">
+        <f>SUM(I2:I53)+H23+H31+H43+H47+H49</f>
+        <v>61391</v>
+      </c>
+      <c r="J55" s="10">
+        <f>SUM(J2:J53)</f>
+        <v>23595</v>
+      </c>
       <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="C56" s="8">
-        <f>COUNTIF(C2:C52,"&gt;0")</f>
-        <v>40</v>
-      </c>
-      <c r="D56" s="8">
-        <f>COUNTIF(D2:D52,"&gt;0")</f>
-        <v>35</v>
-      </c>
-      <c r="E56" s="8">
-        <f>COUNTIF(E2:E52,"&gt;0")</f>
-        <v>30</v>
-      </c>
-      <c r="F56" s="8">
-        <f>COUNTIF(F2:F52,"&gt;0")</f>
-        <v>21</v>
-      </c>
-      <c r="G56" s="8">
-        <f>COUNTIF(G2:G52,"&gt;0")</f>
-        <v>24</v>
-      </c>
-      <c r="H56" s="8">
-        <f>COUNTIF(H2:H52,"&gt;0")</f>
-        <v>33</v>
-      </c>
-      <c r="I56" s="8">
-        <f>COUNTIF(I2:I52,"&gt;0")</f>
-        <v>25</v>
-      </c>
-      <c r="J56" s="8">
-        <f>COUNTIF(J2:J52,"&gt;0")</f>
-        <v>28</v>
-      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="C57" s="8">
+        <f>COUNTIF(C2:C53,"&gt;0")</f>
+        <v>41</v>
+      </c>
+      <c r="D57" s="8">
+        <f>COUNTIF(D2:D53,"&gt;0")</f>
+        <v>36</v>
+      </c>
+      <c r="E57" s="8">
+        <f>COUNTIF(E2:E53,"&gt;0")</f>
+        <v>31</v>
+      </c>
+      <c r="F57" s="8">
+        <f>COUNTIF(F2:F53,"&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="G57" s="8">
+        <f>COUNTIF(G2:G53,"&gt;0")</f>
+        <v>25</v>
+      </c>
+      <c r="H57" s="8">
+        <f>COUNTIF(H2:H53,"&gt;0")</f>
+        <v>34</v>
+      </c>
+      <c r="I57" s="8">
+        <f>COUNTIF(I2:I53,"&gt;0")</f>
+        <v>26</v>
+      </c>
+      <c r="J57" s="8">
+        <f>COUNTIF(J2:J53,"&gt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -31,12 +31,13 @@
     <sheet name="PopPercentages 2020" sheetId="24" r:id="rId27"/>
     <sheet name="State Notes 2020" sheetId="25" r:id="rId28"/>
     <sheet name="Survey 2020" sheetId="26" r:id="rId29"/>
+    <sheet name="Survey Submissions" sheetId="27" r:id="rId30"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>State Abbrev</t>
   </si>
@@ -787,6 +788,12 @@
   <si>
     <t>ALOS data include only the months from the most recent prison intake to prison exit. Months accumulated on multiple stays in prison on the same conviction (e.g., new intake, then parole release, then return from parole, then re-parole) are not included in the ALOS data contained here.</t>
   </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
@@ -800,7 +807,7 @@
     <numFmt numFmtId="62" formatCode="&quot;$&quot;0.00"/>
     <numFmt numFmtId="63" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -860,7 +867,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -874,7 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -910,7 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -921,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -931,42 +954,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,32 +1003,32 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -1014,13 +1037,50 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="18"/>
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
         <color indexed="19"/>
@@ -1029,7 +1089,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
         <color indexed="19"/>
@@ -1038,7 +1098,7 @@
         <color indexed="19"/>
       </top>
       <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,43 +1107,43 @@
         <color indexed="19"/>
       </left>
       <right style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
         <color indexed="19"/>
       </top>
       <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
         <color indexed="19"/>
       </top>
       <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
         <color indexed="19"/>
       </right>
       <top style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,28 +1152,103 @@
         <color indexed="19"/>
       </left>
       <right style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="21"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,14 +1258,14 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1139,22 +1274,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1166,52 +1301,52 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="10" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1220,49 +1355,49 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="10" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1274,10 +1409,10 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1316,7 +1451,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1343,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1358,10 +1493,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1370,7 +1505,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1394,7 +1529,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1406,7 +1541,85 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="62" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="62" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="63" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="62" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="62" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1415,70 +1628,28 @@
     <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="62" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1498,18 +1669,20 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ff51a939"/>
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ffffc000"/>
       <rgbColor rgb="ff5b9bd5"/>
       <rgbColor rgb="ff598a38"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1708,17 +1881,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1746,10 +1919,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1997,12 +2170,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2289,7 +2462,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2317,10 +2490,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -30656,7 +30829,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -31259,40 +31432,40 @@
       <c r="N18" s="56"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="5">
+      <c r="A19" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B19" t="s" s="5">
+      <c r="B19" t="s" s="53">
         <v>45</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="54">
         <v>27010</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="54">
         <v>7754</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="54">
         <v>2691</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="54">
         <v>844</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="54">
         <v>1847</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="54">
         <v>5063</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="54">
         <v>4284</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="54">
         <v>779</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
     </row>
     <row r="20" ht="15" customHeight="1" hidden="1">
       <c r="A20" t="s" s="5">
@@ -32020,47 +32193,51 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" ht="15" customHeight="1" hidden="1">
-      <c r="A46" t="s" s="5">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="s" s="53">
         <v>94</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" t="s" s="53">
         <v>95</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" ht="15" customHeight="1">
+      <c r="C46" s="54">
+        <v>121119</v>
+      </c>
+      <c r="D46" s="54">
+        <v>25822</v>
+      </c>
+      <c r="E46" s="54">
+        <v>19350</v>
+      </c>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54">
+        <v>6472</v>
+      </c>
+      <c r="I46" s="54">
+        <v>4878</v>
+      </c>
+      <c r="J46" s="54">
+        <v>1594</v>
+      </c>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" hidden="1">
       <c r="A47" t="s" s="5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>97</v>
-      </c>
-      <c r="C47" s="6">
-        <v>5579</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2652</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1152</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6">
-        <v>1500</v>
-      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="7"/>
@@ -32068,19 +32245,27 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" ht="15" customHeight="1" hidden="1">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" t="s" s="5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C48" s="6">
+        <v>5579</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2652</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1152</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="6">
+        <v>1500</v>
+      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
@@ -32088,29 +32273,19 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" ht="15" customHeight="1" hidden="1">
       <c r="A49" t="s" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="C49" s="8">
-        <v>1066</v>
-      </c>
-      <c r="D49" s="6">
-        <f>E49+H49</f>
-        <v>250</v>
-      </c>
-      <c r="E49" s="6">
-        <v>92</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6">
-        <f>27+131</f>
-        <v>158</v>
-      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="7"/>
@@ -32120,95 +32295,95 @@
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="5">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="C50" s="6">
-        <v>17330</v>
+        <v>101</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1066</v>
       </c>
       <c r="D50" s="6">
-        <v>6054</v>
-      </c>
-      <c r="E50" s="6"/>
+        <f>E50+H50</f>
+        <v>250</v>
+      </c>
+      <c r="E50" s="6">
+        <v>92</v>
+      </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>6054</v>
-      </c>
-      <c r="I50" s="6">
-        <v>4064</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1990</v>
-      </c>
+        <f>27+131</f>
+        <v>158</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="6"/>
+      <c r="N50" s="7"/>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="s" s="5">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="6">
-        <v>23765</v>
+        <v>17330</v>
       </c>
       <c r="D51" s="6">
-        <v>12152</v>
-      </c>
-      <c r="E51" s="6">
-        <v>4676</v>
-      </c>
-      <c r="F51" s="6">
-        <v>2672</v>
-      </c>
-      <c r="G51" s="6">
-        <v>2004</v>
-      </c>
+        <v>6054</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="6">
-        <v>7476</v>
+        <v>6054</v>
       </c>
       <c r="I51" s="6">
-        <v>3768</v>
+        <v>4064</v>
       </c>
       <c r="J51" s="6">
-        <v>3708</v>
+        <v>1990</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
+      <c r="N51" s="6"/>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="6">
-        <v>6640</v>
+        <v>23765</v>
       </c>
       <c r="D52" s="6">
-        <v>865</v>
+        <v>12152</v>
       </c>
       <c r="E52" s="6">
-        <v>865</v>
+        <v>4676</v>
       </c>
       <c r="F52" s="6">
-        <v>65</v>
+        <v>2672</v>
       </c>
       <c r="G52" s="6">
-        <v>800</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+        <v>2004</v>
+      </c>
+      <c r="H52" s="6">
+        <v>7476</v>
+      </c>
+      <c r="I52" s="6">
+        <v>3768</v>
+      </c>
+      <c r="J52" s="6">
+        <v>3708</v>
+      </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -32216,51 +32391,65 @@
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="s" s="5">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" s="6">
-        <v>2364</v>
+        <v>6640</v>
       </c>
       <c r="D53" s="6">
-        <v>681</v>
+        <v>865</v>
       </c>
       <c r="E53" s="6">
-        <v>482</v>
+        <v>865</v>
       </c>
       <c r="F53" s="6">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G53" s="6">
-        <v>458</v>
-      </c>
-      <c r="H53" s="6">
-        <v>199</v>
-      </c>
-      <c r="I53" s="6">
-        <v>72</v>
-      </c>
-      <c r="J53" s="6">
-        <v>127</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="A54" t="s" s="5">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s" s="5">
+        <v>109</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2364</v>
+      </c>
+      <c r="D54" s="6">
+        <v>681</v>
+      </c>
+      <c r="E54" s="6">
+        <v>482</v>
+      </c>
+      <c r="F54" s="6">
+        <v>24</v>
+      </c>
+      <c r="G54" s="6">
+        <v>458</v>
+      </c>
+      <c r="H54" s="6">
+        <v>199</v>
+      </c>
+      <c r="I54" s="6">
+        <v>72</v>
+      </c>
+      <c r="J54" s="6">
+        <v>127</v>
+      </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -32268,103 +32457,119 @@
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" t="s" s="9">
-        <v>110</v>
-      </c>
-      <c r="C55" s="10">
-        <f>SUM(C2:C53)</f>
-        <v>779893</v>
-      </c>
-      <c r="D55" s="10">
-        <f>SUM(D2:D53)</f>
-        <v>155945</v>
-      </c>
-      <c r="E55" s="10">
-        <f>SUM(E2:E53)</f>
-        <v>141942</v>
-      </c>
-      <c r="F55" s="10">
-        <f>SUM(F2:F53)+E22+E23+E31+E43+E47+E49</f>
-        <v>45665</v>
-      </c>
-      <c r="G55" s="10">
-        <f>SUM(G2:G53)</f>
-        <v>25258</v>
-      </c>
-      <c r="H55" s="10">
-        <f>SUM(H2:H53)</f>
-        <v>85007</v>
-      </c>
-      <c r="I55" s="10">
-        <f>SUM(I2:I53)+H23+H31+H43+H47+H49</f>
-        <v>61391</v>
-      </c>
-      <c r="J55" s="10">
-        <f>SUM(J2:J53)</f>
-        <v>23595</v>
-      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="6"/>
+      <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="B56" t="s" s="9">
+        <v>110</v>
+      </c>
+      <c r="C56" s="10">
+        <f>SUM(C2:C54)</f>
+        <v>901012</v>
+      </c>
+      <c r="D56" s="10">
+        <f>SUM(D2:D54)</f>
+        <v>181767</v>
+      </c>
+      <c r="E56" s="10">
+        <f>SUM(E2:E54)</f>
+        <v>161292</v>
+      </c>
+      <c r="F56" s="10">
+        <f>SUM(F2:F54)+E22+E23+E31+E43+E48+E50</f>
+        <v>45665</v>
+      </c>
+      <c r="G56" s="10">
+        <f>SUM(G2:G54)</f>
+        <v>25258</v>
+      </c>
+      <c r="H56" s="10">
+        <f>SUM(H2:H54)</f>
+        <v>91479</v>
+      </c>
+      <c r="I56" s="10">
+        <f>SUM(I2:I54)+H23+H31+H43+H48+H50</f>
+        <v>66269</v>
+      </c>
+      <c r="J56" s="10">
+        <f>SUM(J2:J54)</f>
+        <v>25189</v>
+      </c>
       <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="L56" s="6"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="C57" s="8">
-        <f>COUNTIF(C2:C53,"&gt;0")</f>
-        <v>41</v>
-      </c>
-      <c r="D57" s="8">
-        <f>COUNTIF(D2:D53,"&gt;0")</f>
-        <v>36</v>
-      </c>
-      <c r="E57" s="8">
-        <f>COUNTIF(E2:E53,"&gt;0")</f>
-        <v>31</v>
-      </c>
-      <c r="F57" s="8">
-        <f>COUNTIF(F2:F53,"&gt;0")</f>
-        <v>22</v>
-      </c>
-      <c r="G57" s="8">
-        <f>COUNTIF(G2:G53,"&gt;0")</f>
-        <v>25</v>
-      </c>
-      <c r="H57" s="8">
-        <f>COUNTIF(H2:H53,"&gt;0")</f>
-        <v>34</v>
-      </c>
-      <c r="I57" s="8">
-        <f>COUNTIF(I2:I53,"&gt;0")</f>
-        <v>26</v>
-      </c>
-      <c r="J57" s="8">
-        <f>COUNTIF(J2:J53,"&gt;0")</f>
-        <v>29</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="C58" s="8">
+        <f>COUNTIF(C2:C54,"&gt;0")</f>
+        <v>42</v>
+      </c>
+      <c r="D58" s="8">
+        <f>COUNTIF(D2:D54,"&gt;0")</f>
+        <v>37</v>
+      </c>
+      <c r="E58" s="8">
+        <f>COUNTIF(E2:E54,"&gt;0")</f>
+        <v>32</v>
+      </c>
+      <c r="F58" s="8">
+        <f>COUNTIF(F2:F54,"&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="G58" s="8">
+        <f>COUNTIF(G2:G54,"&gt;0")</f>
+        <v>25</v>
+      </c>
+      <c r="H58" s="8">
+        <f>COUNTIF(H2:H54,"&gt;0")</f>
+        <v>35</v>
+      </c>
+      <c r="I58" s="8">
+        <f>COUNTIF(I2:I54,"&gt;0")</f>
+        <v>27</v>
+      </c>
+      <c r="J58" s="8">
+        <f>COUNTIF(J2:J54,"&gt;0")</f>
+        <v>30</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37878,11 +38083,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -37902,941 +38105,1337 @@
       <c r="A1" t="s" s="96">
         <v>197</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" t="s" s="97">
+      <c r="A2" t="s" s="99">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="97">
+      <c r="B2" t="s" s="99">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="98">
+      <c r="C2" t="s" s="100">
         <v>198</v>
       </c>
-      <c r="D2" t="s" s="98">
+      <c r="D2" t="s" s="100">
         <v>199</v>
       </c>
-      <c r="E2" t="s" s="98">
+      <c r="E2" t="s" s="100">
         <v>200</v>
       </c>
-      <c r="F2" t="s" s="98">
+      <c r="F2" t="s" s="100">
         <v>201</v>
       </c>
-      <c r="G2" t="s" s="98">
+      <c r="G2" t="s" s="100">
         <v>202</v>
       </c>
-      <c r="H2" t="s" s="98">
+      <c r="H2" t="s" s="100">
         <v>203</v>
       </c>
-      <c r="I2" t="s" s="98">
+      <c r="I2" t="s" s="100">
         <v>149</v>
       </c>
     </row>
     <row r="3" ht="14.55" customHeight="1">
-      <c r="A3" t="s" s="99">
+      <c r="A3" t="s" s="101">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="100">
+      <c r="B3" t="s" s="102">
         <v>11</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104">
         <v>175.84</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="103">
+      <c r="A4" t="s" s="105">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="104">
+      <c r="B4" t="s" s="106">
         <v>13</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108">
         <v>45</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="108">
         <v>45</v>
       </c>
-      <c r="F4" t="s" s="107">
+      <c r="F4" t="s" s="109">
         <v>204</v>
       </c>
-      <c r="G4" s="108">
+      <c r="G4" s="110">
         <v>72.28</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" t="s" s="103">
+      <c r="A5" t="s" s="105">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="104">
+      <c r="B5" t="s" s="106">
         <v>15</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" ht="26.35" customHeight="1">
-      <c r="A6" t="s" s="103">
+      <c r="A6" t="s" s="105">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="104">
+      <c r="B6" t="s" s="106">
         <v>17</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="111">
         <v>1061.7</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="112">
         <v>686.6</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="113">
         <v>238.5</v>
       </c>
-      <c r="F6" t="s" s="112">
+      <c r="F6" t="s" s="114">
         <v>204</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="115">
         <v>71.48999999999999</v>
       </c>
-      <c r="H6" s="113">
+      <c r="H6" s="115">
         <v>4.91</v>
       </c>
-      <c r="I6" t="s" s="114">
+      <c r="I6" t="s" s="116">
         <v>205</v>
       </c>
     </row>
     <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" t="s" s="103">
+      <c r="A7" t="s" s="105">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="104">
+      <c r="B7" t="s" s="106">
         <v>19</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" t="s" s="103">
+      <c r="A8" t="s" s="105">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="104">
+      <c r="B8" t="s" s="106">
         <v>21</v>
       </c>
-      <c r="C8" s="106">
+      <c r="C8" s="108">
         <v>953</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="108">
         <v>1170</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="108">
         <v>511</v>
       </c>
-      <c r="F8" t="s" s="107">
+      <c r="F8" t="s" s="109">
         <v>204</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" t="s" s="103">
+      <c r="A9" t="s" s="105">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="104">
+      <c r="B9" t="s" s="106">
         <v>23</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="113">
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="115">
         <v>131.15</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" t="s" s="103">
+      <c r="A10" t="s" s="105">
         <v>24</v>
       </c>
-      <c r="B10" t="s" s="104">
+      <c r="B10" t="s" s="106">
         <v>25</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" t="s" s="103">
+      <c r="A11" t="s" s="105">
         <v>26</v>
       </c>
-      <c r="B11" t="s" s="104">
+      <c r="B11" t="s" s="106">
         <v>27</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
-      <c r="A12" t="s" s="103">
+      <c r="A12" t="s" s="105">
         <v>28</v>
       </c>
-      <c r="B12" t="s" s="104">
+      <c r="B12" t="s" s="106">
         <v>29</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
-      <c r="A13" t="s" s="103">
+      <c r="A13" t="s" s="105">
         <v>30</v>
       </c>
-      <c r="B13" t="s" s="104">
+      <c r="B13" t="s" s="106">
         <v>31</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
-      <c r="A14" t="s" s="103">
+      <c r="A14" t="s" s="105">
         <v>32</v>
       </c>
-      <c r="B14" t="s" s="104">
+      <c r="B14" t="s" s="106">
         <v>33</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" t="s" s="103">
+      <c r="A15" t="s" s="105">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="104">
+      <c r="B15" t="s" s="106">
         <v>35</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="108">
         <v>61</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="108">
         <v>24</v>
       </c>
-      <c r="E15" s="106">
+      <c r="E15" s="108">
         <v>25</v>
       </c>
-      <c r="F15" t="s" s="107">
+      <c r="F15" t="s" s="109">
         <v>206</v>
       </c>
-      <c r="G15" s="115">
+      <c r="G15" s="117">
         <v>76.31999999999999</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="115">
         <v>32.14</v>
       </c>
-      <c r="I15" s="105"/>
+      <c r="I15" s="107"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
-      <c r="A16" t="s" s="103">
+      <c r="A16" t="s" s="105">
         <v>36</v>
       </c>
-      <c r="B16" t="s" s="104">
+      <c r="B16" t="s" s="106">
         <v>37</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="108">
         <v>26.7</v>
       </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106">
+      <c r="D16" s="107"/>
+      <c r="E16" s="108">
         <v>7.4</v>
       </c>
-      <c r="F16" t="s" s="107">
+      <c r="F16" t="s" s="109">
         <v>206</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="115">
         <v>94.14</v>
       </c>
-      <c r="H16" s="113">
+      <c r="H16" s="115">
         <v>24.71</v>
       </c>
-      <c r="I16" t="s" s="107">
+      <c r="I16" t="s" s="109">
         <v>207</v>
       </c>
     </row>
     <row r="17" ht="14.35" customHeight="1">
-      <c r="A17" t="s" s="103">
+      <c r="A17" t="s" s="105">
         <v>38</v>
       </c>
-      <c r="B17" t="s" s="104">
+      <c r="B17" t="s" s="106">
         <v>39</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
     </row>
     <row r="18" ht="15.95" customHeight="1">
-      <c r="A18" t="s" s="103">
+      <c r="A18" t="s" s="105">
         <v>40</v>
       </c>
-      <c r="B18" t="s" s="104">
+      <c r="B18" t="s" s="106">
         <v>41</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="108">
         <v>37.86</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="108">
         <v>12.43</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="108">
         <v>16.74</v>
       </c>
-      <c r="F18" t="s" s="107">
+      <c r="F18" t="s" s="109">
         <v>206</v>
       </c>
-      <c r="G18" t="s" s="116">
+      <c r="G18" t="s" s="118">
         <v>208</v>
       </c>
-      <c r="H18" s="105"/>
-      <c r="I18" t="s" s="107">
+      <c r="H18" s="107"/>
+      <c r="I18" t="s" s="109">
         <v>209</v>
       </c>
     </row>
     <row r="19" ht="14.35" customHeight="1">
-      <c r="A19" t="s" s="103">
+      <c r="A19" t="s" s="105">
         <v>42</v>
       </c>
-      <c r="B19" t="s" s="104">
+      <c r="B19" t="s" s="106">
         <v>43</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" ht="15.95" customHeight="1">
-      <c r="A20" t="s" s="103">
+      <c r="A20" t="s" s="105">
         <v>44</v>
       </c>
-      <c r="B20" t="s" s="104">
+      <c r="B20" t="s" s="106">
         <v>45</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="108">
         <v>6.2</v>
       </c>
-      <c r="D20" s="106">
+      <c r="D20" s="108">
         <v>4.9</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="108">
         <v>4.89</v>
       </c>
-      <c r="F20" t="s" s="107">
+      <c r="F20" t="s" s="109">
         <v>210</v>
       </c>
-      <c r="G20" t="s" s="117">
+      <c r="G20" t="s" s="119">
         <v>211</v>
       </c>
-      <c r="H20" t="s" s="107">
+      <c r="H20" t="s" s="109">
         <v>212</v>
       </c>
-      <c r="I20" t="s" s="107">
+      <c r="I20" t="s" s="109">
         <v>213</v>
       </c>
     </row>
     <row r="21" ht="14.35" customHeight="1">
-      <c r="A21" t="s" s="103">
+      <c r="A21" t="s" s="105">
         <v>46</v>
       </c>
-      <c r="B21" t="s" s="104">
+      <c r="B21" t="s" s="106">
         <v>47</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
     </row>
     <row r="22" ht="26.35" customHeight="1">
-      <c r="A22" t="s" s="103">
+      <c r="A22" t="s" s="105">
         <v>48</v>
       </c>
-      <c r="B22" t="s" s="104">
+      <c r="B22" t="s" s="106">
         <v>49</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="113">
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="115">
         <v>123.33</v>
       </c>
-      <c r="H22" s="113">
+      <c r="H22" s="115">
         <v>6.36</v>
       </c>
-      <c r="I22" t="s" s="114">
+      <c r="I22" t="s" s="116">
         <v>214</v>
       </c>
     </row>
     <row r="23" ht="14.35" customHeight="1">
-      <c r="A23" t="s" s="103">
+      <c r="A23" t="s" s="105">
         <v>50</v>
       </c>
-      <c r="B23" t="s" s="104">
+      <c r="B23" t="s" s="106">
         <v>51</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="113">
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="115">
         <v>151</v>
       </c>
-      <c r="H23" s="105"/>
-      <c r="I23" t="s" s="107">
+      <c r="H23" s="107"/>
+      <c r="I23" t="s" s="109">
         <v>215</v>
       </c>
     </row>
     <row r="24" ht="14.35" customHeight="1">
-      <c r="A24" t="s" s="103">
+      <c r="A24" t="s" s="105">
         <v>52</v>
       </c>
-      <c r="B24" t="s" s="104">
+      <c r="B24" t="s" s="106">
         <v>53</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
-      <c r="A25" t="s" s="103">
+      <c r="A25" t="s" s="105">
         <v>54</v>
       </c>
-      <c r="B25" t="s" s="104">
+      <c r="B25" t="s" s="106">
         <v>55</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
     </row>
     <row r="26" ht="15.95" customHeight="1">
-      <c r="A26" t="s" s="103">
+      <c r="A26" t="s" s="105">
         <v>56</v>
       </c>
-      <c r="B26" t="s" s="104">
+      <c r="B26" t="s" s="106">
         <v>57</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="108">
         <v>4.9</v>
       </c>
-      <c r="D26" s="106">
+      <c r="D26" s="108">
         <v>2.1</v>
       </c>
-      <c r="E26" s="106">
+      <c r="E26" s="108">
         <v>1.4</v>
       </c>
-      <c r="F26" t="s" s="107">
+      <c r="F26" t="s" s="109">
         <v>210</v>
       </c>
-      <c r="G26" t="s" s="117">
+      <c r="G26" t="s" s="119">
         <v>216</v>
       </c>
-      <c r="H26" t="s" s="117">
+      <c r="H26" t="s" s="119">
         <v>217</v>
       </c>
-      <c r="I26" s="118"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
-      <c r="A27" t="s" s="103">
+      <c r="A27" t="s" s="105">
         <v>58</v>
       </c>
-      <c r="B27" t="s" s="104">
+      <c r="B27" t="s" s="106">
         <v>59</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
-      <c r="A28" t="s" s="103">
+      <c r="A28" t="s" s="105">
         <v>60</v>
       </c>
-      <c r="B28" t="s" s="104">
+      <c r="B28" t="s" s="106">
         <v>61</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
-      <c r="A29" t="s" s="103">
+      <c r="A29" t="s" s="105">
         <v>62</v>
       </c>
-      <c r="B29" t="s" s="104">
+      <c r="B29" t="s" s="106">
         <v>63</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C29" s="108">
         <v>2</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" t="s" s="107">
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" t="s" s="109">
         <v>210</v>
       </c>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106">
+      <c r="G29" s="107"/>
+      <c r="H29" s="108">
         <v>127.63</v>
       </c>
-      <c r="I29" s="105"/>
+      <c r="I29" s="107"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
-      <c r="A30" t="s" s="103">
+      <c r="A30" t="s" s="105">
         <v>64</v>
       </c>
-      <c r="B30" t="s" s="104">
+      <c r="B30" t="s" s="106">
         <v>65</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="108">
         <v>1.4</v>
       </c>
-      <c r="D30" s="106">
+      <c r="D30" s="108">
         <v>1.02</v>
       </c>
-      <c r="E30" s="106">
+      <c r="E30" s="108">
         <v>0.67</v>
       </c>
-      <c r="F30" t="s" s="107">
+      <c r="F30" t="s" s="109">
         <v>210</v>
       </c>
-      <c r="G30" t="s" s="107">
+      <c r="G30" t="s" s="109">
         <v>218</v>
       </c>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
-      <c r="A31" t="s" s="103">
+      <c r="A31" t="s" s="105">
         <v>66</v>
       </c>
-      <c r="B31" t="s" s="104">
+      <c r="B31" t="s" s="106">
         <v>67</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
-      <c r="A32" t="s" s="103">
+      <c r="A32" t="s" s="105">
         <v>68</v>
       </c>
-      <c r="B32" t="s" s="104">
+      <c r="B32" t="s" s="106">
         <v>69</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
-      <c r="A33" t="s" s="103">
+      <c r="A33" t="s" s="105">
         <v>70</v>
       </c>
-      <c r="B33" t="s" s="104">
+      <c r="B33" t="s" s="106">
         <v>71</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
-      <c r="A34" t="s" s="103">
+      <c r="A34" t="s" s="105">
         <v>72</v>
       </c>
-      <c r="B34" t="s" s="104">
+      <c r="B34" t="s" s="106">
         <v>73</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
-      <c r="A35" t="s" s="103">
+      <c r="A35" t="s" s="105">
         <v>74</v>
       </c>
-      <c r="B35" t="s" s="104">
+      <c r="B35" t="s" s="106">
         <v>75</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
-      <c r="A36" t="s" s="103">
+      <c r="A36" t="s" s="105">
         <v>76</v>
       </c>
-      <c r="B36" t="s" s="104">
+      <c r="B36" t="s" s="106">
         <v>77</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
-      <c r="A37" t="s" s="103">
+      <c r="A37" t="s" s="105">
         <v>78</v>
       </c>
-      <c r="B37" t="s" s="104">
+      <c r="B37" t="s" s="106">
         <v>79</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
     </row>
     <row r="38" ht="14.35" customHeight="1">
-      <c r="A38" t="s" s="103">
+      <c r="A38" t="s" s="105">
         <v>80</v>
       </c>
-      <c r="B38" t="s" s="104">
+      <c r="B38" t="s" s="106">
         <v>81</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
-      <c r="A39" t="s" s="103">
+      <c r="A39" t="s" s="105">
         <v>82</v>
       </c>
-      <c r="B39" t="s" s="104">
+      <c r="B39" t="s" s="106">
         <v>83</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
-      <c r="A40" t="s" s="103">
+      <c r="A40" t="s" s="105">
         <v>84</v>
       </c>
-      <c r="B40" t="s" s="104">
+      <c r="B40" t="s" s="106">
         <v>85</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
     </row>
     <row r="41" ht="15.95" customHeight="1">
-      <c r="A41" t="s" s="103">
+      <c r="A41" t="s" s="105">
         <v>86</v>
       </c>
-      <c r="B41" t="s" s="104">
+      <c r="B41" t="s" s="106">
         <v>87</v>
       </c>
-      <c r="C41" s="106">
+      <c r="C41" s="108">
         <v>352</v>
       </c>
-      <c r="D41" s="106">
+      <c r="D41" s="108">
         <v>381</v>
       </c>
-      <c r="E41" s="106">
+      <c r="E41" s="108">
         <v>334</v>
       </c>
-      <c r="F41" t="s" s="107">
+      <c r="F41" t="s" s="109">
         <v>204</v>
       </c>
-      <c r="G41" t="s" s="116">
+      <c r="G41" t="s" s="118">
         <v>219</v>
       </c>
-      <c r="H41" s="105"/>
-      <c r="I41" t="s" s="107">
+      <c r="H41" s="107"/>
+      <c r="I41" t="s" s="109">
         <v>220</v>
       </c>
     </row>
     <row r="42" ht="14.35" customHeight="1">
-      <c r="A42" t="s" s="103">
+      <c r="A42" t="s" s="105">
         <v>88</v>
       </c>
-      <c r="B42" t="s" s="104">
+      <c r="B42" t="s" s="106">
         <v>89</v>
       </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
     </row>
     <row r="43" ht="14.35" customHeight="1">
-      <c r="A43" t="s" s="103">
+      <c r="A43" t="s" s="105">
         <v>90</v>
       </c>
-      <c r="B43" t="s" s="104">
+      <c r="B43" t="s" s="106">
         <v>91</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
-      <c r="A44" t="s" s="103">
+      <c r="A44" t="s" s="105">
         <v>92</v>
       </c>
-      <c r="B44" t="s" s="104">
+      <c r="B44" t="s" s="106">
         <v>93</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
-      <c r="A45" t="s" s="103">
+      <c r="A45" t="s" s="105">
         <v>94</v>
       </c>
-      <c r="B45" t="s" s="104">
+      <c r="B45" t="s" s="106">
         <v>95</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
+      <c r="C45" s="108">
+        <v>34.1</v>
+      </c>
+      <c r="D45" s="107"/>
+      <c r="E45" s="108">
+        <v>25.1</v>
+      </c>
+      <c r="F45" t="s" s="109">
+        <v>206</v>
+      </c>
+      <c r="G45" s="115">
+        <v>64.34</v>
+      </c>
+      <c r="H45" s="115">
+        <v>69.27</v>
+      </c>
+      <c r="I45" s="107"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
-      <c r="A46" t="s" s="103">
+      <c r="A46" t="s" s="105">
         <v>96</v>
       </c>
-      <c r="B46" t="s" s="104">
+      <c r="B46" t="s" s="106">
         <v>97</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
     </row>
     <row r="47" ht="14.35" customHeight="1">
-      <c r="A47" t="s" s="103">
+      <c r="A47" t="s" s="105">
         <v>98</v>
       </c>
-      <c r="B47" t="s" s="104">
+      <c r="B47" t="s" s="106">
         <v>99</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
-      <c r="A48" t="s" s="103">
+      <c r="A48" t="s" s="105">
         <v>100</v>
       </c>
-      <c r="B48" t="s" s="104">
+      <c r="B48" t="s" s="106">
         <v>101</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
-      <c r="A49" t="s" s="103">
+      <c r="A49" t="s" s="105">
         <v>102</v>
       </c>
-      <c r="B49" t="s" s="104">
+      <c r="B49" t="s" s="106">
         <v>103</v>
       </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
-      <c r="A50" t="s" s="103">
+      <c r="A50" t="s" s="105">
         <v>104</v>
       </c>
-      <c r="B50" t="s" s="104">
+      <c r="B50" t="s" s="106">
         <v>105</v>
       </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
     </row>
     <row r="51" ht="14.35" customHeight="1">
-      <c r="A51" t="s" s="103">
+      <c r="A51" t="s" s="105">
         <v>106</v>
       </c>
-      <c r="B51" t="s" s="104">
+      <c r="B51" t="s" s="106">
         <v>107</v>
       </c>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
     </row>
     <row r="52" ht="14.35" customHeight="1">
-      <c r="A52" t="s" s="103">
+      <c r="A52" t="s" s="105">
         <v>108</v>
       </c>
-      <c r="B52" t="s" s="104">
+      <c r="B52" t="s" s="106">
         <v>109</v>
       </c>
-      <c r="C52" s="106">
+      <c r="C52" s="108">
         <v>26</v>
       </c>
-      <c r="D52" s="106">
+      <c r="D52" s="108">
         <v>22</v>
       </c>
-      <c r="E52" s="106">
+      <c r="E52" s="108">
         <v>12</v>
       </c>
-      <c r="F52" t="s" s="107">
+      <c r="F52" t="s" s="109">
         <v>206</v>
       </c>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" t="s" s="107">
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" t="s" s="109">
         <v>221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="121" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="121" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="121" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="122">
+        <v>197</v>
+      </c>
+      <c r="B1" s="122"/>
+    </row>
+    <row r="2" ht="19.55" customHeight="1">
+      <c r="A2" t="s" s="123">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="19.55" customHeight="1">
+      <c r="A3" t="s" s="125">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s" s="126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="19.35" customHeight="1">
+      <c r="A4" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s" s="128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="19.35" customHeight="1">
+      <c r="A5" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s" s="128">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="19.35" customHeight="1">
+      <c r="A6" s="129"/>
+      <c r="B6" t="s" s="128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="19.35" customHeight="1">
+      <c r="A7" s="129"/>
+      <c r="B7" t="s" s="128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="19.35" customHeight="1">
+      <c r="A8" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s" s="128">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="19.35" customHeight="1">
+      <c r="A9" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s" s="128">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="19.35" customHeight="1">
+      <c r="A10" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s" s="128">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="19.35" customHeight="1">
+      <c r="A11" s="129"/>
+      <c r="B11" t="s" s="128">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="19.35" customHeight="1">
+      <c r="A12" s="129"/>
+      <c r="B12" t="s" s="128">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="19.35" customHeight="1">
+      <c r="A13" s="129"/>
+      <c r="B13" t="s" s="128">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="19.35" customHeight="1">
+      <c r="A14" s="130"/>
+      <c r="B14" t="s" s="128">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" ht="19.35" customHeight="1">
+      <c r="A15" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B15" t="s" s="128">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="19.35" customHeight="1">
+      <c r="A16" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s" s="128">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" ht="19.35" customHeight="1">
+      <c r="A17" s="130"/>
+      <c r="B17" t="s" s="128">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="19.35" customHeight="1">
+      <c r="A18" s="130"/>
+      <c r="B18" t="s" s="128">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" ht="19.35" customHeight="1">
+      <c r="A19" s="130"/>
+      <c r="B19" t="s" s="128">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" ht="19.35" customHeight="1">
+      <c r="A20" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s" s="128">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="19.35" customHeight="1">
+      <c r="A21" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s" s="128">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="19.35" customHeight="1">
+      <c r="A22" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s" s="128">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" ht="19.35" customHeight="1">
+      <c r="A23" s="129"/>
+      <c r="B23" t="s" s="128">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="19.35" customHeight="1">
+      <c r="A24" s="129"/>
+      <c r="B24" t="s" s="128">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" ht="19.35" customHeight="1">
+      <c r="A25" s="129"/>
+      <c r="B25" t="s" s="128">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" ht="19.35" customHeight="1">
+      <c r="A26" s="129"/>
+      <c r="B26" t="s" s="128">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="19.35" customHeight="1">
+      <c r="A27" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s" s="128">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" ht="19.35" customHeight="1">
+      <c r="A28" s="129"/>
+      <c r="B28" t="s" s="128">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" ht="19.35" customHeight="1">
+      <c r="A29" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B29" t="s" s="128">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" ht="19.35" customHeight="1">
+      <c r="A30" s="129"/>
+      <c r="B30" t="s" s="128">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" ht="19.35" customHeight="1">
+      <c r="A31" s="129"/>
+      <c r="B31" t="s" s="128">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" ht="19.35" customHeight="1">
+      <c r="A32" s="129"/>
+      <c r="B32" t="s" s="128">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" ht="19.35" customHeight="1">
+      <c r="A33" s="130"/>
+      <c r="B33" t="s" s="128">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" ht="19.35" customHeight="1">
+      <c r="A34" s="129"/>
+      <c r="B34" t="s" s="128">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" ht="19.35" customHeight="1">
+      <c r="A35" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s" s="128">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" ht="19.35" customHeight="1">
+      <c r="A36" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B36" t="s" s="128">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" ht="19.35" customHeight="1">
+      <c r="A37" s="129"/>
+      <c r="B37" t="s" s="128">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" ht="19.35" customHeight="1">
+      <c r="A38" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B38" t="s" s="128">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" ht="19.35" customHeight="1">
+      <c r="A39" s="129"/>
+      <c r="B39" t="s" s="128">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" ht="19.35" customHeight="1">
+      <c r="A40" s="129"/>
+      <c r="B40" t="s" s="128">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" ht="19.35" customHeight="1">
+      <c r="A41" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B41" t="s" s="128">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" ht="19.35" customHeight="1">
+      <c r="A42" s="129"/>
+      <c r="B42" t="s" s="128">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" ht="19.35" customHeight="1">
+      <c r="A43" s="129"/>
+      <c r="B43" t="s" s="128">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" ht="19.35" customHeight="1">
+      <c r="A44" s="129"/>
+      <c r="B44" t="s" s="128">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" ht="19.35" customHeight="1">
+      <c r="A45" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s" s="128">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" ht="19.35" customHeight="1">
+      <c r="A46" s="130"/>
+      <c r="B46" t="s" s="128">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" ht="19.35" customHeight="1">
+      <c r="A47" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B47" t="s" s="128">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" ht="19.35" customHeight="1">
+      <c r="A48" s="129"/>
+      <c r="B48" t="s" s="128">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" ht="19.35" customHeight="1">
+      <c r="A49" s="130"/>
+      <c r="B49" t="s" s="128">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" ht="19.35" customHeight="1">
+      <c r="A50" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B50" t="s" s="128">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" ht="19.35" customHeight="1">
+      <c r="A51" s="130"/>
+      <c r="B51" t="s" s="128">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" ht="19.35" customHeight="1">
+      <c r="A52" t="s" s="127">
+        <v>223</v>
+      </c>
+      <c r="B52" t="s" s="128">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>State Abbrev</t>
   </si>
@@ -730,7 +730,10 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Marginal Cost</t>
+    <t>Cost Raw</t>
+  </si>
+  <si>
+    <t>Marginal Cost Raw</t>
   </si>
   <si>
     <t>Days</t>
@@ -746,6 +749,9 @@
     <t>FY 2020</t>
   </si>
   <si>
+    <t>10.18</t>
+  </si>
+  <si>
     <t>Fiscal Year 2020 Cost per Day: $10.18 as shown in online FY20 Annual Report page 48</t>
   </si>
   <si>
@@ -753,6 +759,9 @@
   </si>
   <si>
     <t>Years</t>
+  </si>
+  <si>
+    <t>62.49</t>
   </si>
   <si>
     <t>July 2019 - 62.49 state</t>
@@ -771,13 +780,22 @@
     <t>the cost in 2020 increased mostly due to a decrease in census, but budgeted and contracted amounts remaining the same even though we had less than expected/usual admissions. Maine had seen a slight decrease in previous year, however with COVID, we saw fewer admissions in 2020 than would have been typical.</t>
   </si>
   <si>
+    <t>83.15</t>
+  </si>
+  <si>
     <t>FY2020 AVERAGE COST $83.15</t>
   </si>
   <si>
     <t>FY 2020 $21.37</t>
   </si>
   <si>
+    <t>132.61</t>
+  </si>
+  <si>
     <t>The cost per day for 2020 is $132.61.</t>
+  </si>
+  <si>
+    <t>226.13</t>
   </si>
   <si>
     <t>2019 Cost Per Day = $212.55; 2020 Cost Per Day = $226.13.</t>
@@ -807,7 +825,7 @@
     <numFmt numFmtId="62" formatCode="&quot;$&quot;0.00"/>
     <numFmt numFmtId="63" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -882,11 +900,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -944,7 +957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1178,77 +1191,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="21"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="21"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="21"/>
+        <color indexed="10"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="21"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="21"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="21"/>
+        <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="21"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="21"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="21"/>
-      </right>
-      <top style="thin">
-        <color indexed="21"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="21"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1258,7 +1265,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1548,108 +1555,129 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="62" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="62" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="63" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="62" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="13" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="14" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="14" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="14" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="14" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1681,8 +1709,6 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -38083,7 +38109,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -38098,7 +38124,8 @@
     <col min="7" max="7" width="16.3516" style="95" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="95" customWidth="1"/>
     <col min="9" max="9" width="16.3516" style="95" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="95" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="95" customWidth="1"/>
+    <col min="11" max="256" width="16.3516" style="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -38110,946 +38137,1028 @@
       <c r="D1" s="97"/>
       <c r="E1" s="97"/>
       <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" t="s" s="99">
+      <c r="A2" t="s" s="100">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="99">
+      <c r="B2" t="s" s="100">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="100">
+      <c r="C2" t="s" s="101">
         <v>198</v>
       </c>
-      <c r="D2" t="s" s="100">
+      <c r="D2" t="s" s="101">
         <v>199</v>
       </c>
-      <c r="E2" t="s" s="100">
+      <c r="E2" t="s" s="101">
         <v>200</v>
       </c>
-      <c r="F2" t="s" s="100">
+      <c r="F2" t="s" s="101">
         <v>201</v>
       </c>
-      <c r="G2" t="s" s="100">
+      <c r="G2" t="s" s="101">
         <v>202</v>
       </c>
-      <c r="H2" t="s" s="100">
+      <c r="H2" t="s" s="101">
         <v>203</v>
       </c>
-      <c r="I2" t="s" s="100">
+      <c r="I2" t="s" s="101">
+        <v>204</v>
+      </c>
+      <c r="J2" t="s" s="101">
         <v>149</v>
       </c>
     </row>
     <row r="3" ht="14.55" customHeight="1">
-      <c r="A3" t="s" s="101">
+      <c r="A3" t="s" s="102">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="102">
+      <c r="B3" t="s" s="103">
         <v>11</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104">
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105">
         <v>175.84</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
+      <c r="H3" s="105">
+        <v>175.84</v>
+      </c>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="105">
+      <c r="A4" t="s" s="106">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="106">
+      <c r="B4" t="s" s="107">
         <v>13</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108">
+      <c r="C4" s="108"/>
+      <c r="D4" s="109">
         <v>45</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="109">
         <v>45</v>
       </c>
-      <c r="F4" t="s" s="109">
-        <v>204</v>
-      </c>
-      <c r="G4" s="110">
+      <c r="F4" t="s" s="110">
+        <v>205</v>
+      </c>
+      <c r="G4" s="111">
         <v>72.28</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="H4" s="111">
+        <v>72.28</v>
+      </c>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" t="s" s="105">
+      <c r="A5" t="s" s="106">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="106">
+      <c r="B5" t="s" s="107">
         <v>15</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" ht="26.35" customHeight="1">
-      <c r="A6" t="s" s="105">
+      <c r="A6" t="s" s="106">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="106">
+      <c r="B6" t="s" s="107">
         <v>17</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="112">
         <v>1061.7</v>
       </c>
-      <c r="D6" s="112">
+      <c r="D6" s="113">
         <v>686.6</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6" s="114">
         <v>238.5</v>
       </c>
-      <c r="F6" t="s" s="114">
-        <v>204</v>
-      </c>
-      <c r="G6" s="115">
+      <c r="F6" t="s" s="115">
+        <v>205</v>
+      </c>
+      <c r="G6" s="116">
         <v>71.48999999999999</v>
       </c>
-      <c r="H6" s="115">
+      <c r="H6" s="116">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="I6" s="116">
         <v>4.91</v>
       </c>
-      <c r="I6" t="s" s="116">
+      <c r="J6" t="s" s="117">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" ht="14.35" customHeight="1">
+      <c r="A7" t="s" s="106">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="107">
+        <v>19</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+    </row>
+    <row r="8" ht="14.35" customHeight="1">
+      <c r="A8" t="s" s="106">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="107">
+        <v>21</v>
+      </c>
+      <c r="C8" s="109">
+        <v>953</v>
+      </c>
+      <c r="D8" s="109">
+        <v>1170</v>
+      </c>
+      <c r="E8" s="109">
+        <v>511</v>
+      </c>
+      <c r="F8" t="s" s="110">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" t="s" s="105">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="106">
-        <v>19</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-    </row>
-    <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" t="s" s="105">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s" s="106">
-        <v>21</v>
-      </c>
-      <c r="C8" s="108">
-        <v>953</v>
-      </c>
-      <c r="D8" s="108">
-        <v>1170</v>
-      </c>
-      <c r="E8" s="108">
-        <v>511</v>
-      </c>
-      <c r="F8" t="s" s="109">
-        <v>204</v>
-      </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" t="s" s="105">
+      <c r="A9" t="s" s="106">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="106">
+      <c r="B9" t="s" s="107">
         <v>23</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="115">
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="116">
         <v>131.15</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
+      <c r="H9" s="116">
+        <v>131.15</v>
+      </c>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" t="s" s="105">
+      <c r="A10" t="s" s="106">
         <v>24</v>
       </c>
-      <c r="B10" t="s" s="106">
+      <c r="B10" t="s" s="107">
         <v>25</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" t="s" s="105">
+      <c r="A11" t="s" s="106">
         <v>26</v>
       </c>
-      <c r="B11" t="s" s="106">
+      <c r="B11" t="s" s="107">
         <v>27</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
-      <c r="A12" t="s" s="105">
+      <c r="A12" t="s" s="106">
         <v>28</v>
       </c>
-      <c r="B12" t="s" s="106">
+      <c r="B12" t="s" s="107">
         <v>29</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
-      <c r="A13" t="s" s="105">
+      <c r="A13" t="s" s="106">
         <v>30</v>
       </c>
-      <c r="B13" t="s" s="106">
+      <c r="B13" t="s" s="107">
         <v>31</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
-      <c r="A14" t="s" s="105">
+      <c r="A14" t="s" s="106">
         <v>32</v>
       </c>
-      <c r="B14" t="s" s="106">
+      <c r="B14" t="s" s="107">
         <v>33</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
     </row>
     <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" t="s" s="105">
+      <c r="A15" t="s" s="106">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="106">
+      <c r="B15" t="s" s="107">
         <v>35</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="109">
         <v>61</v>
       </c>
-      <c r="D15" s="108">
+      <c r="D15" s="109">
         <v>24</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="109">
         <v>25</v>
       </c>
-      <c r="F15" t="s" s="109">
-        <v>206</v>
-      </c>
-      <c r="G15" s="117">
+      <c r="F15" t="s" s="110">
+        <v>207</v>
+      </c>
+      <c r="G15" s="111">
         <v>76.31999999999999</v>
       </c>
-      <c r="H15" s="115">
+      <c r="H15" s="111">
+        <v>76.31999999999999</v>
+      </c>
+      <c r="I15" s="116">
         <v>32.14</v>
       </c>
-      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
-      <c r="A16" t="s" s="105">
+      <c r="A16" t="s" s="106">
         <v>36</v>
       </c>
-      <c r="B16" t="s" s="106">
+      <c r="B16" t="s" s="107">
         <v>37</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="109">
         <v>26.7</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108">
+      <c r="D16" s="108"/>
+      <c r="E16" s="109">
         <v>7.4</v>
       </c>
-      <c r="F16" t="s" s="109">
-        <v>206</v>
-      </c>
-      <c r="G16" s="115">
+      <c r="F16" t="s" s="110">
+        <v>207</v>
+      </c>
+      <c r="G16" s="116">
         <v>94.14</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="116">
+        <v>94.14</v>
+      </c>
+      <c r="I16" s="116">
         <v>24.71</v>
       </c>
-      <c r="I16" t="s" s="109">
+      <c r="J16" t="s" s="110">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" ht="14.35" customHeight="1">
+      <c r="A17" t="s" s="106">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="107">
+        <v>39</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+    </row>
+    <row r="18" ht="15.95" customHeight="1">
+      <c r="A18" t="s" s="106">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s" s="107">
+        <v>41</v>
+      </c>
+      <c r="C18" s="109">
+        <v>37.86</v>
+      </c>
+      <c r="D18" s="109">
+        <v>12.43</v>
+      </c>
+      <c r="E18" s="109">
+        <v>16.74</v>
+      </c>
+      <c r="F18" t="s" s="110">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" ht="14.35" customHeight="1">
-      <c r="A17" t="s" s="105">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s" s="106">
-        <v>39</v>
-      </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-    </row>
-    <row r="18" ht="15.95" customHeight="1">
-      <c r="A18" t="s" s="105">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s" s="106">
-        <v>41</v>
-      </c>
-      <c r="C18" s="108">
-        <v>37.86</v>
-      </c>
-      <c r="D18" s="108">
-        <v>12.43</v>
-      </c>
-      <c r="E18" s="108">
-        <v>16.74</v>
-      </c>
-      <c r="F18" t="s" s="109">
-        <v>206</v>
-      </c>
       <c r="G18" t="s" s="118">
-        <v>208</v>
-      </c>
-      <c r="H18" s="107"/>
-      <c r="I18" t="s" s="109">
         <v>209</v>
       </c>
+      <c r="H18" t="s" s="118">
+        <v>210</v>
+      </c>
+      <c r="I18" s="108"/>
+      <c r="J18" t="s" s="110">
+        <v>211</v>
+      </c>
     </row>
     <row r="19" ht="14.35" customHeight="1">
-      <c r="A19" t="s" s="105">
+      <c r="A19" t="s" s="106">
         <v>42</v>
       </c>
-      <c r="B19" t="s" s="106">
+      <c r="B19" t="s" s="107">
         <v>43</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
     </row>
     <row r="20" ht="15.95" customHeight="1">
-      <c r="A20" t="s" s="105">
+      <c r="A20" t="s" s="106">
         <v>44</v>
       </c>
-      <c r="B20" t="s" s="106">
+      <c r="B20" t="s" s="107">
         <v>45</v>
       </c>
-      <c r="C20" s="108">
+      <c r="C20" s="109">
         <v>6.2</v>
       </c>
-      <c r="D20" s="108">
+      <c r="D20" s="109">
         <v>4.9</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E20" s="109">
         <v>4.89</v>
       </c>
-      <c r="F20" t="s" s="109">
-        <v>210</v>
-      </c>
-      <c r="G20" t="s" s="119">
-        <v>211</v>
-      </c>
-      <c r="H20" t="s" s="109">
+      <c r="F20" t="s" s="110">
         <v>212</v>
       </c>
-      <c r="I20" t="s" s="109">
+      <c r="G20" t="s" s="118">
         <v>213</v>
       </c>
+      <c r="H20" t="s" s="118">
+        <v>214</v>
+      </c>
+      <c r="I20" t="s" s="110">
+        <v>215</v>
+      </c>
+      <c r="J20" t="s" s="110">
+        <v>216</v>
+      </c>
     </row>
     <row r="21" ht="14.35" customHeight="1">
-      <c r="A21" t="s" s="105">
+      <c r="A21" t="s" s="106">
         <v>46</v>
       </c>
-      <c r="B21" t="s" s="106">
+      <c r="B21" t="s" s="107">
         <v>47</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
     </row>
     <row r="22" ht="26.35" customHeight="1">
-      <c r="A22" t="s" s="105">
+      <c r="A22" t="s" s="106">
         <v>48</v>
       </c>
-      <c r="B22" t="s" s="106">
+      <c r="B22" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="115">
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="116">
         <v>123.33</v>
       </c>
-      <c r="H22" s="115">
+      <c r="H22" s="116">
+        <v>123.33</v>
+      </c>
+      <c r="I22" s="116">
         <v>6.36</v>
       </c>
-      <c r="I22" t="s" s="116">
-        <v>214</v>
+      <c r="J22" t="s" s="117">
+        <v>217</v>
       </c>
     </row>
     <row r="23" ht="14.35" customHeight="1">
-      <c r="A23" t="s" s="105">
+      <c r="A23" t="s" s="106">
         <v>50</v>
       </c>
-      <c r="B23" t="s" s="106">
+      <c r="B23" t="s" s="107">
         <v>51</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="115">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="116">
         <v>151</v>
       </c>
-      <c r="H23" s="107"/>
-      <c r="I23" t="s" s="109">
-        <v>215</v>
+      <c r="H23" s="116">
+        <v>151</v>
+      </c>
+      <c r="I23" s="108"/>
+      <c r="J23" t="s" s="110">
+        <v>218</v>
       </c>
     </row>
     <row r="24" ht="14.35" customHeight="1">
-      <c r="A24" t="s" s="105">
+      <c r="A24" t="s" s="106">
         <v>52</v>
       </c>
-      <c r="B24" t="s" s="106">
+      <c r="B24" t="s" s="107">
         <v>53</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
-      <c r="A25" t="s" s="105">
+      <c r="A25" t="s" s="106">
         <v>54</v>
       </c>
-      <c r="B25" t="s" s="106">
+      <c r="B25" t="s" s="107">
         <v>55</v>
       </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
     </row>
     <row r="26" ht="15.95" customHeight="1">
-      <c r="A26" t="s" s="105">
+      <c r="A26" t="s" s="106">
         <v>56</v>
       </c>
-      <c r="B26" t="s" s="106">
+      <c r="B26" t="s" s="107">
         <v>57</v>
       </c>
-      <c r="C26" s="108">
+      <c r="C26" s="109">
         <v>4.9</v>
       </c>
-      <c r="D26" s="108">
+      <c r="D26" s="109">
         <v>2.1</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="109">
         <v>1.4</v>
       </c>
-      <c r="F26" t="s" s="109">
-        <v>210</v>
-      </c>
-      <c r="G26" t="s" s="119">
-        <v>216</v>
-      </c>
-      <c r="H26" t="s" s="119">
-        <v>217</v>
-      </c>
-      <c r="I26" s="120"/>
+      <c r="F26" t="s" s="110">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s" s="118">
+        <v>219</v>
+      </c>
+      <c r="H26" t="s" s="118">
+        <v>220</v>
+      </c>
+      <c r="I26" t="s" s="118">
+        <v>221</v>
+      </c>
+      <c r="J26" s="119"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
-      <c r="A27" t="s" s="105">
+      <c r="A27" t="s" s="106">
         <v>58</v>
       </c>
-      <c r="B27" t="s" s="106">
+      <c r="B27" t="s" s="107">
         <v>59</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
-      <c r="A28" t="s" s="105">
+      <c r="A28" t="s" s="106">
         <v>60</v>
       </c>
-      <c r="B28" t="s" s="106">
+      <c r="B28" t="s" s="107">
         <v>61</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
-      <c r="A29" t="s" s="105">
+      <c r="A29" t="s" s="106">
         <v>62</v>
       </c>
-      <c r="B29" t="s" s="106">
+      <c r="B29" t="s" s="107">
         <v>63</v>
       </c>
-      <c r="C29" s="108">
+      <c r="C29" s="109">
         <v>2</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" t="s" s="109">
-        <v>210</v>
-      </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="108">
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" t="s" s="110">
+        <v>212</v>
+      </c>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="109">
         <v>127.63</v>
       </c>
-      <c r="I29" s="107"/>
+      <c r="J29" s="108"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
-      <c r="A30" t="s" s="105">
+      <c r="A30" t="s" s="106">
         <v>64</v>
       </c>
-      <c r="B30" t="s" s="106">
+      <c r="B30" t="s" s="107">
         <v>65</v>
       </c>
-      <c r="C30" s="108">
+      <c r="C30" s="109">
         <v>1.4</v>
       </c>
-      <c r="D30" s="108">
+      <c r="D30" s="109">
         <v>1.02</v>
       </c>
-      <c r="E30" s="108">
+      <c r="E30" s="109">
         <v>0.67</v>
       </c>
-      <c r="F30" t="s" s="109">
-        <v>210</v>
-      </c>
-      <c r="G30" t="s" s="109">
-        <v>218</v>
-      </c>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
+      <c r="F30" t="s" s="110">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s" s="110">
+        <v>222</v>
+      </c>
+      <c r="H30" t="s" s="110">
+        <v>223</v>
+      </c>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
-      <c r="A31" t="s" s="105">
+      <c r="A31" t="s" s="106">
         <v>66</v>
       </c>
-      <c r="B31" t="s" s="106">
+      <c r="B31" t="s" s="107">
         <v>67</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
-      <c r="A32" t="s" s="105">
+      <c r="A32" t="s" s="106">
         <v>68</v>
       </c>
-      <c r="B32" t="s" s="106">
+      <c r="B32" t="s" s="107">
         <v>69</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
-      <c r="A33" t="s" s="105">
+      <c r="A33" t="s" s="106">
         <v>70</v>
       </c>
-      <c r="B33" t="s" s="106">
+      <c r="B33" t="s" s="107">
         <v>71</v>
       </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
-      <c r="A34" t="s" s="105">
+      <c r="A34" t="s" s="106">
         <v>72</v>
       </c>
-      <c r="B34" t="s" s="106">
+      <c r="B34" t="s" s="107">
         <v>73</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
-      <c r="A35" t="s" s="105">
+      <c r="A35" t="s" s="106">
         <v>74</v>
       </c>
-      <c r="B35" t="s" s="106">
+      <c r="B35" t="s" s="107">
         <v>75</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
-      <c r="A36" t="s" s="105">
+      <c r="A36" t="s" s="106">
         <v>76</v>
       </c>
-      <c r="B36" t="s" s="106">
+      <c r="B36" t="s" s="107">
         <v>77</v>
       </c>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
-      <c r="A37" t="s" s="105">
+      <c r="A37" t="s" s="106">
         <v>78</v>
       </c>
-      <c r="B37" t="s" s="106">
+      <c r="B37" t="s" s="107">
         <v>79</v>
       </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
     </row>
     <row r="38" ht="14.35" customHeight="1">
-      <c r="A38" t="s" s="105">
+      <c r="A38" t="s" s="106">
         <v>80</v>
       </c>
-      <c r="B38" t="s" s="106">
+      <c r="B38" t="s" s="107">
         <v>81</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
-      <c r="A39" t="s" s="105">
+      <c r="A39" t="s" s="106">
         <v>82</v>
       </c>
-      <c r="B39" t="s" s="106">
+      <c r="B39" t="s" s="107">
         <v>83</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
-      <c r="A40" t="s" s="105">
+      <c r="A40" t="s" s="106">
         <v>84</v>
       </c>
-      <c r="B40" t="s" s="106">
+      <c r="B40" t="s" s="107">
         <v>85</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
     </row>
     <row r="41" ht="15.95" customHeight="1">
-      <c r="A41" t="s" s="105">
+      <c r="A41" t="s" s="106">
         <v>86</v>
       </c>
-      <c r="B41" t="s" s="106">
+      <c r="B41" t="s" s="107">
         <v>87</v>
       </c>
-      <c r="C41" s="108">
+      <c r="C41" s="109">
         <v>352</v>
       </c>
-      <c r="D41" s="108">
+      <c r="D41" s="109">
         <v>381</v>
       </c>
-      <c r="E41" s="108">
+      <c r="E41" s="109">
         <v>334</v>
       </c>
-      <c r="F41" t="s" s="109">
-        <v>204</v>
+      <c r="F41" t="s" s="110">
+        <v>205</v>
       </c>
       <c r="G41" t="s" s="118">
-        <v>219</v>
-      </c>
-      <c r="H41" s="107"/>
-      <c r="I41" t="s" s="109">
-        <v>220</v>
+        <v>224</v>
+      </c>
+      <c r="H41" t="s" s="118">
+        <v>225</v>
+      </c>
+      <c r="I41" s="108"/>
+      <c r="J41" t="s" s="110">
+        <v>226</v>
       </c>
     </row>
     <row r="42" ht="14.35" customHeight="1">
-      <c r="A42" t="s" s="105">
+      <c r="A42" t="s" s="106">
         <v>88</v>
       </c>
-      <c r="B42" t="s" s="106">
+      <c r="B42" t="s" s="107">
         <v>89</v>
       </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
     </row>
     <row r="43" ht="14.35" customHeight="1">
-      <c r="A43" t="s" s="105">
+      <c r="A43" t="s" s="106">
         <v>90</v>
       </c>
-      <c r="B43" t="s" s="106">
+      <c r="B43" t="s" s="107">
         <v>91</v>
       </c>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
-      <c r="A44" t="s" s="105">
+      <c r="A44" t="s" s="106">
         <v>92</v>
       </c>
-      <c r="B44" t="s" s="106">
+      <c r="B44" t="s" s="107">
         <v>93</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
-      <c r="A45" t="s" s="105">
+      <c r="A45" t="s" s="106">
         <v>94</v>
       </c>
-      <c r="B45" t="s" s="106">
+      <c r="B45" t="s" s="107">
         <v>95</v>
       </c>
-      <c r="C45" s="108">
+      <c r="C45" s="109">
         <v>34.1</v>
       </c>
-      <c r="D45" s="107"/>
-      <c r="E45" s="108">
+      <c r="D45" s="108"/>
+      <c r="E45" s="109">
         <v>25.1</v>
       </c>
-      <c r="F45" t="s" s="109">
-        <v>206</v>
-      </c>
-      <c r="G45" s="115">
+      <c r="F45" t="s" s="110">
+        <v>207</v>
+      </c>
+      <c r="G45" s="116">
         <v>64.34</v>
       </c>
-      <c r="H45" s="115">
+      <c r="H45" s="116">
+        <v>64.34</v>
+      </c>
+      <c r="I45" s="116">
         <v>69.27</v>
       </c>
-      <c r="I45" s="107"/>
+      <c r="J45" s="108"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
-      <c r="A46" t="s" s="105">
+      <c r="A46" t="s" s="106">
         <v>96</v>
       </c>
-      <c r="B46" t="s" s="106">
+      <c r="B46" t="s" s="107">
         <v>97</v>
       </c>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
     </row>
     <row r="47" ht="14.35" customHeight="1">
-      <c r="A47" t="s" s="105">
+      <c r="A47" t="s" s="106">
         <v>98</v>
       </c>
-      <c r="B47" t="s" s="106">
+      <c r="B47" t="s" s="107">
         <v>99</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
-      <c r="A48" t="s" s="105">
+      <c r="A48" t="s" s="106">
         <v>100</v>
       </c>
-      <c r="B48" t="s" s="106">
+      <c r="B48" t="s" s="107">
         <v>101</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
-      <c r="A49" t="s" s="105">
+      <c r="A49" t="s" s="106">
         <v>102</v>
       </c>
-      <c r="B49" t="s" s="106">
+      <c r="B49" t="s" s="107">
         <v>103</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
-      <c r="A50" t="s" s="105">
+      <c r="A50" t="s" s="106">
         <v>104</v>
       </c>
-      <c r="B50" t="s" s="106">
+      <c r="B50" t="s" s="107">
         <v>105</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
     </row>
     <row r="51" ht="14.35" customHeight="1">
-      <c r="A51" t="s" s="105">
+      <c r="A51" t="s" s="106">
         <v>106</v>
       </c>
-      <c r="B51" t="s" s="106">
+      <c r="B51" t="s" s="107">
         <v>107</v>
       </c>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
     </row>
     <row r="52" ht="14.35" customHeight="1">
-      <c r="A52" t="s" s="105">
+      <c r="A52" t="s" s="106">
         <v>108</v>
       </c>
-      <c r="B52" t="s" s="106">
+      <c r="B52" t="s" s="107">
         <v>109</v>
       </c>
-      <c r="C52" s="108">
+      <c r="C52" s="109">
         <v>26</v>
       </c>
-      <c r="D52" s="108">
+      <c r="D52" s="109">
         <v>22</v>
       </c>
-      <c r="E52" s="108">
+      <c r="E52" s="109">
         <v>12</v>
       </c>
-      <c r="F52" t="s" s="109">
-        <v>206</v>
-      </c>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" t="s" s="109">
-        <v>221</v>
+      <c r="F52" t="s" s="110">
+        <v>207</v>
+      </c>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" t="s" s="110">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -39064,374 +39173,531 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="121" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="121" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="121" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="120" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="120" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="120" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="120" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="120" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="120" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="122">
+      <c r="A1" t="s" s="121">
         <v>197</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
     </row>
     <row r="2" ht="19.55" customHeight="1">
-      <c r="A2" t="s" s="123">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s" s="124">
+      <c r="A2" t="s" s="124">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s" s="125">
         <v>1</v>
       </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" ht="19.55" customHeight="1">
-      <c r="A3" t="s" s="125">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s" s="126">
+      <c r="A3" t="s" s="129">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s" s="130">
         <v>13</v>
       </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" ht="19.35" customHeight="1">
-      <c r="A4" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B4" t="s" s="128">
+      <c r="A4" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s" s="132">
         <v>11</v>
       </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="128"/>
     </row>
     <row r="5" ht="19.35" customHeight="1">
-      <c r="A5" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B5" t="s" s="128">
+      <c r="A5" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s" s="132">
         <v>17</v>
       </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" ht="19.35" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" t="s" s="128">
+      <c r="A6" s="133"/>
+      <c r="B6" t="s" s="132">
         <v>15</v>
       </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128"/>
     </row>
     <row r="7" ht="19.35" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" t="s" s="128">
+      <c r="A7" s="133"/>
+      <c r="B7" t="s" s="132">
         <v>19</v>
       </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" ht="19.35" customHeight="1">
-      <c r="A8" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s" s="128">
+      <c r="A8" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s" s="132">
         <v>21</v>
       </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" ht="19.35" customHeight="1">
-      <c r="A9" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B9" t="s" s="128">
+      <c r="A9" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s" s="132">
         <v>23</v>
       </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" ht="19.35" customHeight="1">
-      <c r="A10" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B10" t="s" s="128">
+      <c r="A10" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s" s="132">
         <v>25</v>
       </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="128"/>
     </row>
     <row r="11" ht="19.35" customHeight="1">
-      <c r="A11" s="129"/>
-      <c r="B11" t="s" s="128">
+      <c r="A11" s="133"/>
+      <c r="B11" t="s" s="132">
         <v>27</v>
       </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
     </row>
     <row r="12" ht="19.35" customHeight="1">
-      <c r="A12" s="129"/>
-      <c r="B12" t="s" s="128">
+      <c r="A12" s="133"/>
+      <c r="B12" t="s" s="132">
         <v>29</v>
       </c>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
     </row>
     <row r="13" ht="19.35" customHeight="1">
-      <c r="A13" s="129"/>
-      <c r="B13" t="s" s="128">
+      <c r="A13" s="133"/>
+      <c r="B13" t="s" s="132">
         <v>31</v>
       </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" ht="19.35" customHeight="1">
-      <c r="A14" s="130"/>
-      <c r="B14" t="s" s="128">
+      <c r="A14" s="134"/>
+      <c r="B14" t="s" s="132">
         <v>35</v>
       </c>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
     </row>
     <row r="15" ht="19.35" customHeight="1">
-      <c r="A15" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B15" t="s" s="128">
+      <c r="A15" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s" s="132">
         <v>37</v>
       </c>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" ht="19.35" customHeight="1">
-      <c r="A16" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B16" t="s" s="128">
+      <c r="A16" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s" s="132">
         <v>39</v>
       </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" ht="19.35" customHeight="1">
-      <c r="A17" s="130"/>
-      <c r="B17" t="s" s="128">
+      <c r="A17" s="134"/>
+      <c r="B17" t="s" s="132">
         <v>33</v>
       </c>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
     </row>
     <row r="18" ht="19.35" customHeight="1">
-      <c r="A18" s="130"/>
-      <c r="B18" t="s" s="128">
+      <c r="A18" s="134"/>
+      <c r="B18" t="s" s="132">
         <v>41</v>
       </c>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
     </row>
     <row r="19" ht="19.35" customHeight="1">
-      <c r="A19" s="130"/>
-      <c r="B19" t="s" s="128">
+      <c r="A19" s="134"/>
+      <c r="B19" t="s" s="132">
         <v>43</v>
       </c>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
     </row>
     <row r="20" ht="19.35" customHeight="1">
-      <c r="A20" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B20" t="s" s="128">
+      <c r="A20" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s" s="132">
         <v>45</v>
       </c>
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
     </row>
     <row r="21" ht="19.35" customHeight="1">
-      <c r="A21" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B21" t="s" s="128">
+      <c r="A21" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s" s="132">
         <v>51</v>
       </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
     </row>
     <row r="22" ht="19.35" customHeight="1">
-      <c r="A22" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B22" t="s" s="128">
+      <c r="A22" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B22" t="s" s="132">
         <v>49</v>
       </c>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
     </row>
     <row r="23" ht="19.35" customHeight="1">
-      <c r="A23" s="129"/>
-      <c r="B23" t="s" s="128">
+      <c r="A23" s="133"/>
+      <c r="B23" t="s" s="132">
         <v>47</v>
       </c>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
     </row>
     <row r="24" ht="19.35" customHeight="1">
-      <c r="A24" s="129"/>
-      <c r="B24" t="s" s="128">
+      <c r="A24" s="133"/>
+      <c r="B24" t="s" s="132">
         <v>53</v>
       </c>
+      <c r="C24" s="126"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
     </row>
     <row r="25" ht="19.35" customHeight="1">
-      <c r="A25" s="129"/>
-      <c r="B25" t="s" s="128">
+      <c r="A25" s="133"/>
+      <c r="B25" t="s" s="132">
         <v>55</v>
       </c>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" ht="19.35" customHeight="1">
-      <c r="A26" s="129"/>
-      <c r="B26" t="s" s="128">
+      <c r="A26" s="133"/>
+      <c r="B26" t="s" s="132">
         <v>59</v>
       </c>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
     </row>
     <row r="27" ht="19.35" customHeight="1">
-      <c r="A27" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B27" t="s" s="128">
+      <c r="A27" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B27" t="s" s="132">
         <v>57</v>
       </c>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
     </row>
     <row r="28" ht="19.35" customHeight="1">
-      <c r="A28" s="129"/>
-      <c r="B28" t="s" s="128">
+      <c r="A28" s="133"/>
+      <c r="B28" t="s" s="132">
         <v>61</v>
       </c>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
     </row>
     <row r="29" ht="19.35" customHeight="1">
-      <c r="A29" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s" s="128">
+      <c r="A29" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s" s="132">
         <v>67</v>
       </c>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
     </row>
     <row r="30" ht="19.35" customHeight="1">
-      <c r="A30" s="129"/>
-      <c r="B30" t="s" s="128">
+      <c r="A30" s="133"/>
+      <c r="B30" t="s" s="132">
         <v>75</v>
       </c>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
     </row>
     <row r="31" ht="19.35" customHeight="1">
-      <c r="A31" s="129"/>
-      <c r="B31" t="s" s="128">
+      <c r="A31" s="133"/>
+      <c r="B31" t="s" s="132">
         <v>69</v>
       </c>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
     </row>
     <row r="32" ht="19.35" customHeight="1">
-      <c r="A32" s="129"/>
-      <c r="B32" t="s" s="128">
+      <c r="A32" s="133"/>
+      <c r="B32" t="s" s="132">
         <v>71</v>
       </c>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
     </row>
     <row r="33" ht="19.35" customHeight="1">
-      <c r="A33" s="130"/>
-      <c r="B33" t="s" s="128">
+      <c r="A33" s="134"/>
+      <c r="B33" t="s" s="132">
         <v>73</v>
       </c>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
     </row>
     <row r="34" ht="19.35" customHeight="1">
-      <c r="A34" s="129"/>
-      <c r="B34" t="s" s="128">
+      <c r="A34" s="133"/>
+      <c r="B34" t="s" s="132">
         <v>77</v>
       </c>
+      <c r="C34" s="126"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
     </row>
     <row r="35" ht="19.35" customHeight="1">
-      <c r="A35" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B35" t="s" s="128">
+      <c r="A35" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B35" t="s" s="132">
         <v>63</v>
       </c>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
     </row>
     <row r="36" ht="19.35" customHeight="1">
-      <c r="A36" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B36" t="s" s="128">
+      <c r="A36" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s" s="132">
         <v>65</v>
       </c>
+      <c r="C36" s="126"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
     </row>
     <row r="37" ht="19.35" customHeight="1">
-      <c r="A37" s="129"/>
-      <c r="B37" t="s" s="128">
+      <c r="A37" s="133"/>
+      <c r="B37" t="s" s="132">
         <v>79</v>
       </c>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
     </row>
     <row r="38" ht="19.35" customHeight="1">
-      <c r="A38" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B38" t="s" s="128">
+      <c r="A38" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B38" t="s" s="132">
         <v>81</v>
       </c>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
     </row>
     <row r="39" ht="19.35" customHeight="1">
-      <c r="A39" s="129"/>
-      <c r="B39" t="s" s="128">
+      <c r="A39" s="133"/>
+      <c r="B39" t="s" s="132">
         <v>83</v>
       </c>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
     </row>
     <row r="40" ht="19.35" customHeight="1">
-      <c r="A40" s="129"/>
-      <c r="B40" t="s" s="128">
+      <c r="A40" s="133"/>
+      <c r="B40" t="s" s="132">
         <v>85</v>
       </c>
+      <c r="C40" s="126"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
     </row>
     <row r="41" ht="19.35" customHeight="1">
-      <c r="A41" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B41" t="s" s="128">
+      <c r="A41" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s" s="132">
         <v>87</v>
       </c>
+      <c r="C41" s="126"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
     </row>
     <row r="42" ht="19.35" customHeight="1">
-      <c r="A42" s="129"/>
-      <c r="B42" t="s" s="128">
+      <c r="A42" s="133"/>
+      <c r="B42" t="s" s="132">
         <v>89</v>
       </c>
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
     </row>
     <row r="43" ht="19.35" customHeight="1">
-      <c r="A43" s="129"/>
-      <c r="B43" t="s" s="128">
+      <c r="A43" s="133"/>
+      <c r="B43" t="s" s="132">
         <v>91</v>
       </c>
+      <c r="C43" s="126"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
     </row>
     <row r="44" ht="19.35" customHeight="1">
-      <c r="A44" s="129"/>
-      <c r="B44" t="s" s="128">
+      <c r="A44" s="133"/>
+      <c r="B44" t="s" s="132">
         <v>93</v>
       </c>
+      <c r="C44" s="126"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="128"/>
     </row>
     <row r="45" ht="19.35" customHeight="1">
-      <c r="A45" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B45" t="s" s="128">
+      <c r="A45" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B45" t="s" s="132">
         <v>95</v>
       </c>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="128"/>
     </row>
     <row r="46" ht="19.35" customHeight="1">
-      <c r="A46" s="130"/>
-      <c r="B46" t="s" s="128">
+      <c r="A46" s="134"/>
+      <c r="B46" t="s" s="132">
         <v>97</v>
       </c>
+      <c r="C46" s="126"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="128"/>
     </row>
     <row r="47" ht="19.35" customHeight="1">
-      <c r="A47" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B47" t="s" s="128">
+      <c r="A47" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B47" t="s" s="132">
         <v>101</v>
       </c>
+      <c r="C47" s="126"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="128"/>
     </row>
     <row r="48" ht="19.35" customHeight="1">
-      <c r="A48" s="129"/>
-      <c r="B48" t="s" s="128">
+      <c r="A48" s="133"/>
+      <c r="B48" t="s" s="132">
         <v>99</v>
       </c>
+      <c r="C48" s="126"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="128"/>
     </row>
     <row r="49" ht="19.35" customHeight="1">
-      <c r="A49" s="130"/>
-      <c r="B49" t="s" s="128">
+      <c r="A49" s="134"/>
+      <c r="B49" t="s" s="132">
         <v>103</v>
       </c>
+      <c r="C49" s="126"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="128"/>
     </row>
     <row r="50" ht="19.35" customHeight="1">
-      <c r="A50" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B50" t="s" s="128">
+      <c r="A50" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B50" t="s" s="132">
         <v>107</v>
       </c>
+      <c r="C50" s="126"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="128"/>
     </row>
     <row r="51" ht="19.35" customHeight="1">
-      <c r="A51" s="130"/>
-      <c r="B51" t="s" s="128">
+      <c r="A51" s="134"/>
+      <c r="B51" t="s" s="132">
         <v>105</v>
       </c>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="128"/>
     </row>
     <row r="52" ht="19.35" customHeight="1">
-      <c r="A52" t="s" s="127">
-        <v>223</v>
-      </c>
-      <c r="B52" t="s" s="128">
+      <c r="A52" t="s" s="131">
+        <v>229</v>
+      </c>
+      <c r="B52" t="s" s="132">
         <v>109</v>
       </c>
+      <c r="C52" s="135"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -1183,7 +1183,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1500,6 +1500,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -27399,7 +27402,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="57">
-        <v>9293</v>
+        <v>9937</v>
       </c>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
@@ -27415,10 +27418,12 @@
         <v>151</v>
       </c>
       <c r="M9" s="58">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
+      <c r="O9" t="s" s="55">
+        <v>147</v>
+      </c>
       <c r="P9" s="56"/>
       <c r="Q9" s="56"/>
     </row>
@@ -27938,10 +27943,7 @@
         <v>147</v>
       </c>
       <c r="P21" s="56"/>
-      <c r="Q21" s="58">
-        <f>50-36</f>
-        <v>14</v>
-      </c>
+      <c r="Q21" s="106"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="55">
@@ -28592,10 +28594,12 @@
         <v>151</v>
       </c>
       <c r="M37" s="58">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
+      <c r="O37" t="s" s="55">
+        <v>147</v>
+      </c>
       <c r="P37" s="56"/>
       <c r="Q37" s="56"/>
     </row>
@@ -29001,7 +29005,7 @@
       </c>
       <c r="I47" s="59"/>
       <c r="J47" s="69"/>
-      <c r="K47" s="106">
+      <c r="K47" s="107">
         <v>2020</v>
       </c>
       <c r="L47" t="s" s="67">
@@ -29011,7 +29015,9 @@
         <v>12</v>
       </c>
       <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
+      <c r="O47" t="s" s="55">
+        <v>147</v>
+      </c>
       <c r="P47" s="56"/>
       <c r="Q47" s="56"/>
     </row>
@@ -29040,13 +29046,13 @@
       <c r="J48" s="72">
         <v>1032</v>
       </c>
-      <c r="K48" s="107">
+      <c r="K48" s="108">
         <v>2020</v>
       </c>
       <c r="L48" t="s" s="71">
         <v>150</v>
       </c>
-      <c r="M48" s="108">
+      <c r="M48" s="109">
         <v>12</v>
       </c>
       <c r="N48" s="65"/>
@@ -29087,7 +29093,7 @@
       <c r="J49" s="66">
         <v>1827</v>
       </c>
-      <c r="K49" s="109">
+      <c r="K49" s="110">
         <v>2020</v>
       </c>
       <c r="L49" t="s" s="73">
@@ -29227,7 +29233,7 @@
       </c>
       <c r="C53" s="76">
         <f>SUM(C2:C51)</f>
-        <v>343576</v>
+        <v>344220</v>
       </c>
       <c r="D53" s="76">
         <f>SUM(D2:D51)</f>
@@ -29257,7 +29263,7 @@
         <f>SUM(J2:J51)</f>
         <v>39246</v>
       </c>
-      <c r="K53" s="110"/>
+      <c r="K53" s="111"/>
       <c r="L53" s="56"/>
       <c r="M53" s="56"/>
       <c r="N53" s="56"/>
@@ -29343,1654 +29349,6 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.3516" style="111" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="111" customWidth="1"/>
-    <col min="3" max="3" width="10.6719" style="111" customWidth="1"/>
-    <col min="4" max="4" width="10.6719" style="111" customWidth="1"/>
-    <col min="5" max="5" width="10.6719" style="111" customWidth="1"/>
-    <col min="6" max="6" width="10.6719" style="111" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="111" customWidth="1"/>
-    <col min="8" max="8" width="10.6719" style="111" customWidth="1"/>
-    <col min="9" max="9" width="10.6719" style="111" customWidth="1"/>
-    <col min="10" max="10" width="10.6719" style="111" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="111" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="111" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="111" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="111" customWidth="1"/>
-    <col min="15" max="256" width="8.85156" style="111" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="57" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>111</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>112</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s" s="3">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s" s="3">
-        <v>115</v>
-      </c>
-      <c r="H1" t="s" s="3">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6">
-        <v>4331</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1438</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1201</v>
-      </c>
-      <c r="F2" s="6">
-        <v>757</v>
-      </c>
-      <c r="G2" s="6">
-        <v>444</v>
-      </c>
-      <c r="H2" s="6">
-        <v>237</v>
-      </c>
-      <c r="I2" s="6">
-        <v>149</v>
-      </c>
-      <c r="J2" s="6">
-        <v>88</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6">
-        <v>27360</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <f>G3</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <f>J3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6">
-        <v>15079</v>
-      </c>
-      <c r="D4" s="6">
-        <v>6942</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2436</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G4" s="6">
-        <v>417</v>
-      </c>
-      <c r="H4" s="6">
-        <v>4506</v>
-      </c>
-      <c r="I4" s="6">
-        <v>3472</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1034</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" hidden="1">
-      <c r="A5" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6">
-        <v>113229</v>
-      </c>
-      <c r="D6" s="6">
-        <v>27110</v>
-      </c>
-      <c r="E6" s="6">
-        <v>8258</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6002</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2256</v>
-      </c>
-      <c r="H6" s="6">
-        <v>18852</v>
-      </c>
-      <c r="I6" s="6">
-        <v>18768</v>
-      </c>
-      <c r="J6" s="6">
-        <v>84</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6">
-        <v>17441</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3270</v>
-      </c>
-      <c r="E7" s="6">
-        <v>64</v>
-      </c>
-      <c r="F7" s="6">
-        <v>45</v>
-      </c>
-      <c r="G7" s="6">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6">
-        <v>3206</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2327</v>
-      </c>
-      <c r="J7" s="6">
-        <v>879</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9963</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3903</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6">
-        <v>87736</v>
-      </c>
-      <c r="D10" s="6">
-        <v>13921</v>
-      </c>
-      <c r="E10" s="6">
-        <v>13247</v>
-      </c>
-      <c r="F10" s="6">
-        <v>8114</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5133</v>
-      </c>
-      <c r="H10" s="6">
-        <v>674</v>
-      </c>
-      <c r="I10" s="6">
-        <v>320</v>
-      </c>
-      <c r="J10" s="6">
-        <v>354</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" hidden="1">
-      <c r="A11" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3485</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1120</v>
-      </c>
-      <c r="E12" s="6">
-        <v>370</v>
-      </c>
-      <c r="F12" s="6">
-        <v>276</v>
-      </c>
-      <c r="G12" s="6">
-        <v>94</v>
-      </c>
-      <c r="H12" s="6">
-        <v>750</v>
-      </c>
-      <c r="I12" s="6">
-        <v>612</v>
-      </c>
-      <c r="J12" s="6">
-        <v>138</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6">
-        <v>7528</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2387</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1468</v>
-      </c>
-      <c r="F13" s="6">
-        <v>797</v>
-      </c>
-      <c r="G13" s="6">
-        <v>671</v>
-      </c>
-      <c r="H13" s="6">
-        <v>919</v>
-      </c>
-      <c r="I13" s="6">
-        <v>635</v>
-      </c>
-      <c r="J13" s="6">
-        <v>284</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6">
-        <v>8775</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1544</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1057</v>
-      </c>
-      <c r="F14" s="6">
-        <v>745</v>
-      </c>
-      <c r="G14" s="6">
-        <v>312</v>
-      </c>
-      <c r="H14" s="6">
-        <v>487</v>
-      </c>
-      <c r="I14" s="6">
-        <v>393</v>
-      </c>
-      <c r="J14" s="6">
-        <v>94</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6">
-        <v>32167</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4131</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <v>4131</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1730</v>
-      </c>
-      <c r="J15" s="6">
-        <v>2401</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6">
-        <v>25385</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2821</v>
-      </c>
-      <c r="E16" s="6">
-        <v>736</v>
-      </c>
-      <c r="F16" s="6">
-        <v>689</v>
-      </c>
-      <c r="G16" s="6">
-        <v>47</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2085</v>
-      </c>
-      <c r="I16" s="6">
-        <v>988</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1097</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6">
-        <v>9189</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2639</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1959</v>
-      </c>
-      <c r="F17" s="6">
-        <v>869</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1090</v>
-      </c>
-      <c r="H17" s="6">
-        <v>679</v>
-      </c>
-      <c r="I17" s="6">
-        <v>679</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" hidden="1">
-      <c r="A18" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" hidden="1">
-      <c r="A19" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6791</v>
-      </c>
-      <c r="D20" s="6">
-        <v>160</v>
-      </c>
-      <c r="E20" s="6">
-        <v>9</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <v>151</v>
-      </c>
-      <c r="I20" s="6">
-        <v>73</v>
-      </c>
-      <c r="J20" s="6">
-        <v>78</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="C21" s="6">
-        <v>18607</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1530</v>
-      </c>
-      <c r="E21" s="6">
-        <v>820</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>710</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1803</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="C23" s="6">
-        <v>35425</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1226</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6">
-        <v>1226</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6">
-        <v>1226</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="C24" s="6">
-        <v>8330</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2166</v>
-      </c>
-      <c r="E24" s="6">
-        <v>973</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <v>973</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1193</v>
-      </c>
-      <c r="I24" s="6">
-        <v>533</v>
-      </c>
-      <c r="J24" s="6">
-        <v>660</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="C25" s="6">
-        <v>23900</v>
-      </c>
-      <c r="D25" s="6">
-        <v>11491</v>
-      </c>
-      <c r="E25" s="6">
-        <v>6856</v>
-      </c>
-      <c r="F25" s="6">
-        <v>4173</v>
-      </c>
-      <c r="G25" s="6">
-        <v>2683</v>
-      </c>
-      <c r="H25" s="6">
-        <v>4635</v>
-      </c>
-      <c r="I25" s="6">
-        <v>2472</v>
-      </c>
-      <c r="J25" s="6">
-        <v>2163</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" hidden="1">
-      <c r="A26" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2538</v>
-      </c>
-      <c r="D27" s="6">
-        <v>329</v>
-      </c>
-      <c r="E27" s="6">
-        <v>213</v>
-      </c>
-      <c r="F27" s="6">
-        <v>59</v>
-      </c>
-      <c r="G27" s="6">
-        <v>154</v>
-      </c>
-      <c r="H27" s="6">
-        <v>116</v>
-      </c>
-      <c r="I27" s="6">
-        <v>17</v>
-      </c>
-      <c r="J27" s="6">
-        <v>99</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="C28" s="6">
-        <v>31929</v>
-      </c>
-      <c r="D28" s="6">
-        <v>7489</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4250</v>
-      </c>
-      <c r="F28" s="6">
-        <v>4143</v>
-      </c>
-      <c r="G28" s="6">
-        <v>107</v>
-      </c>
-      <c r="H28" s="6">
-        <v>3239</v>
-      </c>
-      <c r="I28" s="6">
-        <v>3235</v>
-      </c>
-      <c r="J28" s="6">
-        <v>4</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1383</v>
-      </c>
-      <c r="D29" s="6">
-        <v>499</v>
-      </c>
-      <c r="E29" s="6">
-        <v>354</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6">
-        <v>145</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="C30" s="6">
-        <v>5388</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="C31" s="8">
-        <v>2359</v>
-      </c>
-      <c r="D31" s="6">
-        <v>31</v>
-      </c>
-      <c r="E31" s="6">
-        <f>G31</f>
-        <v>5</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6">
-        <v>5</v>
-      </c>
-      <c r="H31" s="6">
-        <f>J31</f>
-        <v>26</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6">
-        <v>26</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" hidden="1">
-      <c r="A32" t="s" s="5">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" hidden="1">
-      <c r="A33" t="s" s="5">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s" s="5">
-        <v>73</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="C34" s="6">
-        <v>12254</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2503</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1698</v>
-      </c>
-      <c r="F34" s="6">
-        <v>209</v>
-      </c>
-      <c r="G34" s="6">
-        <v>1489</v>
-      </c>
-      <c r="H34" s="6">
-        <v>805</v>
-      </c>
-      <c r="I34" s="6">
-        <v>89</v>
-      </c>
-      <c r="J34" s="6">
-        <v>716</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="C35" s="6">
-        <v>38380</v>
-      </c>
-      <c r="D35" s="6">
-        <v>7341</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6">
-        <v>7341</v>
-      </c>
-      <c r="I35" s="6">
-        <v>5139</v>
-      </c>
-      <c r="J35" s="6">
-        <v>2202</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" hidden="1">
-      <c r="A36" t="s" s="5">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="C37" s="6">
-        <v>22628</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1993</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1993</v>
-      </c>
-      <c r="F37" s="6">
-        <v>763</v>
-      </c>
-      <c r="G37" s="6">
-        <v>1230</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="5">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="C38" s="6">
-        <v>14292</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1547</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1515</v>
-      </c>
-      <c r="F38" s="6">
-        <v>770</v>
-      </c>
-      <c r="G38" s="6">
-        <v>745</v>
-      </c>
-      <c r="H38" s="6">
-        <v>32</v>
-      </c>
-      <c r="I38" s="6">
-        <v>6</v>
-      </c>
-      <c r="J38" s="6">
-        <v>26</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="5">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s" s="5">
-        <v>85</v>
-      </c>
-      <c r="C39" s="6">
-        <v>42101</v>
-      </c>
-      <c r="D39" s="6">
-        <v>5941</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6">
-        <v>5941</v>
-      </c>
-      <c r="I39" s="6">
-        <v>3656</v>
-      </c>
-      <c r="J39" s="6">
-        <v>2285</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s" s="5">
-        <v>87</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1621</v>
-      </c>
-      <c r="D40" s="6">
-        <v>414</v>
-      </c>
-      <c r="E40" s="6">
-        <v>341</v>
-      </c>
-      <c r="F40" s="6">
-        <v>302</v>
-      </c>
-      <c r="G40" s="6">
-        <v>39</v>
-      </c>
-      <c r="H40" s="6">
-        <v>73</v>
-      </c>
-      <c r="I40" s="6">
-        <v>43</v>
-      </c>
-      <c r="J40" s="6">
-        <v>30</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="B41" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="C41" s="6">
-        <v>17318</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2655</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1480</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6">
-        <v>1175</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" hidden="1">
-      <c r="A42" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="C43" s="6">
-        <v>21382</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" hidden="1">
-      <c r="A44" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="5">
-        <v>96</v>
-      </c>
-      <c r="B45" t="s" s="5">
-        <v>97</v>
-      </c>
-      <c r="C45" s="6">
-        <v>5579</v>
-      </c>
-      <c r="D45" s="6">
-        <v>2652</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1152</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" hidden="1">
-      <c r="A46" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="5">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1066</v>
-      </c>
-      <c r="D47" s="6">
-        <f>E47+H47</f>
-        <v>250</v>
-      </c>
-      <c r="E47" s="6">
-        <v>92</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6">
-        <f>27+131</f>
-        <v>158</v>
-      </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="5">
-        <v>102</v>
-      </c>
-      <c r="B48" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="C48" s="6">
-        <v>17330</v>
-      </c>
-      <c r="D48" s="6">
-        <v>6054</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6">
-        <v>6054</v>
-      </c>
-      <c r="I48" s="6">
-        <v>4064</v>
-      </c>
-      <c r="J48" s="6">
-        <v>1990</v>
-      </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="5">
-        <v>104</v>
-      </c>
-      <c r="B49" t="s" s="5">
-        <v>105</v>
-      </c>
-      <c r="C49" s="6">
-        <v>23765</v>
-      </c>
-      <c r="D49" s="6">
-        <v>12152</v>
-      </c>
-      <c r="E49" s="6">
-        <v>4676</v>
-      </c>
-      <c r="F49" s="6">
-        <v>2672</v>
-      </c>
-      <c r="G49" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H49" s="6">
-        <v>7476</v>
-      </c>
-      <c r="I49" s="6">
-        <v>3768</v>
-      </c>
-      <c r="J49" s="6">
-        <v>3708</v>
-      </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="5">
-        <v>106</v>
-      </c>
-      <c r="B50" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="C50" s="6">
-        <v>6640</v>
-      </c>
-      <c r="D50" s="6">
-        <v>865</v>
-      </c>
-      <c r="E50" s="6">
-        <v>865</v>
-      </c>
-      <c r="F50" s="6">
-        <v>65</v>
-      </c>
-      <c r="G50" s="6">
-        <v>800</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="5">
-        <v>108</v>
-      </c>
-      <c r="B51" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="C51" s="6">
-        <v>2364</v>
-      </c>
-      <c r="D51" s="6">
-        <v>681</v>
-      </c>
-      <c r="E51" s="6">
-        <v>482</v>
-      </c>
-      <c r="F51" s="6">
-        <v>24</v>
-      </c>
-      <c r="G51" s="6">
-        <v>458</v>
-      </c>
-      <c r="H51" s="6">
-        <v>199</v>
-      </c>
-      <c r="I51" s="6">
-        <v>72</v>
-      </c>
-      <c r="J51" s="6">
-        <v>127</v>
-      </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" t="s" s="9">
-        <v>110</v>
-      </c>
-      <c r="C53" s="10">
-        <f>SUM(C2:C51)</f>
-        <v>730744</v>
-      </c>
-      <c r="D53" s="10">
-        <f>SUM(D2:D51)</f>
-        <v>137293</v>
-      </c>
-      <c r="E53" s="10">
-        <f>SUM(E2:E51)</f>
-        <v>58571</v>
-      </c>
-      <c r="F53" s="10">
-        <f>SUM(F2:F51)+E20+E21+E29+E41+E45+E47</f>
-        <v>37400</v>
-      </c>
-      <c r="G53" s="10">
-        <f>SUM(G2:G51)</f>
-        <v>21171</v>
-      </c>
-      <c r="H53" s="10">
-        <f>SUM(H2:H51)</f>
-        <v>78721</v>
-      </c>
-      <c r="I53" s="10">
-        <f>SUM(I2:I51)+H21+H29+H41+H45+H47</f>
-        <v>56928</v>
-      </c>
-      <c r="J53" s="10">
-        <f>SUM(J2:J51)</f>
-        <v>21793</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="C55" s="8">
-        <f>COUNTIF(C2:C51,"&gt;0")</f>
-        <v>39</v>
-      </c>
-      <c r="D55" s="8">
-        <f>COUNTIF(D2:D51,"&gt;0")</f>
-        <v>34</v>
-      </c>
-      <c r="E55" s="8">
-        <f>COUNTIF(E2:E51,"&gt;0")</f>
-        <v>29</v>
-      </c>
-      <c r="F55" s="8">
-        <f>COUNTIF(F2:F51,"&gt;0")</f>
-        <v>20</v>
-      </c>
-      <c r="G55" s="8">
-        <f>COUNTIF(G2:G51,"&gt;0")</f>
-        <v>23</v>
-      </c>
-      <c r="H55" s="8">
-        <f>COUNTIF(H2:H51,"&gt;0")</f>
-        <v>31</v>
-      </c>
-      <c r="I55" s="8">
-        <f>COUNTIF(I2:I51,"&gt;0")</f>
-        <v>24</v>
-      </c>
-      <c r="J55" s="8">
-        <f>COUNTIF(J2:J51,"&gt;0")</f>
-        <v>25</v>
-      </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -31012,6 +29370,1654 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="J1" t="s" s="3">
+        <v>118</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4331</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1438</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1201</v>
+      </c>
+      <c r="F2" s="6">
+        <v>757</v>
+      </c>
+      <c r="G2" s="6">
+        <v>444</v>
+      </c>
+      <c r="H2" s="6">
+        <v>237</v>
+      </c>
+      <c r="I2" s="6">
+        <v>149</v>
+      </c>
+      <c r="J2" s="6">
+        <v>88</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27360</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <f>G3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15079</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6942</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2436</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2019</v>
+      </c>
+      <c r="G4" s="6">
+        <v>417</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4506</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3472</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1034</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" hidden="1">
+      <c r="A5" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
+        <v>113229</v>
+      </c>
+      <c r="D6" s="6">
+        <v>27110</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8258</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6002</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2256</v>
+      </c>
+      <c r="H6" s="6">
+        <v>18852</v>
+      </c>
+      <c r="I6" s="6">
+        <v>18768</v>
+      </c>
+      <c r="J6" s="6">
+        <v>84</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>17441</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3270</v>
+      </c>
+      <c r="E7" s="6">
+        <v>64</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3206</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2327</v>
+      </c>
+      <c r="J7" s="6">
+        <v>879</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9963</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3903</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6">
+        <v>87736</v>
+      </c>
+      <c r="D10" s="6">
+        <v>13921</v>
+      </c>
+      <c r="E10" s="6">
+        <v>13247</v>
+      </c>
+      <c r="F10" s="6">
+        <v>8114</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5133</v>
+      </c>
+      <c r="H10" s="6">
+        <v>674</v>
+      </c>
+      <c r="I10" s="6">
+        <v>320</v>
+      </c>
+      <c r="J10" s="6">
+        <v>354</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" hidden="1">
+      <c r="A11" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3485</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1120</v>
+      </c>
+      <c r="E12" s="6">
+        <v>370</v>
+      </c>
+      <c r="F12" s="6">
+        <v>276</v>
+      </c>
+      <c r="G12" s="6">
+        <v>94</v>
+      </c>
+      <c r="H12" s="6">
+        <v>750</v>
+      </c>
+      <c r="I12" s="6">
+        <v>612</v>
+      </c>
+      <c r="J12" s="6">
+        <v>138</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7528</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2387</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1468</v>
+      </c>
+      <c r="F13" s="6">
+        <v>797</v>
+      </c>
+      <c r="G13" s="6">
+        <v>671</v>
+      </c>
+      <c r="H13" s="6">
+        <v>919</v>
+      </c>
+      <c r="I13" s="6">
+        <v>635</v>
+      </c>
+      <c r="J13" s="6">
+        <v>284</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8775</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1544</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1057</v>
+      </c>
+      <c r="F14" s="6">
+        <v>745</v>
+      </c>
+      <c r="G14" s="6">
+        <v>312</v>
+      </c>
+      <c r="H14" s="6">
+        <v>487</v>
+      </c>
+      <c r="I14" s="6">
+        <v>393</v>
+      </c>
+      <c r="J14" s="6">
+        <v>94</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6">
+        <v>32167</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4131</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>4131</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1730</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2401</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6">
+        <v>25385</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2821</v>
+      </c>
+      <c r="E16" s="6">
+        <v>736</v>
+      </c>
+      <c r="F16" s="6">
+        <v>689</v>
+      </c>
+      <c r="G16" s="6">
+        <v>47</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2085</v>
+      </c>
+      <c r="I16" s="6">
+        <v>988</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1097</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9189</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2639</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1959</v>
+      </c>
+      <c r="F17" s="6">
+        <v>869</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1090</v>
+      </c>
+      <c r="H17" s="6">
+        <v>679</v>
+      </c>
+      <c r="I17" s="6">
+        <v>679</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" hidden="1">
+      <c r="A18" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" hidden="1">
+      <c r="A19" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6791</v>
+      </c>
+      <c r="D20" s="6">
+        <v>160</v>
+      </c>
+      <c r="E20" s="6">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
+        <v>151</v>
+      </c>
+      <c r="I20" s="6">
+        <v>73</v>
+      </c>
+      <c r="J20" s="6">
+        <v>78</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="C21" s="6">
+        <v>18607</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1530</v>
+      </c>
+      <c r="E21" s="6">
+        <v>820</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <v>710</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1803</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6">
+        <v>35425</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1226</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>1226</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
+        <v>1226</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="C24" s="6">
+        <v>8330</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2166</v>
+      </c>
+      <c r="E24" s="6">
+        <v>973</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>973</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1193</v>
+      </c>
+      <c r="I24" s="6">
+        <v>533</v>
+      </c>
+      <c r="J24" s="6">
+        <v>660</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6">
+        <v>23900</v>
+      </c>
+      <c r="D25" s="6">
+        <v>11491</v>
+      </c>
+      <c r="E25" s="6">
+        <v>6856</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4173</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2683</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4635</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2472</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2163</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" hidden="1">
+      <c r="A26" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2538</v>
+      </c>
+      <c r="D27" s="6">
+        <v>329</v>
+      </c>
+      <c r="E27" s="6">
+        <v>213</v>
+      </c>
+      <c r="F27" s="6">
+        <v>59</v>
+      </c>
+      <c r="G27" s="6">
+        <v>154</v>
+      </c>
+      <c r="H27" s="6">
+        <v>116</v>
+      </c>
+      <c r="I27" s="6">
+        <v>17</v>
+      </c>
+      <c r="J27" s="6">
+        <v>99</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s" s="5">
+        <v>63</v>
+      </c>
+      <c r="C28" s="6">
+        <v>31929</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7489</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4250</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4143</v>
+      </c>
+      <c r="G28" s="6">
+        <v>107</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3239</v>
+      </c>
+      <c r="I28" s="6">
+        <v>3235</v>
+      </c>
+      <c r="J28" s="6">
+        <v>4</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1383</v>
+      </c>
+      <c r="D29" s="6">
+        <v>499</v>
+      </c>
+      <c r="E29" s="6">
+        <v>354</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
+        <v>145</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="s" s="5">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="C30" s="6">
+        <v>5388</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2359</v>
+      </c>
+      <c r="D31" s="6">
+        <v>31</v>
+      </c>
+      <c r="E31" s="6">
+        <f>G31</f>
+        <v>5</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6">
+        <f>J31</f>
+        <v>26</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6">
+        <v>26</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" hidden="1">
+      <c r="A32" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" hidden="1">
+      <c r="A33" t="s" s="5">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s" s="5">
+        <v>73</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="s" s="5">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="C34" s="6">
+        <v>12254</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2503</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1698</v>
+      </c>
+      <c r="F34" s="6">
+        <v>209</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1489</v>
+      </c>
+      <c r="H34" s="6">
+        <v>805</v>
+      </c>
+      <c r="I34" s="6">
+        <v>89</v>
+      </c>
+      <c r="J34" s="6">
+        <v>716</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s" s="5">
+        <v>77</v>
+      </c>
+      <c r="C35" s="6">
+        <v>38380</v>
+      </c>
+      <c r="D35" s="6">
+        <v>7341</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6">
+        <v>7341</v>
+      </c>
+      <c r="I35" s="6">
+        <v>5139</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2202</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" hidden="1">
+      <c r="A36" t="s" s="5">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s" s="5">
+        <v>79</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="s" s="5">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s" s="5">
+        <v>81</v>
+      </c>
+      <c r="C37" s="6">
+        <v>22628</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1993</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1993</v>
+      </c>
+      <c r="F37" s="6">
+        <v>763</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1230</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="C38" s="6">
+        <v>14292</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1547</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1515</v>
+      </c>
+      <c r="F38" s="6">
+        <v>770</v>
+      </c>
+      <c r="G38" s="6">
+        <v>745</v>
+      </c>
+      <c r="H38" s="6">
+        <v>32</v>
+      </c>
+      <c r="I38" s="6">
+        <v>6</v>
+      </c>
+      <c r="J38" s="6">
+        <v>26</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="C39" s="6">
+        <v>42101</v>
+      </c>
+      <c r="D39" s="6">
+        <v>5941</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
+        <v>5941</v>
+      </c>
+      <c r="I39" s="6">
+        <v>3656</v>
+      </c>
+      <c r="J39" s="6">
+        <v>2285</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="s" s="5">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s" s="5">
+        <v>87</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1621</v>
+      </c>
+      <c r="D40" s="6">
+        <v>414</v>
+      </c>
+      <c r="E40" s="6">
+        <v>341</v>
+      </c>
+      <c r="F40" s="6">
+        <v>302</v>
+      </c>
+      <c r="G40" s="6">
+        <v>39</v>
+      </c>
+      <c r="H40" s="6">
+        <v>73</v>
+      </c>
+      <c r="I40" s="6">
+        <v>43</v>
+      </c>
+      <c r="J40" s="6">
+        <v>30</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="C41" s="6">
+        <v>17318</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2655</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1480</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
+        <v>1175</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" hidden="1">
+      <c r="A42" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>91</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s" s="5">
+        <v>93</v>
+      </c>
+      <c r="C43" s="6">
+        <v>21382</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" ht="15" customHeight="1" hidden="1">
+      <c r="A44" t="s" s="5">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s" s="5">
+        <v>95</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="s" s="5">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s" s="5">
+        <v>97</v>
+      </c>
+      <c r="C45" s="6">
+        <v>5579</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2652</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1152</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" ht="15" customHeight="1" hidden="1">
+      <c r="A46" t="s" s="5">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s" s="5">
+        <v>99</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="s" s="5">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s" s="5">
+        <v>101</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1066</v>
+      </c>
+      <c r="D47" s="6">
+        <f>E47+H47</f>
+        <v>250</v>
+      </c>
+      <c r="E47" s="6">
+        <v>92</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6">
+        <f>27+131</f>
+        <v>158</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="s" s="5">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s" s="5">
+        <v>103</v>
+      </c>
+      <c r="C48" s="6">
+        <v>17330</v>
+      </c>
+      <c r="D48" s="6">
+        <v>6054</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <v>6054</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4064</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1990</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="s" s="5">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s" s="5">
+        <v>105</v>
+      </c>
+      <c r="C49" s="6">
+        <v>23765</v>
+      </c>
+      <c r="D49" s="6">
+        <v>12152</v>
+      </c>
+      <c r="E49" s="6">
+        <v>4676</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2672</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H49" s="6">
+        <v>7476</v>
+      </c>
+      <c r="I49" s="6">
+        <v>3768</v>
+      </c>
+      <c r="J49" s="6">
+        <v>3708</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" t="s" s="5">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s" s="5">
+        <v>107</v>
+      </c>
+      <c r="C50" s="6">
+        <v>6640</v>
+      </c>
+      <c r="D50" s="6">
+        <v>865</v>
+      </c>
+      <c r="E50" s="6">
+        <v>865</v>
+      </c>
+      <c r="F50" s="6">
+        <v>65</v>
+      </c>
+      <c r="G50" s="6">
+        <v>800</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" t="s" s="5">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s" s="5">
+        <v>109</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2364</v>
+      </c>
+      <c r="D51" s="6">
+        <v>681</v>
+      </c>
+      <c r="E51" s="6">
+        <v>482</v>
+      </c>
+      <c r="F51" s="6">
+        <v>24</v>
+      </c>
+      <c r="G51" s="6">
+        <v>458</v>
+      </c>
+      <c r="H51" s="6">
+        <v>199</v>
+      </c>
+      <c r="I51" s="6">
+        <v>72</v>
+      </c>
+      <c r="J51" s="6">
+        <v>127</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" t="s" s="9">
+        <v>110</v>
+      </c>
+      <c r="C53" s="10">
+        <f>SUM(C2:C51)</f>
+        <v>730744</v>
+      </c>
+      <c r="D53" s="10">
+        <f>SUM(D2:D51)</f>
+        <v>137293</v>
+      </c>
+      <c r="E53" s="10">
+        <f>SUM(E2:E51)</f>
+        <v>58571</v>
+      </c>
+      <c r="F53" s="10">
+        <f>SUM(F2:F51)+E20+E21+E29+E41+E45+E47</f>
+        <v>37400</v>
+      </c>
+      <c r="G53" s="10">
+        <f>SUM(G2:G51)</f>
+        <v>21171</v>
+      </c>
+      <c r="H53" s="10">
+        <f>SUM(H2:H51)</f>
+        <v>78721</v>
+      </c>
+      <c r="I53" s="10">
+        <f>SUM(I2:I51)+H21+H29+H41+H45+H47</f>
+        <v>56928</v>
+      </c>
+      <c r="J53" s="10">
+        <f>SUM(J2:J51)</f>
+        <v>21793</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="C55" s="8">
+        <f>COUNTIF(C2:C51,"&gt;0")</f>
+        <v>39</v>
+      </c>
+      <c r="D55" s="8">
+        <f>COUNTIF(D2:D51,"&gt;0")</f>
+        <v>34</v>
+      </c>
+      <c r="E55" s="8">
+        <f>COUNTIF(E2:E51,"&gt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="F55" s="8">
+        <f>COUNTIF(F2:F51,"&gt;0")</f>
+        <v>20</v>
+      </c>
+      <c r="G55" s="8">
+        <f>COUNTIF(G2:G51,"&gt;0")</f>
+        <v>23</v>
+      </c>
+      <c r="H55" s="8">
+        <f>COUNTIF(H2:H51,"&gt;0")</f>
+        <v>31</v>
+      </c>
+      <c r="I55" s="8">
+        <f>COUNTIF(I2:I51,"&gt;0")</f>
+        <v>24</v>
+      </c>
+      <c r="J55" s="8">
+        <f>COUNTIF(J2:J51,"&gt;0")</f>
+        <v>25</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="11.3516" style="113" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="113" customWidth="1"/>
+    <col min="3" max="3" width="10.6719" style="113" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="113" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="113" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="113" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="113" customWidth="1"/>
+    <col min="8" max="8" width="10.6719" style="113" customWidth="1"/>
+    <col min="9" max="9" width="10.6719" style="113" customWidth="1"/>
+    <col min="10" max="10" width="10.6719" style="113" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="113" customWidth="1"/>
+    <col min="12" max="12" width="8.85156" style="113" customWidth="1"/>
+    <col min="13" max="13" width="8.85156" style="113" customWidth="1"/>
+    <col min="14" max="14" width="8.85156" style="113" customWidth="1"/>
+    <col min="15" max="256" width="8.85156" style="113" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="57" customHeight="1">
       <c r="A1" t="s" s="53">
         <v>0</v>
       </c>
@@ -31292,7 +31298,9 @@
         <v>879</v>
       </c>
       <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="L8" t="s" s="55">
+        <v>147</v>
+      </c>
       <c r="M8" s="56"/>
       <c r="N8" s="56"/>
     </row>
@@ -32205,8 +32213,10 @@
       <c r="H38" s="57"/>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
+      <c r="K38" s="7"/>
+      <c r="L38" t="s" s="55">
+        <v>147</v>
+      </c>
       <c r="M38" s="56"/>
       <c r="N38" s="56"/>
     </row>
@@ -32395,7 +32405,7 @@
       <c r="J44" s="57">
         <v>18</v>
       </c>
-      <c r="K44" t="s" s="113">
+      <c r="K44" t="s" s="114">
         <v>172</v>
       </c>
       <c r="L44" t="s" s="55">
@@ -32929,22 +32939,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.1719" style="114" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="114" customWidth="1"/>
-    <col min="3" max="3" width="10.6719" style="114" customWidth="1"/>
-    <col min="4" max="4" width="10.6719" style="114" customWidth="1"/>
-    <col min="5" max="5" width="10.6719" style="114" customWidth="1"/>
-    <col min="6" max="6" width="10.6719" style="114" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="114" customWidth="1"/>
-    <col min="8" max="8" width="10.6719" style="114" customWidth="1"/>
-    <col min="9" max="9" width="10.6719" style="114" customWidth="1"/>
-    <col min="10" max="10" width="10.6719" style="114" customWidth="1"/>
-    <col min="11" max="11" width="10.6719" style="114" customWidth="1"/>
-    <col min="12" max="12" width="11.3516" style="114" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="114" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="114" customWidth="1"/>
-    <col min="15" max="15" width="8.85156" style="114" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="114" customWidth="1"/>
+    <col min="1" max="1" width="11.1719" style="115" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="115" customWidth="1"/>
+    <col min="3" max="3" width="10.6719" style="115" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="115" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="115" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="115" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="115" customWidth="1"/>
+    <col min="8" max="8" width="10.6719" style="115" customWidth="1"/>
+    <col min="9" max="9" width="10.6719" style="115" customWidth="1"/>
+    <col min="10" max="10" width="10.6719" style="115" customWidth="1"/>
+    <col min="11" max="11" width="10.6719" style="115" customWidth="1"/>
+    <col min="12" max="12" width="11.3516" style="115" customWidth="1"/>
+    <col min="13" max="13" width="8.85156" style="115" customWidth="1"/>
+    <col min="14" max="14" width="8.85156" style="115" customWidth="1"/>
+    <col min="15" max="15" width="8.85156" style="115" customWidth="1"/>
+    <col min="16" max="256" width="8.85156" style="115" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="69.75" customHeight="1">
@@ -35694,18 +35704,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="115" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="115" customWidth="1"/>
-    <col min="3" max="3" width="14.1719" style="115" customWidth="1"/>
-    <col min="4" max="4" width="10.6719" style="115" customWidth="1"/>
-    <col min="5" max="5" width="10.6719" style="115" customWidth="1"/>
-    <col min="6" max="6" width="10.6719" style="115" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="115" customWidth="1"/>
-    <col min="8" max="8" width="10.6719" style="115" customWidth="1"/>
-    <col min="9" max="9" width="10.6719" style="115" customWidth="1"/>
-    <col min="10" max="10" width="12" style="115" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="115" customWidth="1"/>
-    <col min="12" max="256" width="8.85156" style="115" customWidth="1"/>
+    <col min="1" max="1" width="11.3516" style="116" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="116" customWidth="1"/>
+    <col min="3" max="3" width="14.1719" style="116" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="116" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="116" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="116" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="116" customWidth="1"/>
+    <col min="8" max="8" width="10.6719" style="116" customWidth="1"/>
+    <col min="9" max="9" width="10.6719" style="116" customWidth="1"/>
+    <col min="10" max="10" width="12" style="116" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="116" customWidth="1"/>
+    <col min="12" max="256" width="8.85156" style="116" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1">
@@ -35797,15 +35807,15 @@
         <f>1-D3</f>
         <v>0.9999634502923976</v>
       </c>
-      <c r="D3" s="116">
+      <c r="D3" s="117">
         <f>'Population 2020'!D3/'Population 2020'!C3</f>
         <v>3.654970760233918e-05</v>
       </c>
-      <c r="E3" s="116">
+      <c r="E3" s="117">
         <f>'Population 2020'!E3/'Population 2020'!C3</f>
         <v>3.654970760233918e-05</v>
       </c>
-      <c r="F3" s="116">
+      <c r="F3" s="117">
         <f>'Population 2020'!H3/'Population 2020'!C3</f>
         <v>0</v>
       </c>
@@ -37753,12 +37763,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.6719" style="117" customWidth="1"/>
-    <col min="2" max="2" width="17" style="117" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="117" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="117" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="117" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="117" customWidth="1"/>
+    <col min="1" max="1" width="11.6719" style="118" customWidth="1"/>
+    <col min="2" max="2" width="17" style="118" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="118" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="118" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="118" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1">
@@ -37781,7 +37791,7 @@
       <c r="B2" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="118">
+      <c r="C2" t="s" s="119">
         <v>178</v>
       </c>
       <c r="D2" s="7"/>
@@ -37794,7 +37804,7 @@
       <c r="B3" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="C3" s="119"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
@@ -37805,7 +37815,7 @@
       <c r="B4" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="118">
+      <c r="C4" t="s" s="119">
         <v>179</v>
       </c>
       <c r="D4" s="7"/>
@@ -37818,7 +37828,7 @@
       <c r="B5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C5" s="119"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -37829,7 +37839,7 @@
       <c r="B6" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="118">
+      <c r="C6" t="s" s="119">
         <v>180</v>
       </c>
       <c r="D6" s="7"/>
@@ -37842,7 +37852,7 @@
       <c r="B7" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="118">
+      <c r="C7" t="s" s="119">
         <v>181</v>
       </c>
       <c r="D7" s="7"/>
@@ -37855,7 +37865,7 @@
       <c r="B8" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="C8" t="s" s="118">
+      <c r="C8" t="s" s="119">
         <v>182</v>
       </c>
       <c r="D8" s="7"/>
@@ -37868,7 +37878,7 @@
       <c r="B9" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="C9" t="s" s="118">
+      <c r="C9" t="s" s="119">
         <v>183</v>
       </c>
       <c r="D9" s="7"/>
@@ -37881,7 +37891,7 @@
       <c r="B10" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="C10" t="s" s="118">
+      <c r="C10" t="s" s="119">
         <v>184</v>
       </c>
       <c r="D10" s="7"/>
@@ -37894,7 +37904,7 @@
       <c r="B11" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C11" t="s" s="118">
+      <c r="C11" t="s" s="119">
         <v>185</v>
       </c>
       <c r="D11" s="7"/>
@@ -37907,7 +37917,7 @@
       <c r="B12" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="C12" t="s" s="118">
+      <c r="C12" t="s" s="119">
         <v>186</v>
       </c>
       <c r="D12" s="7"/>
@@ -37920,7 +37930,7 @@
       <c r="B13" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="C13" t="s" s="118">
+      <c r="C13" t="s" s="119">
         <v>187</v>
       </c>
       <c r="D13" s="7"/>
@@ -37933,7 +37943,7 @@
       <c r="B14" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="C14" t="s" s="118">
+      <c r="C14" t="s" s="119">
         <v>188</v>
       </c>
       <c r="D14" s="7"/>
@@ -37946,7 +37956,7 @@
       <c r="B15" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="C15" t="s" s="118">
+      <c r="C15" t="s" s="119">
         <v>189</v>
       </c>
       <c r="D15" s="7"/>
@@ -37959,7 +37969,7 @@
       <c r="B16" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
@@ -37970,7 +37980,7 @@
       <c r="B17" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="C17" t="s" s="118">
+      <c r="C17" t="s" s="119">
         <v>190</v>
       </c>
       <c r="D17" s="7"/>
@@ -37983,7 +37993,7 @@
       <c r="B18" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="C18" t="s" s="118">
+      <c r="C18" t="s" s="119">
         <v>191</v>
       </c>
       <c r="D18" s="7"/>
@@ -37996,7 +38006,7 @@
       <c r="B19" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="C19" t="s" s="118">
+      <c r="C19" t="s" s="119">
         <v>192</v>
       </c>
       <c r="D19" s="7"/>
@@ -38009,7 +38019,7 @@
       <c r="B20" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="C20" t="s" s="118">
+      <c r="C20" t="s" s="119">
         <v>193</v>
       </c>
       <c r="D20" s="7"/>
@@ -38022,7 +38032,7 @@
       <c r="B21" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="C21" t="s" s="118">
+      <c r="C21" t="s" s="119">
         <v>194</v>
       </c>
       <c r="D21" s="7"/>
@@ -38035,7 +38045,7 @@
       <c r="B22" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="C22" t="s" s="118">
+      <c r="C22" t="s" s="119">
         <v>195</v>
       </c>
       <c r="D22" s="7"/>
@@ -38048,7 +38058,7 @@
       <c r="B23" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="C23" t="s" s="118">
+      <c r="C23" t="s" s="119">
         <v>196</v>
       </c>
       <c r="D23" s="7"/>
@@ -38061,7 +38071,7 @@
       <c r="B24" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="C24" t="s" s="118">
+      <c r="C24" t="s" s="119">
         <v>196</v>
       </c>
       <c r="D24" s="7"/>
@@ -38074,7 +38084,7 @@
       <c r="B25" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="C25" t="s" s="118">
+      <c r="C25" t="s" s="119">
         <v>197</v>
       </c>
       <c r="D25" s="7"/>
@@ -38087,7 +38097,7 @@
       <c r="B26" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="C26" t="s" s="118">
+      <c r="C26" t="s" s="119">
         <v>198</v>
       </c>
       <c r="D26" s="7"/>
@@ -38100,7 +38110,7 @@
       <c r="B27" t="s" s="5">
         <v>61</v>
       </c>
-      <c r="C27" t="s" s="118">
+      <c r="C27" t="s" s="119">
         <v>199</v>
       </c>
       <c r="D27" s="7"/>
@@ -38113,7 +38123,7 @@
       <c r="B28" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="C28" t="s" s="118">
+      <c r="C28" t="s" s="119">
         <v>200</v>
       </c>
       <c r="D28" s="7"/>
@@ -38126,7 +38136,7 @@
       <c r="B29" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="C29" t="s" s="118">
+      <c r="C29" t="s" s="119">
         <v>201</v>
       </c>
       <c r="D29" s="7"/>
@@ -38139,7 +38149,7 @@
       <c r="B30" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="C30" t="s" s="118">
+      <c r="C30" t="s" s="119">
         <v>202</v>
       </c>
       <c r="D30" s="7"/>
@@ -38165,7 +38175,7 @@
       <c r="B32" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="C32" t="s" s="118">
+      <c r="C32" t="s" s="119">
         <v>204</v>
       </c>
       <c r="D32" s="7"/>
@@ -38178,7 +38188,7 @@
       <c r="B33" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="C33" s="119"/>
+      <c r="C33" s="120"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
@@ -38189,7 +38199,7 @@
       <c r="B34" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="C34" t="s" s="120">
+      <c r="C34" t="s" s="121">
         <v>205</v>
       </c>
       <c r="D34" s="7"/>
@@ -38202,7 +38212,7 @@
       <c r="B35" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="C35" t="s" s="118">
+      <c r="C35" t="s" s="119">
         <v>206</v>
       </c>
       <c r="D35" s="7"/>
@@ -38215,7 +38225,7 @@
       <c r="B36" t="s" s="5">
         <v>79</v>
       </c>
-      <c r="C36" s="119"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
@@ -38226,7 +38236,7 @@
       <c r="B37" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="C37" t="s" s="118">
+      <c r="C37" t="s" s="119">
         <v>207</v>
       </c>
       <c r="D37" s="7"/>
@@ -38239,7 +38249,7 @@
       <c r="B38" t="s" s="5">
         <v>83</v>
       </c>
-      <c r="C38" t="s" s="118">
+      <c r="C38" t="s" s="119">
         <v>208</v>
       </c>
       <c r="D38" s="7"/>
@@ -38252,7 +38262,7 @@
       <c r="B39" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="C39" t="s" s="118">
+      <c r="C39" t="s" s="119">
         <v>209</v>
       </c>
       <c r="D39" s="7"/>
@@ -38265,7 +38275,7 @@
       <c r="B40" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="C40" t="s" s="118">
+      <c r="C40" t="s" s="119">
         <v>210</v>
       </c>
       <c r="D40" s="7"/>
@@ -38278,7 +38288,7 @@
       <c r="B41" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="C41" t="s" s="118">
+      <c r="C41" t="s" s="119">
         <v>211</v>
       </c>
       <c r="D41" s="7"/>
@@ -38291,7 +38301,7 @@
       <c r="B42" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="C42" t="s" s="118">
+      <c r="C42" t="s" s="119">
         <v>212</v>
       </c>
       <c r="D42" s="7"/>
@@ -38304,7 +38314,7 @@
       <c r="B43" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="C43" s="119"/>
+      <c r="C43" s="120"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
@@ -38315,7 +38325,7 @@
       <c r="B44" t="s" s="5">
         <v>95</v>
       </c>
-      <c r="C44" t="s" s="118">
+      <c r="C44" t="s" s="119">
         <v>213</v>
       </c>
       <c r="D44" s="7"/>
@@ -38328,7 +38338,7 @@
       <c r="B45" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="C45" t="s" s="118">
+      <c r="C45" t="s" s="119">
         <v>214</v>
       </c>
       <c r="D45" s="7"/>
@@ -38341,7 +38351,7 @@
       <c r="B46" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="C46" s="119"/>
+      <c r="C46" s="120"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
@@ -38352,7 +38362,7 @@
       <c r="B47" t="s" s="5">
         <v>101</v>
       </c>
-      <c r="C47" t="s" s="118">
+      <c r="C47" t="s" s="119">
         <v>215</v>
       </c>
       <c r="D47" s="7"/>
@@ -38365,7 +38375,7 @@
       <c r="B48" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="C48" t="s" s="118">
+      <c r="C48" t="s" s="119">
         <v>216</v>
       </c>
       <c r="D48" s="7"/>
@@ -38391,7 +38401,7 @@
       <c r="B50" t="s" s="5">
         <v>107</v>
       </c>
-      <c r="C50" t="s" s="118">
+      <c r="C50" t="s" s="119">
         <v>218</v>
       </c>
       <c r="D50" s="7"/>
@@ -38404,7 +38414,7 @@
       <c r="B51" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="C51" t="s" s="118">
+      <c r="C51" t="s" s="119">
         <v>219</v>
       </c>
       <c r="D51" s="7"/>
@@ -38430,1308 +38440,1308 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="121" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="121" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="121" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="121" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="121" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="121" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="121" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="121" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="121" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="121" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="121" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="121" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="121" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="121" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="122" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="122" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="122" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="122" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="122" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="122" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="122" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="122" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="122" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="122" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="122" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="122" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="122" customWidth="1"/>
+    <col min="14" max="256" width="16.3516" style="122" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="61.35" customHeight="1">
-      <c r="A1" t="s" s="122">
+      <c r="A1" t="s" s="123">
         <v>220</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="122"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="123"/>
     </row>
     <row r="2" ht="55.8" customHeight="1">
-      <c r="A2" t="s" s="122">
+      <c r="A2" t="s" s="123">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="122">
+      <c r="B2" t="s" s="123">
         <v>221</v>
       </c>
-      <c r="C2" t="s" s="122">
+      <c r="C2" t="s" s="123">
         <v>222</v>
       </c>
-      <c r="D2" t="s" s="122">
+      <c r="D2" t="s" s="123">
         <v>223</v>
       </c>
-      <c r="E2" t="s" s="122">
+      <c r="E2" t="s" s="123">
         <v>224</v>
       </c>
-      <c r="F2" t="s" s="122">
+      <c r="F2" t="s" s="123">
         <v>225</v>
       </c>
-      <c r="G2" t="s" s="122">
+      <c r="G2" t="s" s="123">
         <v>226</v>
       </c>
-      <c r="H2" t="s" s="122">
+      <c r="H2" t="s" s="123">
         <v>227</v>
       </c>
-      <c r="I2" t="s" s="122">
+      <c r="I2" t="s" s="123">
         <v>228</v>
       </c>
-      <c r="J2" t="s" s="122">
+      <c r="J2" t="s" s="123">
         <v>229</v>
       </c>
-      <c r="K2" t="s" s="122">
+      <c r="K2" t="s" s="123">
         <v>230</v>
       </c>
-      <c r="L2" t="s" s="122">
+      <c r="L2" t="s" s="123">
         <v>145</v>
       </c>
-      <c r="M2" s="122"/>
+      <c r="M2" s="123"/>
     </row>
     <row r="3" ht="55.8" customHeight="1">
-      <c r="A3" t="s" s="122">
+      <c r="A3" t="s" s="123">
         <v>11</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126">
         <v>175.84</v>
       </c>
-      <c r="H3" s="125">
+      <c r="H3" s="126">
         <v>175.84</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" ht="61.15" customHeight="1">
-      <c r="A4" t="s" s="122">
+      <c r="A4" t="s" s="123">
         <v>13</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="126">
+      <c r="B4" s="125"/>
+      <c r="C4" s="127">
         <v>45</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="127">
         <v>45</v>
       </c>
-      <c r="E4" t="s" s="122">
+      <c r="E4" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="125">
+      <c r="F4" s="123"/>
+      <c r="G4" s="126">
         <v>72.28</v>
       </c>
-      <c r="H4" s="125">
+      <c r="H4" s="126">
         <v>72.28</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" ht="55.05" customHeight="1">
-      <c r="A5" t="s" s="122">
+      <c r="A5" t="s" s="123">
         <v>15</v>
       </c>
-      <c r="B5" s="126">
+      <c r="B5" s="127">
         <f>(365*2)+(3*30.436875)+6</f>
         <v>827.310625</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="127">
         <f>(10*30.436875)+24</f>
         <v>328.36875</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="127">
         <f>(1*365)+24</f>
         <v>389</v>
       </c>
-      <c r="E5" t="s" s="122">
+      <c r="E5" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="125">
+      <c r="F5" s="125"/>
+      <c r="G5" s="126">
         <v>64.18000000000001</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="124"/>
-      <c r="K5" t="s" s="122">
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="125"/>
+      <c r="K5" t="s" s="123">
         <v>232</v>
       </c>
-      <c r="L5" t="s" s="122">
+      <c r="L5" t="s" s="123">
         <v>233</v>
       </c>
-      <c r="M5" s="124"/>
+      <c r="M5" s="125"/>
     </row>
     <row r="6" ht="101.05" customHeight="1">
-      <c r="A6" t="s" s="122">
+      <c r="A6" t="s" s="123">
         <v>17</v>
       </c>
-      <c r="B6" s="127">
+      <c r="B6" s="128">
         <v>1061.7</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="127">
         <v>686.6</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="127">
         <v>238.5</v>
       </c>
-      <c r="E6" t="s" s="122">
+      <c r="E6" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F6" s="122"/>
-      <c r="G6" s="125">
+      <c r="F6" s="123"/>
+      <c r="G6" s="126">
         <v>71.48999999999999</v>
       </c>
-      <c r="H6" s="125">
+      <c r="H6" s="126">
         <v>71.48999999999999</v>
       </c>
-      <c r="I6" s="125">
+      <c r="I6" s="126">
         <v>4.91</v>
       </c>
-      <c r="J6" s="125">
+      <c r="J6" s="126">
         <v>4.91</v>
       </c>
-      <c r="K6" t="s" s="122">
+      <c r="K6" t="s" s="123">
         <v>234</v>
       </c>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
     </row>
     <row r="7" ht="55.05" customHeight="1">
-      <c r="A7" t="s" s="122">
+      <c r="A7" t="s" s="123">
         <v>19</v>
       </c>
-      <c r="B7" s="126">
+      <c r="B7" s="127">
         <v>323</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="127">
         <v>265</v>
       </c>
-      <c r="D7" s="126">
+      <c r="D7" s="127">
         <v>381</v>
       </c>
-      <c r="E7" t="s" s="122">
+      <c r="E7" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="125"/>
-      <c r="H7" t="s" s="122">
+      <c r="F7" s="125"/>
+      <c r="G7" s="126"/>
+      <c r="H7" t="s" s="123">
         <v>235</v>
       </c>
-      <c r="I7" s="125"/>
-      <c r="J7" s="124"/>
-      <c r="K7" t="s" s="122">
+      <c r="I7" s="126"/>
+      <c r="J7" s="125"/>
+      <c r="K7" t="s" s="123">
         <v>236</v>
       </c>
-      <c r="L7" t="s" s="122">
+      <c r="L7" t="s" s="123">
         <v>237</v>
       </c>
-      <c r="M7" s="124"/>
+      <c r="M7" s="125"/>
     </row>
     <row r="8" ht="55.05" customHeight="1">
-      <c r="A8" t="s" s="122">
+      <c r="A8" t="s" s="123">
         <v>21</v>
       </c>
-      <c r="B8" s="126">
+      <c r="B8" s="127">
         <v>953</v>
       </c>
-      <c r="C8" s="126">
+      <c r="C8" s="127">
         <v>1170</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8" s="127">
         <v>511</v>
       </c>
-      <c r="E8" t="s" s="122">
+      <c r="E8" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
     </row>
     <row r="9" ht="55.05" customHeight="1">
-      <c r="A9" t="s" s="122">
+      <c r="A9" t="s" s="123">
         <v>23</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125">
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="126">
         <v>131.15</v>
       </c>
-      <c r="H9" s="125">
+      <c r="H9" s="126">
         <v>131.15</v>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
     </row>
     <row r="10" ht="55.05" customHeight="1">
-      <c r="A10" t="s" s="122">
+      <c r="A10" t="s" s="123">
         <v>25</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="125">
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="126">
         <v>154.4</v>
       </c>
-      <c r="H10" t="s" s="122">
+      <c r="H10" t="s" s="123">
         <v>238</v>
       </c>
-      <c r="I10" s="125">
+      <c r="I10" s="126">
         <v>176.39</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
     </row>
     <row r="11" ht="55.05" customHeight="1">
-      <c r="A11" t="s" s="122">
+      <c r="A11" t="s" s="123">
         <v>27</v>
       </c>
-      <c r="B11" s="126">
+      <c r="B11" s="127">
         <v>17614.36</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="127">
         <v>16074.41</v>
       </c>
-      <c r="D11" s="126">
+      <c r="D11" s="127">
         <v>22080.22</v>
       </c>
-      <c r="E11" t="s" s="122">
+      <c r="E11" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125">
+      <c r="F11" s="125"/>
+      <c r="G11" s="126">
         <v>66.48</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" t="s" s="122">
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" t="s" s="123">
         <v>239</v>
       </c>
-      <c r="M11" s="124"/>
+      <c r="M11" s="125"/>
     </row>
     <row r="12" ht="55.05" customHeight="1">
-      <c r="A12" t="s" s="122">
+      <c r="A12" t="s" s="123">
         <v>29</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
     </row>
     <row r="13" ht="55.05" customHeight="1">
-      <c r="A13" t="s" s="122">
+      <c r="A13" t="s" s="123">
         <v>31</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
     </row>
     <row r="14" ht="55.05" customHeight="1">
-      <c r="A14" t="s" s="122">
+      <c r="A14" t="s" s="123">
         <v>33</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
     </row>
     <row r="15" ht="61.15" customHeight="1">
-      <c r="A15" t="s" s="122">
+      <c r="A15" t="s" s="123">
         <v>35</v>
       </c>
-      <c r="B15" s="126">
+      <c r="B15" s="127">
         <v>61</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="127">
         <v>24</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="127">
         <v>25</v>
       </c>
-      <c r="E15" t="s" s="122">
+      <c r="E15" t="s" s="123">
         <v>240</v>
       </c>
-      <c r="F15" s="122"/>
-      <c r="G15" s="125">
+      <c r="F15" s="123"/>
+      <c r="G15" s="126">
         <v>76.31999999999999</v>
       </c>
-      <c r="H15" s="125">
+      <c r="H15" s="126">
         <v>76.31999999999999</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="126">
         <v>32.14</v>
       </c>
-      <c r="J15" s="125">
+      <c r="J15" s="126">
         <v>32.14</v>
       </c>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
     </row>
     <row r="16" ht="55.05" customHeight="1">
-      <c r="A16" t="s" s="122">
+      <c r="A16" t="s" s="123">
         <v>37</v>
       </c>
-      <c r="B16" s="126">
+      <c r="B16" s="127">
         <v>26.7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="126">
+      <c r="C16" s="125"/>
+      <c r="D16" s="127">
         <v>7.4</v>
       </c>
-      <c r="E16" t="s" s="122">
+      <c r="E16" t="s" s="123">
         <v>240</v>
       </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="125">
+      <c r="F16" s="123"/>
+      <c r="G16" s="126">
         <v>94.14</v>
       </c>
-      <c r="H16" s="125">
+      <c r="H16" s="126">
         <v>94.14</v>
       </c>
-      <c r="I16" s="125">
+      <c r="I16" s="126">
         <v>24.71</v>
       </c>
-      <c r="J16" s="125">
+      <c r="J16" s="126">
         <v>24.71</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" t="s" s="122">
+      <c r="K16" s="123"/>
+      <c r="L16" t="s" s="123">
         <v>241</v>
       </c>
-      <c r="M16" s="122"/>
+      <c r="M16" s="123"/>
     </row>
     <row r="17" ht="55.05" customHeight="1">
-      <c r="A17" t="s" s="122">
+      <c r="A17" t="s" s="123">
         <v>39</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
     </row>
     <row r="18" ht="61.15" customHeight="1">
-      <c r="A18" t="s" s="122">
+      <c r="A18" t="s" s="123">
         <v>41</v>
       </c>
-      <c r="B18" s="126">
+      <c r="B18" s="127">
         <v>37.86</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="127">
         <v>12.43</v>
       </c>
-      <c r="D18" s="126">
+      <c r="D18" s="127">
         <v>16.74</v>
       </c>
-      <c r="E18" t="s" s="122">
+      <c r="E18" t="s" s="123">
         <v>240</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="125">
+      <c r="F18" s="123"/>
+      <c r="G18" s="126">
         <v>10.18</v>
       </c>
-      <c r="H18" t="s" s="122">
+      <c r="H18" t="s" s="123">
         <v>242</v>
       </c>
-      <c r="I18" s="125"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="122"/>
-      <c r="L18" t="s" s="122">
+      <c r="I18" s="126"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="123"/>
+      <c r="L18" t="s" s="123">
         <v>243</v>
       </c>
-      <c r="M18" s="122"/>
+      <c r="M18" s="123"/>
     </row>
     <row r="19" ht="55.05" customHeight="1">
-      <c r="A19" t="s" s="122">
+      <c r="A19" t="s" s="123">
         <v>43</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
     </row>
     <row r="20" ht="61.15" customHeight="1">
-      <c r="A20" t="s" s="122">
+      <c r="A20" t="s" s="123">
         <v>45</v>
       </c>
-      <c r="B20" s="126">
+      <c r="B20" s="127">
         <v>6.2</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C20" s="127">
         <v>4.9</v>
       </c>
-      <c r="D20" s="126">
+      <c r="D20" s="127">
         <v>4.89</v>
       </c>
-      <c r="E20" t="s" s="122">
+      <c r="E20" t="s" s="123">
         <v>244</v>
       </c>
-      <c r="F20" s="122"/>
-      <c r="G20" s="125">
+      <c r="F20" s="123"/>
+      <c r="G20" s="126">
         <v>62.49</v>
       </c>
-      <c r="H20" t="s" s="122">
+      <c r="H20" t="s" s="123">
         <v>245</v>
       </c>
-      <c r="I20" s="125"/>
-      <c r="J20" t="s" s="122">
+      <c r="I20" s="126"/>
+      <c r="J20" t="s" s="123">
         <v>246</v>
       </c>
-      <c r="K20" t="s" s="122">
+      <c r="K20" t="s" s="123">
         <v>247</v>
       </c>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
     </row>
     <row r="21" ht="55.05" customHeight="1">
-      <c r="A21" t="s" s="122">
+      <c r="A21" t="s" s="123">
         <v>47</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
     </row>
     <row r="22" ht="101.05" customHeight="1">
-      <c r="A22" t="s" s="122">
+      <c r="A22" t="s" s="123">
         <v>49</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="125">
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="126">
         <v>123.33</v>
       </c>
-      <c r="H22" t="s" s="122">
+      <c r="H22" t="s" s="123">
         <v>248</v>
       </c>
-      <c r="I22" s="125">
+      <c r="I22" s="126">
         <v>6.36</v>
       </c>
-      <c r="J22" s="125">
+      <c r="J22" s="126">
         <v>6.36</v>
       </c>
-      <c r="K22" t="s" s="122">
+      <c r="K22" t="s" s="123">
         <v>249</v>
       </c>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
     </row>
     <row r="23" ht="55.05" customHeight="1">
-      <c r="A23" t="s" s="122">
+      <c r="A23" t="s" s="123">
         <v>51</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" t="s" s="122">
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" t="s" s="123">
         <v>250</v>
       </c>
-      <c r="G23" s="125">
+      <c r="G23" s="126">
         <v>151</v>
       </c>
-      <c r="H23" s="125">
+      <c r="H23" s="126">
         <v>151</v>
       </c>
-      <c r="I23" s="125"/>
-      <c r="J23" s="124"/>
-      <c r="K23" t="s" s="122">
+      <c r="I23" s="126"/>
+      <c r="J23" s="125"/>
+      <c r="K23" t="s" s="123">
         <v>251</v>
       </c>
-      <c r="L23" t="s" s="122">
+      <c r="L23" t="s" s="123">
         <v>252</v>
       </c>
-      <c r="M23" s="124"/>
+      <c r="M23" s="125"/>
     </row>
     <row r="24" ht="55.05" customHeight="1">
-      <c r="A24" t="s" s="122">
+      <c r="A24" t="s" s="123">
         <v>53</v>
       </c>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
     </row>
     <row r="25" ht="55.05" customHeight="1">
-      <c r="A25" t="s" s="122">
+      <c r="A25" t="s" s="123">
         <v>55</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
     </row>
     <row r="26" ht="61.15" customHeight="1">
-      <c r="A26" t="s" s="122">
+      <c r="A26" t="s" s="123">
         <v>57</v>
       </c>
-      <c r="B26" s="126">
+      <c r="B26" s="127">
         <v>4.9</v>
       </c>
-      <c r="C26" s="126">
+      <c r="C26" s="127">
         <v>2.1</v>
       </c>
-      <c r="D26" s="126">
+      <c r="D26" s="127">
         <v>1.4</v>
       </c>
-      <c r="E26" t="s" s="122">
+      <c r="E26" t="s" s="123">
         <v>244</v>
       </c>
-      <c r="F26" s="122"/>
-      <c r="G26" s="125">
+      <c r="F26" s="123"/>
+      <c r="G26" s="126">
         <v>83.15000000000001</v>
       </c>
-      <c r="H26" t="s" s="122">
+      <c r="H26" t="s" s="123">
         <v>253</v>
       </c>
-      <c r="I26" s="125">
+      <c r="I26" s="126">
         <v>21.37</v>
       </c>
-      <c r="J26" t="s" s="122">
+      <c r="J26" t="s" s="123">
         <v>254</v>
       </c>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
     </row>
     <row r="27" ht="55.05" customHeight="1">
-      <c r="A27" t="s" s="122">
+      <c r="A27" t="s" s="123">
         <v>59</v>
       </c>
-      <c r="B27" s="126">
+      <c r="B27" s="127">
         <v>39</v>
       </c>
-      <c r="C27" s="126">
+      <c r="C27" s="127">
         <v>26.1</v>
       </c>
-      <c r="D27" s="126">
+      <c r="D27" s="127">
         <v>9.800000000000001</v>
       </c>
-      <c r="E27" t="s" s="122">
+      <c r="E27" t="s" s="123">
         <v>240</v>
       </c>
-      <c r="F27" s="124"/>
-      <c r="G27" s="125">
+      <c r="F27" s="125"/>
+      <c r="G27" s="126">
         <v>39.91</v>
       </c>
-      <c r="H27" s="125">
+      <c r="H27" s="126">
         <v>39.91</v>
       </c>
-      <c r="I27" s="125"/>
-      <c r="J27" s="124"/>
-      <c r="K27" t="s" s="122">
+      <c r="I27" s="126"/>
+      <c r="J27" s="125"/>
+      <c r="K27" t="s" s="123">
         <v>255</v>
       </c>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
     </row>
     <row r="28" ht="55.05" customHeight="1">
-      <c r="A28" t="s" s="122">
+      <c r="A28" t="s" s="123">
         <v>61</v>
       </c>
-      <c r="B28" s="126">
+      <c r="B28" s="127">
         <v>361</v>
       </c>
-      <c r="C28" s="126">
+      <c r="C28" s="127">
         <v>341</v>
       </c>
-      <c r="D28" s="126">
+      <c r="D28" s="127">
         <v>276</v>
       </c>
-      <c r="E28" t="s" s="122">
+      <c r="E28" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F28" s="124"/>
-      <c r="G28" s="125">
+      <c r="F28" s="125"/>
+      <c r="G28" s="126">
         <v>104.66</v>
       </c>
-      <c r="H28" t="s" s="122">
+      <c r="H28" t="s" s="123">
         <v>256</v>
       </c>
-      <c r="I28" s="125">
+      <c r="I28" s="126">
         <v>0.24</v>
       </c>
-      <c r="J28" t="s" s="122">
+      <c r="J28" t="s" s="123">
         <v>257</v>
       </c>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
     </row>
     <row r="29" ht="55.05" customHeight="1">
-      <c r="A29" t="s" s="122">
+      <c r="A29" t="s" s="123">
         <v>63</v>
       </c>
-      <c r="B29" s="126">
+      <c r="B29" s="127">
         <v>2</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" t="s" s="122">
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" t="s" s="123">
         <v>244</v>
       </c>
-      <c r="F29" s="122"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="125">
+      <c r="F29" s="123"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="126">
         <v>127.63</v>
       </c>
-      <c r="J29" s="126">
+      <c r="J29" s="127">
         <v>127.63</v>
       </c>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
     </row>
     <row r="30" ht="55.05" customHeight="1">
-      <c r="A30" t="s" s="122">
+      <c r="A30" t="s" s="123">
         <v>65</v>
       </c>
-      <c r="B30" s="126">
+      <c r="B30" s="127">
         <v>1.4</v>
       </c>
-      <c r="C30" s="126">
+      <c r="C30" s="127">
         <v>1.02</v>
       </c>
-      <c r="D30" s="126">
+      <c r="D30" s="127">
         <v>0.67</v>
       </c>
-      <c r="E30" t="s" s="122">
+      <c r="E30" t="s" s="123">
         <v>244</v>
       </c>
-      <c r="F30" s="122"/>
-      <c r="G30" s="125">
+      <c r="F30" s="123"/>
+      <c r="G30" s="126">
         <v>132.61</v>
       </c>
-      <c r="H30" t="s" s="122">
+      <c r="H30" t="s" s="123">
         <v>258</v>
       </c>
-      <c r="I30" s="125"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
     </row>
     <row r="31" ht="55.05" customHeight="1">
-      <c r="A31" t="s" s="122">
+      <c r="A31" t="s" s="123">
         <v>67</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
     </row>
     <row r="32" ht="55.05" customHeight="1">
-      <c r="A32" t="s" s="122">
+      <c r="A32" t="s" s="123">
         <v>69</v>
       </c>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" t="s" s="122">
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" t="s" s="123">
         <v>259</v>
       </c>
-      <c r="G32" s="125"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="125">
-        <v>131</v>
-      </c>
-      <c r="J32" s="126">
-        <v>131</v>
-      </c>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="126">
+        <v>131</v>
+      </c>
+      <c r="J32" s="127">
+        <v>131</v>
+      </c>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
     </row>
     <row r="33" ht="55.05" customHeight="1">
-      <c r="A33" t="s" s="122">
+      <c r="A33" t="s" s="123">
         <v>71</v>
       </c>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="125">
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="126">
         <v>136.86</v>
       </c>
-      <c r="H33" t="s" s="122">
+      <c r="H33" t="s" s="123">
         <v>260</v>
       </c>
-      <c r="I33" s="125"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="125"/>
     </row>
     <row r="34" ht="55.05" customHeight="1">
-      <c r="A34" t="s" s="122">
+      <c r="A34" t="s" s="123">
         <v>73</v>
       </c>
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="125"/>
     </row>
     <row r="35" ht="55.05" customHeight="1">
-      <c r="A35" t="s" s="122">
+      <c r="A35" t="s" s="123">
         <v>75</v>
       </c>
-      <c r="B35" s="126">
+      <c r="B35" s="127">
         <v>33.06</v>
       </c>
-      <c r="C35" s="126">
+      <c r="C35" s="127">
         <v>15.19</v>
       </c>
-      <c r="D35" t="s" s="122">
+      <c r="D35" t="s" s="123">
         <v>261</v>
       </c>
-      <c r="E35" t="s" s="122">
+      <c r="E35" t="s" s="123">
         <v>240</v>
       </c>
-      <c r="F35" s="124"/>
-      <c r="G35" s="125">
+      <c r="F35" s="125"/>
+      <c r="G35" s="126">
         <v>66.77</v>
       </c>
-      <c r="H35" t="s" s="122">
+      <c r="H35" t="s" s="123">
         <v>262</v>
       </c>
-      <c r="I35" s="125">
+      <c r="I35" s="126">
         <v>3.17</v>
       </c>
-      <c r="J35" s="126">
+      <c r="J35" s="127">
         <v>3.17</v>
       </c>
-      <c r="K35" t="s" s="122">
+      <c r="K35" t="s" s="123">
         <v>263</v>
       </c>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
     </row>
     <row r="36" ht="55.05" customHeight="1">
-      <c r="A36" t="s" s="122">
+      <c r="A36" t="s" s="123">
         <v>77</v>
       </c>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
     </row>
     <row r="37" ht="55.05" customHeight="1">
-      <c r="A37" t="s" s="122">
+      <c r="A37" t="s" s="123">
         <v>79</v>
       </c>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="125"/>
     </row>
     <row r="38" ht="55.05" customHeight="1">
-      <c r="A38" t="s" s="122">
+      <c r="A38" t="s" s="123">
         <v>81</v>
       </c>
-      <c r="B38" s="126">
+      <c r="B38" s="127">
         <v>1095</v>
       </c>
-      <c r="C38" s="126">
+      <c r="C38" s="127">
         <v>895</v>
       </c>
-      <c r="D38" s="126">
+      <c r="D38" s="127">
         <v>3047</v>
       </c>
-      <c r="E38" t="s" s="122">
+      <c r="E38" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F38" s="124"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="125">
+      <c r="F38" s="125"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="126">
         <v>15.74</v>
       </c>
-      <c r="J38" s="126">
+      <c r="J38" s="127">
         <v>15.74</v>
       </c>
-      <c r="K38" t="s" s="122">
+      <c r="K38" t="s" s="123">
         <v>264</v>
       </c>
-      <c r="L38" t="s" s="122">
+      <c r="L38" t="s" s="123">
         <v>265</v>
       </c>
-      <c r="M38" s="124"/>
+      <c r="M38" s="125"/>
     </row>
     <row r="39" ht="55.05" customHeight="1">
-      <c r="A39" t="s" s="122">
+      <c r="A39" t="s" s="123">
         <v>83</v>
       </c>
-      <c r="B39" s="126">
+      <c r="B39" s="127">
         <v>1217</v>
       </c>
-      <c r="C39" s="126">
+      <c r="C39" s="127">
         <v>367</v>
       </c>
-      <c r="D39" s="126">
+      <c r="D39" s="127">
         <v>544</v>
       </c>
-      <c r="E39" t="s" s="122">
+      <c r="E39" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F39" s="124"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="125">
+      <c r="F39" s="125"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="126">
         <v>116.89</v>
       </c>
-      <c r="J39" t="s" s="122">
+      <c r="J39" t="s" s="123">
         <v>266</v>
       </c>
-      <c r="K39" s="124"/>
-      <c r="L39" t="s" s="122">
+      <c r="K39" s="125"/>
+      <c r="L39" t="s" s="123">
         <v>267</v>
       </c>
-      <c r="M39" s="124"/>
+      <c r="M39" s="125"/>
     </row>
     <row r="40" ht="55.05" customHeight="1">
-      <c r="A40" t="s" s="122">
+      <c r="A40" t="s" s="123">
         <v>85</v>
       </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
     </row>
     <row r="41" ht="61.15" customHeight="1">
-      <c r="A41" t="s" s="122">
+      <c r="A41" t="s" s="123">
         <v>87</v>
       </c>
-      <c r="B41" s="126">
+      <c r="B41" s="127">
         <v>352</v>
       </c>
-      <c r="C41" s="126">
+      <c r="C41" s="127">
         <v>381</v>
       </c>
-      <c r="D41" s="126">
+      <c r="D41" s="127">
         <v>334</v>
       </c>
-      <c r="E41" t="s" s="122">
+      <c r="E41" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F41" s="122"/>
-      <c r="G41" s="125">
+      <c r="F41" s="123"/>
+      <c r="G41" s="126">
         <v>226.13</v>
       </c>
-      <c r="H41" t="s" s="122">
+      <c r="H41" t="s" s="123">
         <v>268</v>
       </c>
-      <c r="I41" s="125"/>
-      <c r="J41" s="124"/>
-      <c r="K41" t="s" s="122">
+      <c r="I41" s="126"/>
+      <c r="J41" s="125"/>
+      <c r="K41" t="s" s="123">
         <v>269</v>
       </c>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
     </row>
     <row r="42" ht="55.05" customHeight="1">
-      <c r="A42" t="s" s="122">
+      <c r="A42" t="s" s="123">
         <v>89</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
     </row>
     <row r="43" ht="55.05" customHeight="1">
-      <c r="A43" t="s" s="122">
+      <c r="A43" t="s" s="123">
         <v>91</v>
       </c>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="125">
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="126">
         <v>67.64</v>
       </c>
-      <c r="J43" t="s" s="122">
+      <c r="J43" t="s" s="123">
         <v>270</v>
       </c>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
     </row>
     <row r="44" ht="55.05" customHeight="1">
-      <c r="A44" t="s" s="122">
+      <c r="A44" t="s" s="123">
         <v>93</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
     </row>
     <row r="45" ht="55.05" customHeight="1">
-      <c r="A45" t="s" s="122">
+      <c r="A45" t="s" s="123">
         <v>95</v>
       </c>
-      <c r="B45" s="126">
+      <c r="B45" s="127">
         <v>34.1</v>
       </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="126">
+      <c r="C45" s="125"/>
+      <c r="D45" s="127">
         <v>25.1</v>
       </c>
-      <c r="E45" t="s" s="122">
+      <c r="E45" t="s" s="123">
         <v>240</v>
       </c>
-      <c r="F45" s="122"/>
-      <c r="G45" s="125">
+      <c r="F45" s="123"/>
+      <c r="G45" s="126">
         <v>64.34</v>
       </c>
-      <c r="H45" s="125">
+      <c r="H45" s="126">
         <v>64.34</v>
       </c>
-      <c r="I45" s="125">
+      <c r="I45" s="126">
         <v>69.27</v>
       </c>
-      <c r="J45" s="125">
+      <c r="J45" s="126">
         <v>69.27</v>
       </c>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
     </row>
     <row r="46" ht="55.05" customHeight="1">
-      <c r="A46" t="s" s="122">
+      <c r="A46" t="s" s="123">
         <v>97</v>
       </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
     </row>
     <row r="47" ht="55.05" customHeight="1">
-      <c r="A47" t="s" s="122">
+      <c r="A47" t="s" s="123">
         <v>99</v>
       </c>
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
     </row>
     <row r="48" ht="55.05" customHeight="1">
-      <c r="A48" t="s" s="122">
+      <c r="A48" t="s" s="123">
         <v>101</v>
       </c>
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="126"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="125"/>
     </row>
     <row r="49" ht="55.05" customHeight="1">
-      <c r="A49" t="s" s="122">
+      <c r="A49" t="s" s="123">
         <v>103</v>
       </c>
-      <c r="B49" s="126">
+      <c r="B49" s="127">
         <v>806.8</v>
       </c>
-      <c r="C49" s="126">
+      <c r="C49" s="127">
         <v>16.6</v>
       </c>
-      <c r="D49" s="124"/>
-      <c r="E49" t="s" s="122">
+      <c r="D49" s="125"/>
+      <c r="E49" t="s" s="123">
         <v>231</v>
       </c>
-      <c r="F49" s="124"/>
-      <c r="G49" s="125">
+      <c r="F49" s="125"/>
+      <c r="G49" s="126">
         <v>130.7</v>
       </c>
-      <c r="H49" t="s" s="122">
+      <c r="H49" t="s" s="123">
         <v>271</v>
       </c>
-      <c r="I49" s="125"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="125"/>
     </row>
     <row r="50" ht="55.05" customHeight="1">
-      <c r="A50" t="s" s="122">
+      <c r="A50" t="s" s="123">
         <v>105</v>
       </c>
-      <c r="B50" s="126">
+      <c r="B50" s="127">
         <v>4.49</v>
       </c>
-      <c r="C50" s="126">
+      <c r="C50" s="127">
         <v>2.16</v>
       </c>
-      <c r="D50" s="126">
+      <c r="D50" s="127">
         <v>2.01</v>
       </c>
-      <c r="E50" t="s" s="122">
+      <c r="E50" t="s" s="123">
         <v>244</v>
       </c>
-      <c r="F50" s="124"/>
-      <c r="G50" s="125">
+      <c r="F50" s="125"/>
+      <c r="G50" s="126">
         <v>98.93000000000001</v>
       </c>
-      <c r="H50" s="126">
+      <c r="H50" s="127">
         <v>98.93000000000001</v>
       </c>
-      <c r="I50" s="125">
+      <c r="I50" s="126">
         <v>20.29</v>
       </c>
-      <c r="J50" s="124"/>
-      <c r="K50" t="s" s="122">
+      <c r="J50" s="125"/>
+      <c r="K50" t="s" s="123">
         <v>272</v>
       </c>
-      <c r="L50" s="128"/>
-      <c r="M50" s="128"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
     </row>
     <row r="51" ht="55.05" customHeight="1">
-      <c r="A51" t="s" s="122">
+      <c r="A51" t="s" s="123">
         <v>107</v>
       </c>
-      <c r="B51" s="126">
+      <c r="B51" s="127">
         <v>4</v>
       </c>
-      <c r="C51" s="126">
+      <c r="C51" s="127">
         <v>3</v>
       </c>
-      <c r="D51" s="124"/>
-      <c r="E51" t="s" s="122">
+      <c r="D51" s="125"/>
+      <c r="E51" t="s" s="123">
         <v>244</v>
       </c>
-      <c r="F51" s="124"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="124"/>
-      <c r="K51" t="s" s="122">
+      <c r="F51" s="125"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="125"/>
+      <c r="K51" t="s" s="123">
         <v>273</v>
       </c>
-      <c r="L51" s="128"/>
-      <c r="M51" s="128"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
     </row>
     <row r="52" ht="55.05" customHeight="1">
-      <c r="A52" t="s" s="122">
+      <c r="A52" t="s" s="123">
         <v>109</v>
       </c>
-      <c r="B52" s="126">
+      <c r="B52" s="127">
         <v>26</v>
       </c>
-      <c r="C52" s="126">
+      <c r="C52" s="127">
         <v>22</v>
       </c>
-      <c r="D52" s="126">
+      <c r="D52" s="127">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="122">
+      <c r="E52" t="s" s="123">
         <v>240</v>
       </c>
-      <c r="F52" s="122"/>
-      <c r="G52" s="125">
+      <c r="F52" s="123"/>
+      <c r="G52" s="126">
         <v>128.41</v>
       </c>
-      <c r="H52" s="126">
+      <c r="H52" s="127">
         <v>128.41</v>
       </c>
-      <c r="I52" s="125">
+      <c r="I52" s="126">
         <v>128.41</v>
       </c>
-      <c r="J52" t="s" s="122">
+      <c r="J52" t="s" s="123">
         <v>274</v>
       </c>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" t="s" s="122">
+      <c r="K52" s="123"/>
+      <c r="L52" s="123"/>
+      <c r="M52" t="s" s="123">
         <v>275</v>
       </c>
     </row>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -32656,7 +32656,9 @@
       <c r="I53" s="57"/>
       <c r="J53" s="57"/>
       <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
+      <c r="L53" t="s" s="55">
+        <v>147</v>
+      </c>
       <c r="M53" s="56"/>
       <c r="N53" s="56"/>
     </row>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -30,7 +30,7 @@
     <sheet name="AdmPercentages 2020" sheetId="23" r:id="rId26"/>
     <sheet name="PopPercentages 2020" sheetId="24" r:id="rId27"/>
     <sheet name="State Notes 2020" sheetId="25" r:id="rId28"/>
-    <sheet name="Survey 2020" sheetId="26" r:id="rId29"/>
+    <sheet name="Survey 2021" sheetId="26" r:id="rId29"/>
   </sheets>
 </workbook>
 </file>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -27699,7 +27699,9 @@
         <v>12</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>State Abbrev</t>
   </si>
@@ -482,6 +482,12 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>There have been updates to parole violator data since the last submission.</t>
+  </si>
+  <si>
+    <t>The changes are due to data updates in the system. The snapshots above are from 12/31/2018, 12/31/2019, and 12/31/2020.</t>
+  </si>
+  <si>
     <t>Reporting Year</t>
   </si>
   <si>
@@ -531,6 +537,9 @@
   </si>
   <si>
     <t>I did not make changes to prior years. Our admissions include people who we detained short term.</t>
+  </si>
+  <si>
+    <t>The updates are due to data entry lag, technical violators clicking over to new commitments, and other data updates in the system.</t>
   </si>
   <si>
     <t>As time passes our historical data always changes a little bit. Total admissions may change due to errors that are corrected in the data system. Lags in data entry can also affect numbers after the fact. And numbers for technical violations vs. new offense violations will always change as people who were initially coded as a technical violator receiving a new sentence at a later date for the behavior that led to the violation.</t>
@@ -838,6 +847,9 @@
     <t>The FY 19/20 per diem data is not available in July when this survey is usually due.; Prison admissions were reduced in 2020 due to Covid 19.</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Months</t>
   </si>
   <si>
@@ -848,9 +860,6 @@
   </si>
   <si>
     <t>This is for FY2020 as this data was not available in the summer (August 2020) of 2020.</t>
-  </si>
-  <si>
-    <t>Years</t>
   </si>
   <si>
     <t>July 2019 - 62.49 state</t>
@@ -932,6 +941,9 @@
     <t>67.64 is the current Cost Per Day</t>
   </si>
   <si>
+    <t>The way cost per day is calculated was changed during our last legislative session. Our Finance Director said that the only thing we have is our cost per day calculation.</t>
+  </si>
+  <si>
     <t>FY 2019 = $115.94 for major institutions; $92.72 minimum institutions. FY 2020 = $130.70 for major institutions and $102.74 for minimum institutions</t>
   </si>
   <si>
@@ -951,13 +963,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.0%"/>
     <numFmt numFmtId="60" formatCode="0.0000"/>
     <numFmt numFmtId="61" formatCode="0.000%"/>
     <numFmt numFmtId="62" formatCode="&quot;$&quot;0.00"/>
     <numFmt numFmtId="63" formatCode="#,##0.0"/>
+    <numFmt numFmtId="64" formatCode="&quot;$&quot;#,##0.00&quot; &quot;;(&quot;$&quot;#,##0.00)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1186,7 +1199,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1511,11 +1524,20 @@
     <xf numFmtId="63" fontId="0" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="64" fontId="0" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="ffff0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -5707,23 +5729,25 @@
         <v>97</v>
       </c>
       <c r="C45" s="6">
-        <v>6439</v>
+        <v>6695</v>
       </c>
       <c r="D45" s="6">
-        <v>3211</v>
+        <v>3331</v>
       </c>
       <c r="E45" s="6">
-        <v>1483</v>
+        <v>1506</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6">
-        <v>1728</v>
+        <v>1825</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="L45" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
@@ -5954,19 +5978,19 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>1074055</v>
+        <v>1074311</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>248128</v>
+        <v>248248</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>132467</v>
+        <v>132490</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F52)+E9+E20+E21+E29+E30+E41+E44+E45+E47</f>
-        <v>90804</v>
+        <v>90827</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
@@ -5974,11 +5998,11 @@
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>117577</v>
+        <v>117674</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I52)+H21+H29+H41+H45+H47</f>
-        <v>80245</v>
+        <v>80342</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
@@ -14222,13 +14246,15 @@
         <v>8245</v>
       </c>
       <c r="I39" s="6">
-        <v>3900</v>
+        <v>3908</v>
       </c>
       <c r="J39" s="6">
-        <v>4345</v>
+        <v>4337</v>
       </c>
       <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="L39" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="6"/>
     </row>
@@ -14404,31 +14430,33 @@
         <v>97</v>
       </c>
       <c r="C45" s="6">
-        <v>4021</v>
+        <v>4057</v>
       </c>
       <c r="D45" s="6">
-        <v>3208</v>
+        <v>3294</v>
       </c>
       <c r="E45" s="6">
-        <v>924</v>
+        <v>984</v>
       </c>
       <c r="F45" s="6">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="G45" s="6">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="H45" s="6">
-        <v>2284</v>
+        <v>2310</v>
       </c>
       <c r="I45" s="6">
-        <v>470</v>
+        <v>598</v>
       </c>
       <c r="J45" s="6">
-        <v>1814</v>
+        <v>1712</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="L45" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="6"/>
     </row>
@@ -14641,35 +14669,35 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>574856</v>
+        <v>574892</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>229236</v>
+        <v>229322</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>112638</v>
+        <v>112698</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E5+E8+E11+E18+E20+E23+E24+E26+E30+E41+E47</f>
-        <v>66927</v>
+        <v>67007</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
-        <v>51998</v>
+        <v>51978</v>
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>116598</v>
+        <v>116624</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H5+H26+H37+H41+H43+H47</f>
-        <v>54815</v>
+        <v>54951</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>67060</v>
+        <v>66950</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -17585,25 +17613,29 @@
         <v>85</v>
       </c>
       <c r="C39" s="6">
-        <v>46482</v>
+        <v>45975</v>
       </c>
       <c r="D39" s="6">
-        <v>7063</v>
+        <v>7226</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
-        <v>7063</v>
+        <v>7226</v>
       </c>
       <c r="I39" s="6">
-        <v>4234</v>
+        <v>4854</v>
       </c>
       <c r="J39" s="6">
-        <v>2829</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+        <v>2372</v>
+      </c>
+      <c r="K39" t="s" s="5">
+        <v>148</v>
+      </c>
+      <c r="L39" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M39" s="7"/>
     </row>
     <row r="40" ht="15" customHeight="1">
@@ -17761,23 +17793,27 @@
         <v>97</v>
       </c>
       <c r="C45" s="36">
-        <v>6686</v>
+        <v>5485</v>
       </c>
       <c r="D45" s="36">
-        <v>3455</v>
+        <v>2661</v>
       </c>
       <c r="E45" s="36">
-        <v>1489</v>
+        <v>997</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
       <c r="H45" s="36">
-        <v>1966</v>
+        <v>1664</v>
       </c>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="K45" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="L45" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M45" s="7"/>
     </row>
     <row r="46" ht="15" customHeight="1">
@@ -18000,19 +18036,19 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>1027381</v>
+        <v>1025673</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>233846</v>
+        <v>233215</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>123584</v>
+        <v>123092</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E9+E20+E21+E29+E30+E41+E44+E45+E47</f>
-        <v>89080</v>
+        <v>88588</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
@@ -18020,15 +18056,15 @@
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>111796</v>
+        <v>111657</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H21+H29+H41+H45+H47</f>
-        <v>78179</v>
+        <v>78497</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>33617</v>
+        <v>33160</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="6"/>
@@ -23021,10 +23057,10 @@
         <v>130</v>
       </c>
       <c r="L1" t="s" s="3">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -23066,7 +23102,7 @@
         <v>2020</v>
       </c>
       <c r="L2" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M2" s="8">
         <v>7</v>
@@ -23111,7 +23147,7 @@
         <v>2020</v>
       </c>
       <c r="L3" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M3" s="8">
         <v>8</v>
@@ -23156,7 +23192,7 @@
         <v>2020</v>
       </c>
       <c r="L4" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M4" s="8">
         <v>6</v>
@@ -23226,7 +23262,7 @@
         <v>2020</v>
       </c>
       <c r="L6" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M6" s="8">
         <v>9</v>
@@ -23271,7 +23307,7 @@
         <v>2020</v>
       </c>
       <c r="L7" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M7" s="8">
         <v>6</v>
@@ -23312,7 +23348,7 @@
         <v>2020</v>
       </c>
       <c r="L8" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M8" s="8">
         <v>6</v>
@@ -23343,7 +23379,7 @@
         <v>2020</v>
       </c>
       <c r="L9" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M9" s="8">
         <v>6</v>
@@ -23388,7 +23424,7 @@
         <v>2020</v>
       </c>
       <c r="L10" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M10" s="8">
         <v>12</v>
@@ -23458,7 +23494,7 @@
         <v>2020</v>
       </c>
       <c r="L12" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" s="8">
         <v>12</v>
@@ -23503,7 +23539,7 @@
         <v>2020</v>
       </c>
       <c r="L13" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M13" s="8">
         <v>12</v>
@@ -23548,7 +23584,7 @@
         <v>2020</v>
       </c>
       <c r="L14" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M14" s="8">
         <v>6</v>
@@ -23587,7 +23623,7 @@
         <v>2020</v>
       </c>
       <c r="L15" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -23630,7 +23666,7 @@
         <v>2020</v>
       </c>
       <c r="L16" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="8">
         <v>7</v>
@@ -23675,7 +23711,7 @@
         <v>2020</v>
       </c>
       <c r="L17" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M17" s="8">
         <v>12</v>
@@ -23716,7 +23752,7 @@
         <v>2020</v>
       </c>
       <c r="L18" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M18" s="8">
         <v>6</v>
@@ -23745,7 +23781,7 @@
         <v>2020</v>
       </c>
       <c r="L19" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -23784,7 +23820,7 @@
         <v>2020</v>
       </c>
       <c r="L20" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M20" s="8">
         <v>7</v>
@@ -23829,7 +23865,7 @@
         <v>2020</v>
       </c>
       <c r="L21" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M21" s="8">
         <v>12</v>
@@ -23871,7 +23907,7 @@
         <v>2020</v>
       </c>
       <c r="L22" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M22" s="8">
         <v>6</v>
@@ -23912,7 +23948,7 @@
         <v>2020</v>
       </c>
       <c r="L23" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M23" s="8">
         <v>6</v>
@@ -23953,7 +23989,7 @@
         <v>2020</v>
       </c>
       <c r="L24" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M24" s="8">
         <v>12</v>
@@ -23998,7 +24034,7 @@
         <v>2020</v>
       </c>
       <c r="L25" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M25" s="8">
         <v>6</v>
@@ -24068,7 +24104,7 @@
         <v>2020</v>
       </c>
       <c r="L27" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M27" s="8">
         <v>12</v>
@@ -24113,7 +24149,7 @@
         <v>2020</v>
       </c>
       <c r="L28" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M28" s="8">
         <v>6</v>
@@ -24158,7 +24194,7 @@
         <v>2020</v>
       </c>
       <c r="L29" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M29" s="8">
         <v>6</v>
@@ -24226,7 +24262,7 @@
         <v>2020</v>
       </c>
       <c r="L31" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M31" s="8">
         <v>6</v>
@@ -24255,7 +24291,7 @@
         <v>2020</v>
       </c>
       <c r="L32" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M32" s="8">
         <v>0</v>
@@ -24325,7 +24361,7 @@
         <v>2020</v>
       </c>
       <c r="L34" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M34" s="8">
         <v>6</v>
@@ -24364,7 +24400,7 @@
         <v>2020</v>
       </c>
       <c r="L35" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M35" s="8">
         <v>6</v>
@@ -24430,7 +24466,7 @@
         <v>2020</v>
       </c>
       <c r="L37" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M37" s="8">
         <v>6</v>
@@ -24475,7 +24511,7 @@
         <v>2020</v>
       </c>
       <c r="L38" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M38" s="8">
         <v>8</v>
@@ -24514,7 +24550,7 @@
         <v>2020</v>
       </c>
       <c r="L39" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M39" s="8">
         <v>8</v>
@@ -24559,7 +24595,7 @@
         <v>2020</v>
       </c>
       <c r="L40" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M40" s="8">
         <v>8</v>
@@ -24596,7 +24632,7 @@
         <v>2020</v>
       </c>
       <c r="L41" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M41" s="8">
         <v>6</v>
@@ -24625,7 +24661,7 @@
         <v>2020</v>
       </c>
       <c r="L42" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -24654,7 +24690,7 @@
         <v>2020</v>
       </c>
       <c r="L43" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M43" s="8">
         <v>6</v>
@@ -24683,7 +24719,7 @@
         <v>2020</v>
       </c>
       <c r="L44" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -24726,7 +24762,7 @@
         <v>2020</v>
       </c>
       <c r="L45" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M45" s="8">
         <v>6</v>
@@ -24755,7 +24791,7 @@
         <v>2020</v>
       </c>
       <c r="L46" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -24792,7 +24828,7 @@
         <v>2020</v>
       </c>
       <c r="L47" t="s" s="44">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M47" s="45">
         <v>12</v>
@@ -24831,7 +24867,7 @@
         <v>2020</v>
       </c>
       <c r="L48" t="s" s="48">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M48" s="82">
         <v>8</v>
@@ -24876,7 +24912,7 @@
         <v>2020</v>
       </c>
       <c r="L49" t="s" s="50">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M49" s="51">
         <v>3</v>
@@ -24921,7 +24957,7 @@
         <v>2020</v>
       </c>
       <c r="L50" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M50" s="8">
         <v>10</v>
@@ -24966,7 +25002,7 @@
         <v>2020</v>
       </c>
       <c r="L51" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M51" s="8">
         <v>12</v>
@@ -26985,10 +27021,10 @@
         <v>130</v>
       </c>
       <c r="L1" t="s" s="3">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N1" t="s" s="5">
         <v>145</v>
@@ -27034,7 +27070,7 @@
         <v>2020</v>
       </c>
       <c r="L2" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M2" s="8">
         <v>12</v>
@@ -27081,7 +27117,7 @@
         <v>2020</v>
       </c>
       <c r="L3" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M3" s="8">
         <v>12</v>
@@ -27128,13 +27164,13 @@
         <v>2020</v>
       </c>
       <c r="L4" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M4" s="8">
         <v>12</v>
       </c>
       <c r="N4" t="s" s="5">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O4" t="s" s="5">
         <v>147</v>
@@ -27177,13 +27213,13 @@
         <v>2020</v>
       </c>
       <c r="L5" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M5" s="8">
         <v>12</v>
       </c>
       <c r="N5" t="s" s="5">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O5" t="s" s="5">
         <v>147</v>
@@ -27226,7 +27262,7 @@
         <v>2020</v>
       </c>
       <c r="L6" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M6" s="8">
         <v>12</v>
@@ -27273,13 +27309,13 @@
         <v>2020</v>
       </c>
       <c r="L7" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M7" s="8">
         <v>12</v>
       </c>
       <c r="N7" t="s" s="5">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O7" t="s" s="5">
         <v>147</v>
@@ -27318,7 +27354,7 @@
         <v>2020</v>
       </c>
       <c r="L8" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M8" s="8">
         <v>12</v>
@@ -27351,7 +27387,7 @@
         <v>2020</v>
       </c>
       <c r="L9" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M9" s="8">
         <v>12</v>
@@ -27398,7 +27434,7 @@
         <v>2020</v>
       </c>
       <c r="L10" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M10" s="8">
         <v>12</v>
@@ -27417,21 +27453,39 @@
       <c r="B11" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="6">
+        <v>10290</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4087</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2207</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="H11" s="6">
+        <v>1880</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1233</v>
+      </c>
+      <c r="J11" s="6">
+        <v>669</v>
+      </c>
       <c r="K11" s="79">
         <v>2020</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="L11" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="M11" s="8">
+        <v>12</v>
+      </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
@@ -27470,7 +27524,7 @@
         <v>2020</v>
       </c>
       <c r="L12" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" s="8">
         <v>12</v>
@@ -27515,7 +27569,7 @@
         <v>2020</v>
       </c>
       <c r="L13" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M13" s="8">
         <v>12</v>
@@ -27560,7 +27614,7 @@
         <v>2020</v>
       </c>
       <c r="L14" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M14" s="8">
         <v>12</v>
@@ -27601,7 +27655,7 @@
         <v>2020</v>
       </c>
       <c r="L15" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M15" s="8">
         <v>12</v>
@@ -27648,7 +27702,7 @@
         <v>2020</v>
       </c>
       <c r="L16" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="8">
         <v>7</v>
@@ -27693,7 +27747,7 @@
         <v>2020</v>
       </c>
       <c r="L17" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M17" s="8">
         <v>12</v>
@@ -27736,7 +27790,7 @@
         <v>2020</v>
       </c>
       <c r="L18" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M18" s="8">
         <v>6</v>
@@ -27781,7 +27835,7 @@
         <v>2020</v>
       </c>
       <c r="L19" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M19" s="8">
         <v>12</v>
@@ -27824,7 +27878,7 @@
         <v>2020</v>
       </c>
       <c r="L20" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M20" s="8">
         <v>7</v>
@@ -27869,13 +27923,13 @@
         <v>2020</v>
       </c>
       <c r="L21" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M21" s="8">
         <v>12</v>
       </c>
       <c r="N21" t="s" s="5">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s" s="5">
         <v>147</v>
@@ -27912,13 +27966,13 @@
         <v>2020</v>
       </c>
       <c r="L22" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M22" s="8">
         <v>12</v>
       </c>
       <c r="N22" t="s" s="5">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O22" t="s" s="5">
         <v>147</v>
@@ -27957,7 +28011,7 @@
         <v>2020</v>
       </c>
       <c r="L23" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M23" s="8">
         <v>6</v>
@@ -27998,7 +28052,7 @@
         <v>2020</v>
       </c>
       <c r="L24" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M24" s="8">
         <v>12</v>
@@ -28043,7 +28097,7 @@
         <v>2020</v>
       </c>
       <c r="L25" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M25" s="8">
         <v>12</v>
@@ -28090,13 +28144,13 @@
         <v>2020</v>
       </c>
       <c r="L26" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M26" s="8">
         <v>12</v>
       </c>
       <c r="N26" t="s" s="5">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O26" t="s" s="5">
         <v>147</v>
@@ -28139,13 +28193,13 @@
         <v>2020</v>
       </c>
       <c r="L27" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M27" s="8">
         <v>12</v>
       </c>
       <c r="N27" t="s" s="5">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s" s="5">
         <v>147</v>
@@ -28188,7 +28242,7 @@
         <v>2020</v>
       </c>
       <c r="L28" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M28" s="8">
         <v>12</v>
@@ -28235,7 +28289,7 @@
         <v>2020</v>
       </c>
       <c r="L29" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M29" s="8">
         <v>12</v>
@@ -28305,7 +28359,7 @@
         <v>2020</v>
       </c>
       <c r="L31" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M31" s="8">
         <v>12</v>
@@ -28346,13 +28400,13 @@
         <v>2020</v>
       </c>
       <c r="L32" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M32" s="8">
         <v>12</v>
       </c>
       <c r="N32" t="s" s="5">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O32" t="s" s="5">
         <v>147</v>
@@ -28420,13 +28474,13 @@
         <v>2020</v>
       </c>
       <c r="L34" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M34" s="8">
         <v>12</v>
       </c>
       <c r="N34" t="s" s="5">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O34" t="s" s="5">
         <v>147</v>
@@ -28463,7 +28517,7 @@
         <v>2020</v>
       </c>
       <c r="L35" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M35" s="8">
         <v>6</v>
@@ -28529,7 +28583,7 @@
         <v>2020</v>
       </c>
       <c r="L37" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M37" s="8">
         <v>12</v>
@@ -28576,13 +28630,13 @@
         <v>2020</v>
       </c>
       <c r="L38" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M38" s="8">
         <v>12</v>
       </c>
       <c r="N38" t="s" s="5">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O38" t="s" s="5">
         <v>147</v>
@@ -28598,34 +28652,38 @@
         <v>85</v>
       </c>
       <c r="C39" s="6">
-        <v>6896</v>
+        <v>10224</v>
       </c>
       <c r="D39" s="6">
-        <v>3266</v>
+        <v>5070</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
-        <v>3266</v>
+        <v>5070</v>
       </c>
       <c r="I39" s="6">
-        <v>1734</v>
+        <v>2292</v>
       </c>
       <c r="J39" s="6">
-        <v>1532</v>
+        <v>2778</v>
       </c>
       <c r="K39" s="79">
         <v>2020</v>
       </c>
       <c r="L39" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M39" s="8">
-        <v>8</v>
-      </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N39" t="s" s="5">
+        <v>148</v>
+      </c>
+      <c r="O39" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
     </row>
@@ -28664,13 +28722,13 @@
         <v>2020</v>
       </c>
       <c r="L40" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M40" s="8">
         <v>12</v>
       </c>
       <c r="N40" t="s" s="5">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O40" t="s" s="5">
         <v>147</v>
@@ -28705,13 +28763,13 @@
         <v>2020</v>
       </c>
       <c r="L41" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M41" s="8">
         <v>12</v>
       </c>
       <c r="N41" t="s" s="5">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O41" t="s" s="5">
         <v>147</v>
@@ -28754,13 +28812,13 @@
         <v>2020</v>
       </c>
       <c r="L42" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M42" s="8">
         <v>12</v>
       </c>
       <c r="N42" t="s" s="5">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O42" t="s" s="5">
         <v>147</v>
@@ -28789,7 +28847,7 @@
         <v>2020</v>
       </c>
       <c r="L43" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M43" s="8">
         <v>6</v>
@@ -28834,7 +28892,7 @@
         <v>2020</v>
       </c>
       <c r="L44" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M44" s="8">
         <v>12</v>
@@ -28854,40 +28912,44 @@
         <v>97</v>
       </c>
       <c r="C45" s="6">
-        <v>1345</v>
+        <v>2945</v>
       </c>
       <c r="D45" s="6">
-        <v>1102</v>
+        <v>2486</v>
       </c>
       <c r="E45" s="6">
-        <v>275</v>
+        <v>540</v>
       </c>
       <c r="F45" s="6">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="G45" s="6">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="H45" s="6">
-        <v>827</v>
+        <v>1946</v>
       </c>
       <c r="I45" s="6">
-        <v>127</v>
+        <v>471</v>
       </c>
       <c r="J45" s="6">
-        <v>700</v>
+        <v>1475</v>
       </c>
       <c r="K45" s="79">
         <v>2020</v>
       </c>
       <c r="L45" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M45" s="8">
-        <v>6</v>
-      </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N45" t="s" s="5">
+        <v>167</v>
+      </c>
+      <c r="O45" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
@@ -28910,7 +28972,7 @@
         <v>2020</v>
       </c>
       <c r="L46" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -28947,7 +29009,7 @@
         <v>2020</v>
       </c>
       <c r="L47" t="s" s="44">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M47" s="45">
         <v>12</v>
@@ -28988,7 +29050,7 @@
         <v>2020</v>
       </c>
       <c r="L48" t="s" s="56">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M48" s="87">
         <v>12</v>
@@ -29035,13 +29097,13 @@
         <v>2020</v>
       </c>
       <c r="L49" t="s" s="50">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M49" s="51">
         <v>12</v>
       </c>
       <c r="N49" t="s" s="5">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O49" t="s" s="5">
         <v>147</v>
@@ -29084,13 +29146,13 @@
         <v>2020</v>
       </c>
       <c r="L50" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M50" s="8">
         <v>12</v>
       </c>
       <c r="N50" t="s" s="5">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O50" t="s" s="5">
         <v>147</v>
@@ -29133,7 +29195,7 @@
         <v>2020</v>
       </c>
       <c r="L51" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M51" s="8">
         <v>12</v>
@@ -29171,35 +29233,35 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>344220</v>
+        <v>359438</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>133380</v>
+        <v>140655</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>67431</v>
+        <v>69903</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E8+E18+E20+E23+E24+E41+E47</f>
-        <v>35149</v>
+        <v>35337</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
-        <v>32280</v>
+        <v>32357</v>
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>65950</v>
+        <v>70753</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H37+H41+H47</f>
-        <v>26669</v>
+        <v>28804</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>39246</v>
+        <v>41936</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="7"/>
@@ -29235,15 +29297,15 @@
       </c>
       <c r="C55" s="8">
         <f>COUNTIF(C2:C51,"&gt;0")</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55" s="8">
         <f>COUNTIF(D2:D51,"&gt;0")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E55" s="8">
         <f>COUNTIF(E2:E51,"&gt;0")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" s="8">
         <f>COUNTIF(F2:F51,"&gt;0")</f>
@@ -29255,15 +29317,15 @@
       </c>
       <c r="H55" s="8">
         <f>COUNTIF(H2:H51,"&gt;0")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I55" s="8">
         <f>COUNTIF(I2:I51,"&gt;0")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J55" s="8">
         <f>COUNTIF(J2:J51,"&gt;0")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -30930,7 +30992,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -31136,7 +31198,7 @@
         <v>909</v>
       </c>
       <c r="K5" t="s" s="5">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L5" t="s" s="5">
         <v>147</v>
@@ -31322,7 +31384,7 @@
         <v>362</v>
       </c>
       <c r="K11" t="s" s="5">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L11" t="s" s="5">
         <v>147</v>
@@ -31330,57 +31392,55 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" ht="15" customHeight="1" hidden="1">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="5">
         <v>28</v>
       </c>
       <c r="B12" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="6">
+        <v>47709</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9295</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4941</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="H12" s="6">
+        <v>4354</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2787</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1567</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" hidden="1">
       <c r="A13" t="s" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3485</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1120</v>
-      </c>
-      <c r="E13" s="6">
-        <v>370</v>
-      </c>
-      <c r="F13" s="6">
-        <v>276</v>
-      </c>
-      <c r="G13" s="6">
-        <v>94</v>
-      </c>
-      <c r="H13" s="6">
-        <v>750</v>
-      </c>
-      <c r="I13" s="6">
-        <v>612</v>
-      </c>
-      <c r="J13" s="6">
-        <v>138</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -31388,34 +31448,34 @@
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6">
-        <v>7528</v>
+        <v>3485</v>
       </c>
       <c r="D14" s="6">
-        <v>2387</v>
+        <v>1120</v>
       </c>
       <c r="E14" s="6">
-        <v>1468</v>
+        <v>370</v>
       </c>
       <c r="F14" s="6">
-        <v>797</v>
+        <v>276</v>
       </c>
       <c r="G14" s="6">
-        <v>671</v>
+        <v>94</v>
       </c>
       <c r="H14" s="6">
-        <v>919</v>
+        <v>750</v>
       </c>
       <c r="I14" s="6">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="J14" s="6">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -31424,66 +31484,70 @@
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
-        <v>8025</v>
+        <v>7528</v>
       </c>
       <c r="D15" s="6">
-        <v>3924</v>
+        <v>2387</v>
       </c>
       <c r="E15" s="6">
-        <v>2730</v>
+        <v>1468</v>
       </c>
       <c r="F15" s="6">
-        <v>2181</v>
+        <v>797</v>
       </c>
       <c r="G15" s="6">
-        <v>549</v>
+        <v>671</v>
       </c>
       <c r="H15" s="6">
-        <v>1194</v>
+        <v>919</v>
       </c>
       <c r="I15" s="6">
-        <v>1023</v>
+        <v>635</v>
       </c>
       <c r="J15" s="6">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" t="s" s="5">
-        <v>147</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6">
-        <v>29224</v>
+        <v>8025</v>
       </c>
       <c r="D16" s="6">
-        <v>4033</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+        <v>3924</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2730</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2181</v>
+      </c>
+      <c r="G16" s="6">
+        <v>549</v>
+      </c>
       <c r="H16" s="6">
-        <v>4033</v>
+        <v>1194</v>
       </c>
       <c r="I16" s="6">
-        <v>1536</v>
+        <v>1023</v>
       </c>
       <c r="J16" s="6">
-        <v>2497</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" t="s" s="5">
@@ -31494,108 +31558,102 @@
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6">
-        <v>25385</v>
+        <v>29224</v>
       </c>
       <c r="D17" s="6">
-        <v>2821</v>
-      </c>
-      <c r="E17" s="6">
-        <v>736</v>
-      </c>
-      <c r="F17" s="6">
-        <v>689</v>
-      </c>
-      <c r="G17" s="6">
-        <v>47</v>
-      </c>
+        <v>4033</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6">
-        <v>2085</v>
+        <v>4033</v>
       </c>
       <c r="I17" s="6">
-        <v>988</v>
+        <v>1536</v>
       </c>
       <c r="J17" s="6">
-        <v>1097</v>
+        <v>2497</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="L17" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6">
-        <v>8869</v>
+        <v>25385</v>
       </c>
       <c r="D18" s="6">
-        <v>2590</v>
+        <v>2821</v>
       </c>
       <c r="E18" s="6">
-        <v>1807</v>
+        <v>736</v>
       </c>
       <c r="F18" s="6">
-        <v>790</v>
+        <v>689</v>
       </c>
       <c r="G18" s="6">
-        <v>1001</v>
+        <v>47</v>
       </c>
       <c r="H18" s="6">
-        <v>783</v>
+        <v>2085</v>
       </c>
       <c r="I18" s="6">
-        <v>548</v>
+        <v>988</v>
       </c>
       <c r="J18" s="6">
-        <v>235</v>
+        <v>1097</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" t="s" s="5">
-        <v>147</v>
-      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="5">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6">
-        <v>27010</v>
+        <v>8869</v>
       </c>
       <c r="D19" s="6">
-        <v>7754</v>
+        <v>2590</v>
       </c>
       <c r="E19" s="6">
-        <v>2691</v>
+        <v>1807</v>
       </c>
       <c r="F19" s="6">
-        <v>844</v>
+        <v>790</v>
       </c>
       <c r="G19" s="6">
-        <v>1847</v>
+        <v>1001</v>
       </c>
       <c r="H19" s="6">
-        <v>5063</v>
+        <v>783</v>
       </c>
       <c r="I19" s="6">
-        <v>4284</v>
+        <v>548</v>
       </c>
       <c r="J19" s="6">
-        <v>779</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" t="s" s="5">
@@ -31604,32 +31662,50 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" ht="15" customHeight="1" hidden="1">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6">
+        <v>27010</v>
+      </c>
+      <c r="D20" s="6">
+        <v>7754</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2691</v>
+      </c>
+      <c r="F20" s="6">
+        <v>844</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1847</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5063</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4284</v>
+      </c>
+      <c r="J20" s="6">
+        <v>779</v>
+      </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="L20" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" ht="15" customHeight="1" hidden="1">
       <c r="A21" t="s" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -31644,33 +31720,21 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" hidden="1">
       <c r="A22" t="s" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6">
-        <v>6791</v>
-      </c>
-      <c r="D22" s="6">
-        <v>160</v>
-      </c>
-      <c r="E22" s="6">
-        <v>9</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6">
-        <v>151</v>
-      </c>
-      <c r="I22" s="6">
-        <v>73</v>
-      </c>
-      <c r="J22" s="6">
-        <v>78</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -31678,54 +31742,62 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="6">
-        <v>18607</v>
+        <v>6791</v>
       </c>
       <c r="D23" s="6">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="E23" s="6">
-        <v>820</v>
+        <v>9</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>710</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" t="s" s="5">
-        <v>155</v>
-      </c>
-      <c r="L23" t="s" s="5">
-        <v>147</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I23" s="6">
+        <v>73</v>
+      </c>
+      <c r="J23" s="6">
+        <v>78</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6">
-        <v>1715</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+        <v>18607</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1530</v>
+      </c>
+      <c r="E24" s="6">
+        <v>820</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>710</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
+      <c r="K24" t="s" s="5">
+        <v>157</v>
+      </c>
       <c r="L24" t="s" s="5">
         <v>147</v>
       </c>
@@ -31734,60 +31806,50 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6">
-        <v>35425</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1226</v>
-      </c>
+        <v>1715</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6">
-        <v>1226</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
-        <v>1226</v>
-      </c>
+      <c r="J25" s="6"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="L25" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6">
-        <v>8330</v>
+        <v>35425</v>
       </c>
       <c r="D26" s="6">
-        <v>2166</v>
-      </c>
-      <c r="E26" s="6">
-        <v>973</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6">
-        <v>973</v>
-      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6">
-        <v>1193</v>
-      </c>
-      <c r="I26" s="6">
-        <v>533</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="I26" s="6"/>
       <c r="J26" s="6">
-        <v>660</v>
+        <v>1226</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -31796,72 +31858,68 @@
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6">
-        <v>17586</v>
+        <v>8330</v>
       </c>
       <c r="D27" s="6">
-        <v>5127</v>
+        <v>2166</v>
       </c>
       <c r="E27" s="6">
-        <v>3357</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1518</v>
-      </c>
+        <v>973</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="6">
-        <v>1839</v>
+        <v>973</v>
       </c>
       <c r="H27" s="6">
-        <v>1770</v>
+        <v>1193</v>
       </c>
       <c r="I27" s="6">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J27" s="6">
-        <v>1238</v>
+        <v>660</v>
       </c>
       <c r="K27" s="7"/>
-      <c r="L27" t="s" s="5">
-        <v>147</v>
-      </c>
+      <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="s" s="5">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6">
-        <v>23062</v>
+        <v>17586</v>
       </c>
       <c r="D28" s="6">
-        <v>11904</v>
+        <v>5127</v>
       </c>
       <c r="E28" s="6">
-        <v>7469</v>
+        <v>3357</v>
       </c>
       <c r="F28" s="6">
-        <v>4850</v>
+        <v>1518</v>
       </c>
       <c r="G28" s="6">
-        <v>2619</v>
+        <v>1839</v>
       </c>
       <c r="H28" s="6">
-        <v>4435</v>
+        <v>1770</v>
       </c>
       <c r="I28" s="6">
-        <v>2097</v>
+        <v>532</v>
       </c>
       <c r="J28" s="6">
-        <v>2338</v>
+        <v>1238</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" t="s" s="5">
@@ -31870,98 +31928,98 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" ht="15" customHeight="1" hidden="1">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C29" s="6">
+        <v>23062</v>
+      </c>
+      <c r="D29" s="6">
+        <v>11904</v>
+      </c>
+      <c r="E29" s="6">
+        <v>7469</v>
+      </c>
+      <c r="F29" s="6">
+        <v>4850</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2619</v>
+      </c>
+      <c r="H29" s="6">
+        <v>4435</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2097</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2338</v>
+      </c>
       <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="L29" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" hidden="1">
       <c r="A30" t="s" s="5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2401</v>
-      </c>
-      <c r="D30" s="6">
-        <v>706</v>
-      </c>
-      <c r="E30" s="6">
-        <v>457</v>
-      </c>
-      <c r="F30" s="6">
-        <v>159</v>
-      </c>
-      <c r="G30" s="6">
-        <v>298</v>
-      </c>
-      <c r="H30" s="6">
-        <v>249</v>
-      </c>
-      <c r="I30" s="6">
-        <v>37</v>
-      </c>
-      <c r="J30" s="6">
-        <v>212</v>
-      </c>
-      <c r="K30" t="s" s="5">
-        <v>169</v>
-      </c>
-      <c r="L30" t="s" s="5">
-        <v>147</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6">
-        <v>23969</v>
+        <v>2401</v>
       </c>
       <c r="D31" s="6">
-        <v>6974</v>
+        <v>706</v>
       </c>
       <c r="E31" s="6">
-        <v>3971</v>
+        <v>457</v>
       </c>
       <c r="F31" s="6">
-        <v>3771</v>
+        <v>159</v>
       </c>
       <c r="G31" s="6">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="H31" s="6">
-        <v>3003</v>
+        <v>249</v>
       </c>
       <c r="I31" s="6">
-        <v>3000</v>
+        <v>37</v>
       </c>
       <c r="J31" s="6">
-        <v>3</v>
-      </c>
-      <c r="K31" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="K31" t="s" s="5">
+        <v>172</v>
+      </c>
       <c r="L31" t="s" s="5">
         <v>147</v>
       </c>
@@ -31970,27 +32028,35 @@
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="6">
-        <v>1401</v>
+        <v>23969</v>
       </c>
       <c r="D32" s="6">
-        <v>397</v>
+        <v>6974</v>
       </c>
       <c r="E32" s="6">
-        <v>267</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+        <v>3971</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3771</v>
+      </c>
+      <c r="G32" s="6">
+        <v>200</v>
+      </c>
       <c r="H32" s="6">
-        <v>130</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+        <v>3003</v>
+      </c>
+      <c r="I32" s="6">
+        <v>3000</v>
+      </c>
+      <c r="J32" s="6">
+        <v>3</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" t="s" s="5">
         <v>147</v>
@@ -32000,86 +32066,96 @@
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="6">
-        <v>5388</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+        <v>1401</v>
+      </c>
+      <c r="D33" s="6">
+        <v>397</v>
+      </c>
+      <c r="E33" s="6">
+        <v>267</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6">
+        <v>130</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="L33" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2155</v>
-      </c>
-      <c r="D34" s="6">
-        <v>43</v>
-      </c>
-      <c r="E34" s="6">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C34" s="6">
+        <v>5388</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6">
-        <v>2</v>
-      </c>
-      <c r="H34" s="6">
-        <v>41</v>
-      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6">
-        <v>41</v>
-      </c>
+      <c r="J34" s="6"/>
       <c r="K34" s="7"/>
-      <c r="L34" t="s" s="5">
-        <v>147</v>
-      </c>
+      <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" ht="15" customHeight="1" hidden="1">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2155</v>
+      </c>
+      <c r="D35" s="6">
+        <v>43</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="G35" s="6">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6">
+        <v>41</v>
+      </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="6">
+        <v>41</v>
+      </c>
       <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="L35" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" ht="15" customHeight="1" hidden="1">
       <c r="A36" t="s" s="5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -32094,62 +32170,60 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" ht="15" customHeight="1" hidden="1">
       <c r="A37" t="s" s="5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="C37" s="6">
-        <v>11422</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2333</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1499</v>
-      </c>
-      <c r="F37" s="6">
-        <v>216</v>
-      </c>
-      <c r="G37" s="6">
-        <v>1283</v>
-      </c>
-      <c r="H37" s="6">
-        <v>834</v>
-      </c>
-      <c r="I37" s="6">
-        <v>97</v>
-      </c>
-      <c r="J37" s="6">
-        <v>737</v>
-      </c>
-      <c r="K37" t="s" s="5">
-        <v>160</v>
-      </c>
-      <c r="L37" t="s" s="5">
-        <v>147</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="5">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="C38" s="6">
+        <v>11422</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2333</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1499</v>
+      </c>
+      <c r="F38" s="6">
+        <v>216</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1283</v>
+      </c>
+      <c r="H38" s="6">
+        <v>834</v>
+      </c>
+      <c r="I38" s="6">
+        <v>97</v>
+      </c>
+      <c r="J38" s="6">
+        <v>737</v>
+      </c>
+      <c r="K38" t="s" s="5">
+        <v>162</v>
+      </c>
       <c r="L38" t="s" s="5">
         <v>147</v>
       </c>
@@ -32158,121 +32232,103 @@
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="5">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="C39" s="6">
-        <v>38380</v>
-      </c>
-      <c r="D39" s="6">
-        <v>7341</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6">
-        <v>7341</v>
-      </c>
-      <c r="I39" s="6">
-        <v>5139</v>
-      </c>
-      <c r="J39" s="6">
-        <v>2202</v>
-      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="L39" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" ht="15" customHeight="1" hidden="1">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" t="s" s="5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C40" s="6">
+        <v>38380</v>
+      </c>
+      <c r="D40" s="6">
+        <v>7341</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="H40" s="6">
+        <v>7341</v>
+      </c>
+      <c r="I40" s="6">
+        <v>5139</v>
+      </c>
+      <c r="J40" s="6">
+        <v>2202</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" ht="15" customHeight="1" hidden="1">
       <c r="A41" t="s" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="C41" s="6">
-        <v>21737</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1993</v>
-      </c>
-      <c r="E41" s="6">
-        <v>3076</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1935</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1141</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" t="s" s="5">
-        <v>170</v>
-      </c>
-      <c r="L41" t="s" s="5">
-        <v>147</v>
-      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="s" s="5">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="6">
-        <v>13102</v>
+        <v>21737</v>
       </c>
       <c r="D42" s="6">
-        <v>1389</v>
+        <v>1993</v>
       </c>
       <c r="E42" s="6">
-        <v>1352</v>
+        <v>3076</v>
       </c>
       <c r="F42" s="6">
-        <v>765</v>
+        <v>1935</v>
       </c>
       <c r="G42" s="6">
-        <v>587</v>
-      </c>
-      <c r="H42" s="6">
-        <v>37</v>
-      </c>
-      <c r="I42" s="6">
-        <v>8</v>
-      </c>
-      <c r="J42" s="6">
-        <v>29</v>
-      </c>
+        <v>1141</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
       <c r="K42" t="s" s="5">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="5">
         <v>147</v>
@@ -32282,67 +32338,71 @@
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="s" s="5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="6">
-        <v>42101</v>
+        <v>13102</v>
       </c>
       <c r="D43" s="6">
-        <v>5941</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+        <v>1389</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1352</v>
+      </c>
+      <c r="F43" s="6">
+        <v>765</v>
+      </c>
+      <c r="G43" s="6">
+        <v>587</v>
+      </c>
       <c r="H43" s="6">
-        <v>5941</v>
+        <v>37</v>
       </c>
       <c r="I43" s="6">
-        <v>3656</v>
+        <v>8</v>
       </c>
       <c r="J43" s="6">
-        <v>2285</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="K43" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="L43" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" ht="16.6" customHeight="1">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" t="s" s="5">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" s="6">
-        <v>1491</v>
+        <v>39493</v>
       </c>
       <c r="D44" s="6">
-        <v>350</v>
-      </c>
-      <c r="E44" s="6">
-        <v>277</v>
-      </c>
-      <c r="F44" s="6">
-        <v>237</v>
-      </c>
-      <c r="G44" s="6">
-        <v>37</v>
-      </c>
+        <v>5739</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="6">
-        <v>73</v>
+        <v>5739</v>
       </c>
       <c r="I44" s="6">
-        <v>33</v>
+        <v>3468</v>
       </c>
       <c r="J44" s="6">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s" s="90">
-        <v>172</v>
+        <v>2271</v>
+      </c>
+      <c r="K44" t="s" s="5">
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="5">
         <v>147</v>
@@ -32350,31 +32410,39 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" ht="16.6" customHeight="1">
       <c r="A45" t="s" s="5">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" s="6">
-        <v>15726</v>
+        <v>1491</v>
       </c>
       <c r="D45" s="6">
-        <v>2417</v>
+        <v>350</v>
       </c>
       <c r="E45" s="6">
-        <v>1249</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="F45" s="6">
+        <v>237</v>
+      </c>
+      <c r="G45" s="6">
+        <v>37</v>
+      </c>
       <c r="H45" s="6">
-        <v>1168</v>
-      </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" t="s" s="5">
-        <v>173</v>
+        <v>73</v>
+      </c>
+      <c r="I45" s="6">
+        <v>33</v>
+      </c>
+      <c r="J45" s="6">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s" s="90">
+        <v>175</v>
       </c>
       <c r="L45" t="s" s="5">
         <v>147</v>
@@ -32384,37 +32452,29 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="s" s="5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="6">
-        <v>3249</v>
+        <v>15726</v>
       </c>
       <c r="D46" s="6">
-        <v>1410</v>
+        <v>2417</v>
       </c>
       <c r="E46" s="6">
-        <v>535</v>
-      </c>
-      <c r="F46" s="6">
-        <v>150</v>
-      </c>
-      <c r="G46" s="6">
-        <v>385</v>
-      </c>
+        <v>1249</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="6">
-        <v>875</v>
-      </c>
-      <c r="I46" s="6">
-        <v>170</v>
-      </c>
-      <c r="J46" s="6">
-        <v>705</v>
-      </c>
+        <v>1168</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
       <c r="K46" t="s" s="5">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="5">
         <v>147</v>
@@ -32422,36 +32482,54 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" ht="15" customHeight="1" hidden="1">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" t="s" s="5">
         <v>90</v>
       </c>
       <c r="B47" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="C47" s="6">
+        <v>3249</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1410</v>
+      </c>
+      <c r="E47" s="6">
+        <v>535</v>
+      </c>
+      <c r="F47" s="6">
+        <v>150</v>
+      </c>
+      <c r="G47" s="6">
+        <v>385</v>
+      </c>
+      <c r="H47" s="6">
+        <v>875</v>
+      </c>
+      <c r="I47" s="6">
+        <v>170</v>
+      </c>
+      <c r="J47" s="6">
+        <v>705</v>
+      </c>
+      <c r="K47" t="s" s="5">
+        <v>177</v>
+      </c>
+      <c r="L47" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" ht="15" customHeight="1" hidden="1">
       <c r="A48" t="s" s="5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="C48" s="6">
-        <v>21382</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -32466,79 +32544,73 @@
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="s" s="5">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="6">
-        <v>121119</v>
-      </c>
-      <c r="D49" s="6">
-        <v>25822</v>
-      </c>
-      <c r="E49" s="6">
-        <v>19350</v>
-      </c>
+        <v>21382</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6">
-        <v>6472</v>
-      </c>
-      <c r="I49" s="6">
-        <v>4878</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1594</v>
-      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
       <c r="K49" s="7"/>
-      <c r="L49" t="s" s="5">
-        <v>147</v>
-      </c>
+      <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" ht="15" customHeight="1" hidden="1">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="5">
         <v>94</v>
       </c>
       <c r="B50" t="s" s="5">
         <v>95</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="6">
+        <v>121119</v>
+      </c>
+      <c r="D50" s="6">
+        <v>25822</v>
+      </c>
+      <c r="E50" s="6">
+        <v>19350</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="H50" s="6">
+        <v>6472</v>
+      </c>
+      <c r="I50" s="6">
+        <v>4878</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1594</v>
+      </c>
       <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
+      <c r="L50" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" ht="15" customHeight="1" hidden="1">
       <c r="A51" t="s" s="5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>97</v>
-      </c>
-      <c r="C51" s="6">
-        <v>5579</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2652</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1152</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6">
-        <v>1500</v>
-      </c>
+      <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="7"/>
@@ -32546,19 +32618,27 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" ht="15" customHeight="1" hidden="1">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C52" s="6">
+        <v>5579</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2652</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1152</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6">
+        <v>1500</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
@@ -32566,137 +32646,123 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" ht="15" customHeight="1" hidden="1">
       <c r="A53" t="s" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="C53" s="8">
-        <v>1066</v>
-      </c>
-      <c r="D53" s="6">
-        <f>E53+H53</f>
-        <v>250</v>
-      </c>
-      <c r="E53" s="6">
-        <v>92</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6">
-        <f>27+131</f>
-        <v>158</v>
-      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="7"/>
-      <c r="L53" t="s" s="5">
-        <v>147</v>
-      </c>
+      <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="s" s="5">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="C54" s="6">
-        <v>15726</v>
+        <v>101</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1066</v>
       </c>
       <c r="D54" s="6">
-        <v>5351</v>
-      </c>
-      <c r="E54" s="6"/>
+        <f>E54+H54</f>
+        <v>250</v>
+      </c>
+      <c r="E54" s="6">
+        <v>92</v>
+      </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <v>5351</v>
-      </c>
-      <c r="I54" s="6">
-        <v>3693</v>
-      </c>
-      <c r="J54" s="6">
-        <v>1658</v>
-      </c>
+        <f>27+131</f>
+        <v>158</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
       <c r="K54" s="7"/>
       <c r="L54" t="s" s="5">
         <v>147</v>
       </c>
       <c r="M54" s="7"/>
-      <c r="N54" s="6"/>
+      <c r="N54" s="7"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="s" s="5">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C55" s="6">
-        <v>20121</v>
+        <v>15726</v>
       </c>
       <c r="D55" s="6">
-        <v>9933</v>
-      </c>
-      <c r="E55" s="6">
-        <v>3643</v>
-      </c>
-      <c r="F55" s="6">
-        <v>2214</v>
-      </c>
-      <c r="G55" s="6">
-        <v>1429</v>
-      </c>
+        <v>5351</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="6">
-        <v>6290</v>
+        <v>5351</v>
       </c>
       <c r="I55" s="6">
-        <v>3372</v>
+        <v>3693</v>
       </c>
       <c r="J55" s="6">
-        <v>2918</v>
-      </c>
-      <c r="K55" t="s" s="5">
-        <v>175</v>
-      </c>
+        <v>1658</v>
+      </c>
+      <c r="K55" s="7"/>
       <c r="L55" t="s" s="5">
         <v>147</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
+      <c r="N55" s="6"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="s" s="5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C56" s="6">
-        <v>6044</v>
+        <v>20121</v>
       </c>
       <c r="D56" s="6">
-        <v>676</v>
+        <v>9933</v>
       </c>
       <c r="E56" s="6">
-        <v>676</v>
+        <v>3643</v>
       </c>
       <c r="F56" s="6">
-        <v>80</v>
+        <v>2214</v>
       </c>
       <c r="G56" s="6">
-        <v>596</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+        <v>1429</v>
+      </c>
+      <c r="H56" s="6">
+        <v>6290</v>
+      </c>
+      <c r="I56" s="6">
+        <v>3372</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2918</v>
+      </c>
       <c r="K56" t="s" s="5">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="5">
         <v>147</v>
@@ -32706,37 +32772,31 @@
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="s" s="5">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2364</v>
-      </c>
-      <c r="D57" s="8">
-        <v>681</v>
-      </c>
-      <c r="E57" s="8">
-        <v>482</v>
-      </c>
-      <c r="F57" s="8">
-        <v>24</v>
-      </c>
-      <c r="G57" s="8">
-        <v>458</v>
-      </c>
-      <c r="H57" s="8">
-        <v>199</v>
-      </c>
-      <c r="I57" s="8">
-        <v>72</v>
-      </c>
-      <c r="J57" s="8">
-        <v>127</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C57" s="6">
+        <v>6044</v>
+      </c>
+      <c r="D57" s="6">
+        <v>676</v>
+      </c>
+      <c r="E57" s="6">
+        <v>676</v>
+      </c>
+      <c r="F57" s="6">
+        <v>80</v>
+      </c>
+      <c r="G57" s="6">
+        <v>596</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
       <c r="K57" t="s" s="5">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s" s="5">
         <v>147</v>
@@ -32745,120 +32805,160 @@
       <c r="N57" s="7"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
+      <c r="A58" t="s" s="5">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s" s="5">
+        <v>109</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2364</v>
+      </c>
+      <c r="D58" s="8">
+        <v>681</v>
+      </c>
+      <c r="E58" s="8">
+        <v>482</v>
+      </c>
+      <c r="F58" s="8">
+        <v>24</v>
+      </c>
+      <c r="G58" s="8">
+        <v>458</v>
+      </c>
+      <c r="H58" s="8">
+        <v>199</v>
+      </c>
+      <c r="I58" s="8">
+        <v>72</v>
+      </c>
+      <c r="J58" s="8">
+        <v>127</v>
+      </c>
+      <c r="K58" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="L58" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="7"/>
-      <c r="B59" t="s" s="9">
-        <v>110</v>
-      </c>
-      <c r="C59" s="10">
-        <f>SUM(C2:C57)</f>
-        <v>883788</v>
-      </c>
-      <c r="D59" s="10">
-        <f>SUM(D2:D57)</f>
-        <v>176477</v>
-      </c>
-      <c r="E59" s="10">
-        <f>SUM(E2:E57)</f>
-        <v>88195</v>
-      </c>
-      <c r="F59" s="10">
-        <f>SUM(F2:F57)+E22+E23+E32+E45+E51+E53</f>
-        <v>44993</v>
-      </c>
-      <c r="G59" s="10">
-        <f>SUM(G2:G57)</f>
-        <v>23863</v>
-      </c>
-      <c r="H59" s="10">
-        <f>SUM(H2:H57)</f>
-        <v>89021</v>
-      </c>
-      <c r="I59" s="10">
-        <f>SUM(I2:I57)+H23+H32+H45+H51+H53</f>
-        <v>62968</v>
-      </c>
-      <c r="J59" s="10">
-        <f>SUM(J2:J57)</f>
-        <v>26032</v>
-      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="6"/>
+      <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="B60" t="s" s="9">
+        <v>110</v>
+      </c>
+      <c r="C60" s="10">
+        <f>SUM(C2:C58)</f>
+        <v>928889</v>
+      </c>
+      <c r="D60" s="10">
+        <f>SUM(D2:D58)</f>
+        <v>185570</v>
+      </c>
+      <c r="E60" s="10">
+        <f>SUM(E2:E58)</f>
+        <v>93136</v>
+      </c>
+      <c r="F60" s="10">
+        <f>SUM(F2:F58)+E23+E24+E33+E46+E52+E54</f>
+        <v>44993</v>
+      </c>
+      <c r="G60" s="10">
+        <f>SUM(G2:G58)</f>
+        <v>23863</v>
+      </c>
+      <c r="H60" s="10">
+        <f>SUM(H2:H58)</f>
+        <v>93173</v>
+      </c>
+      <c r="I60" s="10">
+        <f>SUM(I2:I58)+H24+H33+H46+H52+H54</f>
+        <v>65567</v>
+      </c>
+      <c r="J60" s="10">
+        <f>SUM(J2:J58)</f>
+        <v>27585</v>
+      </c>
       <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+      <c r="L60" s="6"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="7"/>
-      <c r="B61" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="C61" s="8">
-        <f>COUNTIF(C2:C57,"&gt;0")</f>
-        <v>44</v>
-      </c>
-      <c r="D61" s="8">
-        <f>COUNTIF(D2:D57,"&gt;0")</f>
-        <v>40</v>
-      </c>
-      <c r="E61" s="8">
-        <f>COUNTIF(E2:E57,"&gt;0")</f>
-        <v>34</v>
-      </c>
-      <c r="F61" s="8">
-        <f>COUNTIF(F2:F57,"&gt;0")</f>
-        <v>24</v>
-      </c>
-      <c r="G61" s="8">
-        <f>COUNTIF(G2:G57,"&gt;0")</f>
-        <v>27</v>
-      </c>
-      <c r="H61" s="8">
-        <f>COUNTIF(H2:H57,"&gt;0")</f>
-        <v>37</v>
-      </c>
-      <c r="I61" s="8">
-        <f>COUNTIF(I2:I57,"&gt;0")</f>
-        <v>29</v>
-      </c>
-      <c r="J61" s="8">
-        <f>COUNTIF(J2:J57,"&gt;0")</f>
-        <v>32</v>
-      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
+    </row>
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="C62" s="8">
+        <f>COUNTIF(C2:C58,"&gt;0")</f>
+        <v>45</v>
+      </c>
+      <c r="D62" s="8">
+        <f>COUNTIF(D2:D58,"&gt;0")</f>
+        <v>41</v>
+      </c>
+      <c r="E62" s="8">
+        <f>COUNTIF(E2:E58,"&gt;0")</f>
+        <v>35</v>
+      </c>
+      <c r="F62" s="8">
+        <f>COUNTIF(F2:F58,"&gt;0")</f>
+        <v>24</v>
+      </c>
+      <c r="G62" s="8">
+        <f>COUNTIF(G2:G58,"&gt;0")</f>
+        <v>27</v>
+      </c>
+      <c r="H62" s="8">
+        <f>COUNTIF(H2:H58,"&gt;0")</f>
+        <v>38</v>
+      </c>
+      <c r="I62" s="8">
+        <f>COUNTIF(I2:I58,"&gt;0")</f>
+        <v>30</v>
+      </c>
+      <c r="J62" s="8">
+        <f>COUNTIF(J2:J58,"&gt;0")</f>
+        <v>33</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32936,10 +33036,10 @@
         <v>130</v>
       </c>
       <c r="N1" t="s" s="3">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O1" t="s" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -32993,7 +33093,7 @@
         <v>2020</v>
       </c>
       <c r="N2" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O2" s="8">
         <v>7</v>
@@ -33050,7 +33150,7 @@
         <v>2020</v>
       </c>
       <c r="N3" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O3" s="8">
         <v>8</v>
@@ -33107,7 +33207,7 @@
         <v>2020</v>
       </c>
       <c r="N4" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O4" s="8">
         <v>6</v>
@@ -33199,7 +33299,7 @@
         <v>2020</v>
       </c>
       <c r="N6" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O6" s="8">
         <v>9</v>
@@ -33256,7 +33356,7 @@
         <v>2020</v>
       </c>
       <c r="N7" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O7" s="8">
         <v>6</v>
@@ -33313,7 +33413,7 @@
         <v>2020</v>
       </c>
       <c r="N8" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O8" s="8">
         <v>6</v>
@@ -33352,7 +33452,7 @@
         <v>2020</v>
       </c>
       <c r="N9" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O9" s="8">
         <v>6</v>
@@ -33409,7 +33509,7 @@
         <v>2020</v>
       </c>
       <c r="N10" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O10" s="8">
         <v>12</v>
@@ -33501,7 +33601,7 @@
         <v>2020</v>
       </c>
       <c r="N12" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O12" s="8">
         <v>12</v>
@@ -33558,7 +33658,7 @@
         <v>2020</v>
       </c>
       <c r="N13" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O13" s="8">
         <v>12</v>
@@ -33615,7 +33715,7 @@
         <v>2020</v>
       </c>
       <c r="N14" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O14" s="8">
         <v>6</v>
@@ -33669,7 +33769,7 @@
         <v>2020</v>
       </c>
       <c r="N15" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O15" s="7"/>
     </row>
@@ -33724,7 +33824,7 @@
         <v>2020</v>
       </c>
       <c r="N16" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O16" s="8">
         <v>7</v>
@@ -33781,7 +33881,7 @@
         <v>2020</v>
       </c>
       <c r="N17" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O17" s="8">
         <v>12</v>
@@ -33838,7 +33938,7 @@
         <v>2020</v>
       </c>
       <c r="N18" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O18" s="8">
         <v>6</v>
@@ -33877,7 +33977,7 @@
         <v>2020</v>
       </c>
       <c r="N19" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O19" s="7"/>
     </row>
@@ -33932,7 +34032,7 @@
         <v>2020</v>
       </c>
       <c r="N20" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O20" s="8">
         <v>7</v>
@@ -33989,7 +34089,7 @@
         <v>2020</v>
       </c>
       <c r="N21" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O21" s="8">
         <v>12</v>
@@ -34043,7 +34143,7 @@
         <v>2020</v>
       </c>
       <c r="N22" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O22" s="8">
         <v>6</v>
@@ -34100,7 +34200,7 @@
         <v>2020</v>
       </c>
       <c r="N23" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O23" s="8">
         <v>6</v>
@@ -34157,7 +34257,7 @@
         <v>2020</v>
       </c>
       <c r="N24" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O24" s="8">
         <v>12</v>
@@ -34214,7 +34314,7 @@
         <v>2020</v>
       </c>
       <c r="N25" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O25" s="8">
         <v>6</v>
@@ -34306,7 +34406,7 @@
         <v>2020</v>
       </c>
       <c r="N27" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O27" s="8">
         <v>12</v>
@@ -34363,7 +34463,7 @@
         <v>2020</v>
       </c>
       <c r="N28" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O28" s="8">
         <v>6</v>
@@ -34420,7 +34520,7 @@
         <v>2020</v>
       </c>
       <c r="N29" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O29" s="8">
         <v>6</v>
@@ -34509,7 +34609,7 @@
         <v>2020</v>
       </c>
       <c r="N31" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O31" s="8">
         <v>6</v>
@@ -34548,7 +34648,7 @@
         <v>2020</v>
       </c>
       <c r="N32" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O32" s="8">
         <v>0</v>
@@ -34640,7 +34740,7 @@
         <v>2020</v>
       </c>
       <c r="N34" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O34" s="8">
         <v>6</v>
@@ -34694,7 +34794,7 @@
         <v>2020</v>
       </c>
       <c r="N35" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O35" s="8">
         <v>6</v>
@@ -34786,7 +34886,7 @@
         <v>2020</v>
       </c>
       <c r="N37" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O37" s="8">
         <v>6</v>
@@ -34843,7 +34943,7 @@
         <v>2020</v>
       </c>
       <c r="N38" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O38" s="8">
         <v>8</v>
@@ -34897,7 +34997,7 @@
         <v>2020</v>
       </c>
       <c r="N39" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O39" s="8">
         <v>8</v>
@@ -34954,7 +35054,7 @@
         <v>2020</v>
       </c>
       <c r="N40" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O40" s="8">
         <v>8</v>
@@ -35005,7 +35105,7 @@
         <v>2020</v>
       </c>
       <c r="N41" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O41" s="8">
         <v>6</v>
@@ -35044,7 +35144,7 @@
         <v>2020</v>
       </c>
       <c r="N42" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O42" s="7"/>
     </row>
@@ -35081,7 +35181,7 @@
         <v>2020</v>
       </c>
       <c r="N43" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O43" s="8">
         <v>6</v>
@@ -35120,7 +35220,7 @@
         <v>2020</v>
       </c>
       <c r="N44" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O44" s="7"/>
     </row>
@@ -35175,7 +35275,7 @@
         <v>2020</v>
       </c>
       <c r="N45" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O45" s="8">
         <v>6</v>
@@ -35214,7 +35314,7 @@
         <v>2020</v>
       </c>
       <c r="N46" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O46" s="7"/>
     </row>
@@ -35263,7 +35363,7 @@
         <v>2020</v>
       </c>
       <c r="N47" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8">
         <v>12</v>
@@ -35364,7 +35464,7 @@
         <v>2020</v>
       </c>
       <c r="N49" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8">
         <v>3</v>
@@ -35421,7 +35521,7 @@
         <v>2020</v>
       </c>
       <c r="N50" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8">
         <v>10</v>
@@ -35478,7 +35578,7 @@
         <v>2020</v>
       </c>
       <c r="N51" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8">
         <v>12</v>
@@ -37730,7 +37830,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s" s="95">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -37754,7 +37854,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s" s="95">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -37778,7 +37878,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s" s="95">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -37791,7 +37891,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s" s="95">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -37804,7 +37904,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s" s="95">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -37817,7 +37917,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s" s="95">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -37830,7 +37930,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s" s="95">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -37843,7 +37943,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s" s="95">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -37856,7 +37956,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s" s="95">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -37869,7 +37969,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s" s="95">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -37882,7 +37982,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s" s="95">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -37895,7 +37995,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s" s="95">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -37919,7 +38019,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s" s="95">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -37932,7 +38032,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s" s="95">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -37945,7 +38045,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s" s="95">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -37958,7 +38058,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s" s="95">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -37971,7 +38071,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s" s="95">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -37984,7 +38084,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s" s="95">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -37997,7 +38097,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s" s="95">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -38010,7 +38110,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s" s="95">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -38023,7 +38123,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s" s="95">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -38036,7 +38136,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s" s="95">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -38049,7 +38149,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s" s="95">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -38062,7 +38162,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s" s="95">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -38075,7 +38175,7 @@
         <v>65</v>
       </c>
       <c r="C29" t="s" s="95">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -38088,7 +38188,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s" s="95">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -38101,7 +38201,7 @@
         <v>69</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -38114,7 +38214,7 @@
         <v>71</v>
       </c>
       <c r="C32" t="s" s="95">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -38138,7 +38238,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s" s="97">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -38151,7 +38251,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s" s="95">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -38175,7 +38275,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s" s="95">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -38188,7 +38288,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s" s="95">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -38201,7 +38301,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s" s="95">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -38214,7 +38314,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s" s="95">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -38227,7 +38327,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s" s="95">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -38240,7 +38340,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s" s="95">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -38264,7 +38364,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s" s="95">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -38277,7 +38377,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s" s="95">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -38301,7 +38401,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s" s="95">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -38314,7 +38414,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s" s="95">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -38327,7 +38427,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -38340,7 +38440,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s" s="95">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -38353,7 +38453,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s" s="95">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -38399,34 +38499,34 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="99">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s" s="99">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s" s="99">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s" s="99">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s" s="99">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s" s="99">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H1" t="s" s="99">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I1" t="s" s="99">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J1" t="s" s="99">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K1" t="s" s="99">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L1" t="s" s="99">
         <v>145</v>
@@ -38466,7 +38566,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s" s="99">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F3" s="99"/>
       <c r="G3" s="105">
@@ -38498,7 +38598,7 @@
         <v>389</v>
       </c>
       <c r="E4" t="s" s="100">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F4" s="101"/>
       <c r="G4" s="102">
@@ -38508,10 +38608,10 @@
       <c r="I4" s="102"/>
       <c r="J4" s="101"/>
       <c r="K4" t="s" s="100">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L4" t="s" s="100">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M4" s="101"/>
     </row>
@@ -38529,7 +38629,7 @@
         <v>238.5</v>
       </c>
       <c r="E5" t="s" s="99">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="105">
@@ -38545,7 +38645,7 @@
         <v>4.91</v>
       </c>
       <c r="K5" t="s" s="99">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L5" s="103"/>
       <c r="M5" s="103"/>
@@ -38564,7 +38664,7 @@
         <v>381</v>
       </c>
       <c r="E6" t="s" s="100">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="101"/>
       <c r="G6" s="102">
@@ -38572,15 +38672,15 @@
         <v>229.6630136986301</v>
       </c>
       <c r="H6" t="s" s="100">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I6" s="102"/>
       <c r="J6" s="101"/>
       <c r="K6" t="s" s="100">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L6" t="s" s="100">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M6" s="101"/>
     </row>
@@ -38598,7 +38698,7 @@
         <v>511</v>
       </c>
       <c r="E7" t="s" s="99">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="105">
@@ -38645,7 +38745,7 @@
         <v>154.4</v>
       </c>
       <c r="H9" t="s" s="99">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I9" s="105">
         <v>176.39</v>
@@ -38669,7 +38769,7 @@
         <v>22080.22</v>
       </c>
       <c r="E10" t="s" s="100">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="102">
@@ -38680,7 +38780,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
       <c r="L10" t="s" s="100">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M10" s="101"/>
     </row>
@@ -38688,12 +38788,22 @@
       <c r="A11" t="s" s="99">
         <v>29</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
+      <c r="B11" s="104">
+        <v>4.03</v>
+      </c>
+      <c r="C11" s="104">
+        <v>3.34</v>
+      </c>
+      <c r="D11" s="104">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s" s="99">
+        <v>242</v>
+      </c>
       <c r="F11" s="103"/>
-      <c r="G11" s="105"/>
+      <c r="G11" s="105">
+        <v>59.64</v>
+      </c>
       <c r="H11" s="103"/>
       <c r="I11" s="105"/>
       <c r="J11" s="103"/>
@@ -38749,7 +38859,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s" s="100">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F14" s="100"/>
       <c r="G14" s="102">
@@ -38780,7 +38890,7 @@
         <v>7.4</v>
       </c>
       <c r="E15" t="s" s="99">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="105">
@@ -38797,7 +38907,7 @@
       </c>
       <c r="K15" s="99"/>
       <c r="L15" t="s" s="99">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M15" s="99"/>
     </row>
@@ -38832,20 +38942,20 @@
         <v>16.74</v>
       </c>
       <c r="E17" t="s" s="99">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="105">
         <v>10.18</v>
       </c>
       <c r="H17" t="s" s="99">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I17" s="105"/>
       <c r="J17" s="103"/>
       <c r="K17" s="99"/>
       <c r="L17" t="s" s="99">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M17" s="99"/>
     </row>
@@ -38880,21 +38990,21 @@
         <v>4.89</v>
       </c>
       <c r="E19" t="s" s="99">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F19" s="99"/>
       <c r="G19" s="105">
         <v>62.49</v>
       </c>
       <c r="H19" t="s" s="99">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I19" s="105"/>
       <c r="J19" t="s" s="99">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K19" t="s" s="99">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L19" s="103"/>
       <c r="M19" s="103"/>
@@ -38929,7 +39039,7 @@
         <v>123.33</v>
       </c>
       <c r="H21" t="s" s="99">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I21" s="105">
         <v>6.36</v>
@@ -38938,7 +39048,7 @@
         <v>6.36</v>
       </c>
       <c r="K21" t="s" s="99">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L21" s="103"/>
       <c r="M21" s="103"/>
@@ -38952,7 +39062,7 @@
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
       <c r="F22" t="s" s="100">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G22" s="102">
         <v>151</v>
@@ -38963,10 +39073,10 @@
       <c r="I22" s="102"/>
       <c r="J22" s="101"/>
       <c r="K22" t="s" s="100">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s" s="100">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M22" s="101"/>
     </row>
@@ -39018,20 +39128,20 @@
         <v>1.4</v>
       </c>
       <c r="E25" t="s" s="99">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F25" s="99"/>
       <c r="G25" s="105">
         <v>83.15000000000001</v>
       </c>
       <c r="H25" t="s" s="99">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I25" s="105">
         <v>21.37</v>
       </c>
       <c r="J25" t="s" s="99">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K25" s="103"/>
       <c r="L25" s="103"/>
@@ -39051,7 +39161,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E26" t="s" s="100">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="102">
@@ -39063,7 +39173,7 @@
       <c r="I26" s="102"/>
       <c r="J26" s="101"/>
       <c r="K26" t="s" s="100">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L26" s="101"/>
       <c r="M26" s="101"/>
@@ -39082,20 +39192,20 @@
         <v>276</v>
       </c>
       <c r="E27" t="s" s="99">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F27" s="103"/>
       <c r="G27" s="105">
         <v>104.66</v>
       </c>
       <c r="H27" t="s" s="99">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I27" s="105">
         <v>0.24</v>
       </c>
       <c r="J27" t="s" s="99">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="103"/>
@@ -39111,7 +39221,7 @@
       <c r="C28" s="101"/>
       <c r="D28" s="101"/>
       <c r="E28" t="s" s="100">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F28" s="100"/>
       <c r="G28" s="102">
@@ -39142,14 +39252,14 @@
         <v>0.67</v>
       </c>
       <c r="E29" t="s" s="99">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F29" s="99"/>
       <c r="G29" s="105">
         <v>132.61</v>
       </c>
       <c r="H29" t="s" s="99">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I29" s="105"/>
       <c r="J29" s="103"/>
@@ -39183,7 +39293,7 @@
       <c r="D31" s="103"/>
       <c r="E31" s="103"/>
       <c r="F31" t="s" s="99">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G31" s="105"/>
       <c r="H31" s="103"/>
@@ -39210,7 +39320,7 @@
         <v>136.86</v>
       </c>
       <c r="H32" t="s" s="100">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I32" s="102"/>
       <c r="J32" s="101"/>
@@ -39249,16 +39359,16 @@
         <v>57.77</v>
       </c>
       <c r="E34" t="s" s="100">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F34" t="s" s="100">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G34" s="102">
         <v>66.77</v>
       </c>
       <c r="H34" t="s" s="100">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I34" s="102">
         <v>3.17</v>
@@ -39267,7 +39377,7 @@
         <v>3.17</v>
       </c>
       <c r="K34" t="s" s="100">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L34" s="101"/>
       <c r="M34" s="101"/>
@@ -39320,7 +39430,7 @@
         <v>3047</v>
       </c>
       <c r="E37" t="s" s="99">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F37" s="103"/>
       <c r="G37" s="105">
@@ -39334,10 +39444,10 @@
         <v>15.74</v>
       </c>
       <c r="K37" t="s" s="99">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="99">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M37" s="103"/>
     </row>
@@ -39355,7 +39465,7 @@
         <v>544</v>
       </c>
       <c r="E38" t="s" s="100">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F38" s="101"/>
       <c r="G38" s="102">
@@ -39366,11 +39476,11 @@
         <v>116.89</v>
       </c>
       <c r="J38" t="s" s="100">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K38" s="101"/>
       <c r="L38" t="s" s="100">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M38" s="101"/>
     </row>
@@ -39378,12 +39488,20 @@
       <c r="A39" t="s" s="99">
         <v>85</v>
       </c>
-      <c r="B39" s="103"/>
+      <c r="B39" s="104">
+        <v>49.7</v>
+      </c>
       <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
+      <c r="D39" s="104">
+        <v>10.7</v>
+      </c>
+      <c r="E39" t="s" s="99">
+        <v>243</v>
+      </c>
       <c r="F39" s="103"/>
-      <c r="G39" s="105"/>
+      <c r="G39" s="108">
+        <v>137</v>
+      </c>
       <c r="H39" s="103"/>
       <c r="I39" s="105"/>
       <c r="J39" s="103"/>
@@ -39405,19 +39523,19 @@
         <v>334</v>
       </c>
       <c r="E40" t="s" s="100">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F40" s="100"/>
       <c r="G40" s="102">
         <v>226.13</v>
       </c>
       <c r="H40" t="s" s="100">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I40" s="102"/>
       <c r="J40" s="101"/>
       <c r="K40" t="s" s="100">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L40" s="101"/>
       <c r="M40" s="101"/>
@@ -39458,7 +39576,7 @@
         <v>67.64</v>
       </c>
       <c r="J42" t="s" s="100">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K42" s="101"/>
       <c r="L42" s="101"/>
@@ -39493,7 +39611,7 @@
         <v>25.1</v>
       </c>
       <c r="E44" t="s" s="100">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F44" s="100"/>
       <c r="G44" s="102">
@@ -39518,14 +39636,24 @@
       </c>
       <c r="B45" s="103"/>
       <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
+      <c r="D45" s="104">
+        <v>8.75</v>
+      </c>
+      <c r="E45" t="s" s="99">
+        <v>243</v>
+      </c>
       <c r="F45" s="103"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="103"/>
+      <c r="G45" s="105">
+        <v>85.27</v>
+      </c>
+      <c r="H45" s="104">
+        <v>85.27</v>
+      </c>
       <c r="I45" s="105"/>
       <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
+      <c r="K45" t="s" s="99">
+        <v>273</v>
+      </c>
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
     </row>
@@ -39575,14 +39703,14 @@
       </c>
       <c r="D48" s="101"/>
       <c r="E48" t="s" s="100">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F48" s="101"/>
       <c r="G48" s="102">
         <v>130.7</v>
       </c>
       <c r="H48" t="s" s="100">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I48" s="102"/>
       <c r="J48" s="101"/>
@@ -39604,7 +39732,7 @@
         <v>2.01</v>
       </c>
       <c r="E49" t="s" s="99">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F49" s="103"/>
       <c r="G49" s="105">
@@ -39618,7 +39746,7 @@
       </c>
       <c r="J49" s="103"/>
       <c r="K49" t="s" s="99">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L49" s="103"/>
       <c r="M49" s="103"/>
@@ -39635,7 +39763,7 @@
       </c>
       <c r="D50" s="101"/>
       <c r="E50" t="s" s="100">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F50" s="101"/>
       <c r="G50" s="102">
@@ -39645,7 +39773,7 @@
       <c r="I50" s="102"/>
       <c r="J50" s="101"/>
       <c r="K50" t="s" s="100">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L50" s="101"/>
       <c r="M50" s="101"/>
@@ -39664,7 +39792,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s" s="99">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F51" s="99"/>
       <c r="G51" s="105">
@@ -39677,15 +39805,20 @@
         <v>128.41</v>
       </c>
       <c r="J51" t="s" s="99">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K51" s="99"/>
       <c r="L51" s="99"/>
       <c r="M51" t="s" s="99">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -53256,31 +53389,33 @@
         <v>97</v>
       </c>
       <c r="C45" s="6">
-        <v>3726</v>
+        <v>3746</v>
       </c>
       <c r="D45" s="6">
-        <v>2931</v>
+        <v>2999</v>
       </c>
       <c r="E45" s="6">
-        <v>983</v>
+        <v>1030</v>
       </c>
       <c r="F45" s="6">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="G45" s="6">
         <v>432</v>
       </c>
       <c r="H45" s="6">
-        <v>1948</v>
+        <v>1969</v>
       </c>
       <c r="I45" s="8">
-        <v>568</v>
+        <v>670</v>
       </c>
       <c r="J45" s="8">
-        <v>1380</v>
+        <v>1299</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="L45" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="6"/>
     </row>
@@ -53515,19 +53650,19 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>605184</v>
+        <v>605204</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>246607</v>
+        <v>246675</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>126814</v>
+        <v>126861</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E5+E8+E11+E18+E20+E23+E24+E26+E30+E41+E47</f>
-        <v>75871</v>
+        <v>75918</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
@@ -53535,15 +53670,15 @@
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>119735</v>
+        <v>119756</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H5+H26+H37+H41+H43+H47</f>
-        <v>56181</v>
+        <v>56283</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>69030</v>
+        <v>68949</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>State Abbrev</t>
   </si>
@@ -850,6 +850,9 @@
     <t>Years</t>
   </si>
   <si>
+    <t>We do not calculate the marginal costs</t>
+  </si>
+  <si>
     <t>Months</t>
   </si>
   <si>
@@ -972,7 +975,7 @@
     <numFmt numFmtId="63" formatCode="#,##0.0"/>
     <numFmt numFmtId="64" formatCode="&quot;$&quot;#,##0.00&quot; &quot;;(&quot;$&quot;#,##0.00)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1030,11 +1033,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1495,7 +1493,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -13358,7 +13356,9 @@
         <v>144</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="L12" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="6"/>
     </row>
@@ -31454,31 +31454,33 @@
         <v>31</v>
       </c>
       <c r="C14" s="6">
-        <v>3485</v>
+        <v>3334</v>
       </c>
       <c r="D14" s="6">
-        <v>1120</v>
+        <v>1163</v>
       </c>
       <c r="E14" s="6">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="F14" s="6">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G14" s="6">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H14" s="6">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="I14" s="6">
-        <v>612</v>
+        <v>493</v>
       </c>
       <c r="J14" s="6">
-        <v>138</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="L14" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
@@ -32867,35 +32869,35 @@
       </c>
       <c r="C60" s="10">
         <f>SUM(C2:C58)</f>
-        <v>928889</v>
+        <v>928738</v>
       </c>
       <c r="D60" s="10">
         <f>SUM(D2:D58)</f>
-        <v>185570</v>
+        <v>185613</v>
       </c>
       <c r="E60" s="10">
         <f>SUM(E2:E58)</f>
-        <v>93136</v>
+        <v>93162</v>
       </c>
       <c r="F60" s="10">
         <f>SUM(F2:F58)+E23+E24+E33+E46+E52+E54</f>
-        <v>44993</v>
+        <v>44910</v>
       </c>
       <c r="G60" s="10">
         <f>SUM(G2:G58)</f>
-        <v>23863</v>
+        <v>23972</v>
       </c>
       <c r="H60" s="10">
         <f>SUM(H2:H58)</f>
-        <v>93173</v>
+        <v>93190</v>
       </c>
       <c r="I60" s="10">
         <f>SUM(I2:I58)+H24+H33+H46+H52+H54</f>
-        <v>65567</v>
+        <v>65448</v>
       </c>
       <c r="J60" s="10">
         <f>SUM(J2:J58)</f>
-        <v>27585</v>
+        <v>27821</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="6"/>
@@ -38815,16 +38817,30 @@
       <c r="A12" t="s" s="100">
         <v>31</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
+      <c r="B12" s="106">
+        <v>356</v>
+      </c>
+      <c r="C12" s="106">
+        <v>54.5</v>
+      </c>
+      <c r="D12" s="106">
+        <v>354.7</v>
+      </c>
+      <c r="E12" t="s" s="100">
+        <v>233</v>
+      </c>
       <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="101"/>
+      <c r="G12" s="102">
+        <v>153</v>
+      </c>
+      <c r="H12" s="106">
+        <v>153</v>
+      </c>
       <c r="I12" s="102"/>
       <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
+      <c r="K12" t="s" s="100">
+        <v>243</v>
+      </c>
       <c r="L12" s="101"/>
       <c r="M12" s="101"/>
     </row>
@@ -38859,7 +38875,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s" s="100">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F14" s="100"/>
       <c r="G14" s="102">
@@ -38890,7 +38906,7 @@
         <v>7.4</v>
       </c>
       <c r="E15" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="105">
@@ -38907,7 +38923,7 @@
       </c>
       <c r="K15" s="99"/>
       <c r="L15" t="s" s="99">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M15" s="99"/>
     </row>
@@ -38942,20 +38958,20 @@
         <v>16.74</v>
       </c>
       <c r="E17" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="105">
         <v>10.18</v>
       </c>
       <c r="H17" t="s" s="99">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I17" s="105"/>
       <c r="J17" s="103"/>
       <c r="K17" s="99"/>
       <c r="L17" t="s" s="99">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M17" s="99"/>
     </row>
@@ -38997,14 +39013,14 @@
         <v>62.49</v>
       </c>
       <c r="H19" t="s" s="99">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I19" s="105"/>
       <c r="J19" t="s" s="99">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K19" t="s" s="99">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L19" s="103"/>
       <c r="M19" s="103"/>
@@ -39039,7 +39055,7 @@
         <v>123.33</v>
       </c>
       <c r="H21" t="s" s="99">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I21" s="105">
         <v>6.36</v>
@@ -39048,7 +39064,7 @@
         <v>6.36</v>
       </c>
       <c r="K21" t="s" s="99">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L21" s="103"/>
       <c r="M21" s="103"/>
@@ -39062,7 +39078,7 @@
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
       <c r="F22" t="s" s="100">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G22" s="102">
         <v>151</v>
@@ -39073,10 +39089,10 @@
       <c r="I22" s="102"/>
       <c r="J22" s="101"/>
       <c r="K22" t="s" s="100">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="100">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" s="101"/>
     </row>
@@ -39135,13 +39151,13 @@
         <v>83.15000000000001</v>
       </c>
       <c r="H25" t="s" s="99">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I25" s="105">
         <v>21.37</v>
       </c>
       <c r="J25" t="s" s="99">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K25" s="103"/>
       <c r="L25" s="103"/>
@@ -39161,7 +39177,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E26" t="s" s="100">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="102">
@@ -39173,7 +39189,7 @@
       <c r="I26" s="102"/>
       <c r="J26" s="101"/>
       <c r="K26" t="s" s="100">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L26" s="101"/>
       <c r="M26" s="101"/>
@@ -39199,13 +39215,13 @@
         <v>104.66</v>
       </c>
       <c r="H27" t="s" s="99">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I27" s="105">
         <v>0.24</v>
       </c>
       <c r="J27" t="s" s="99">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="103"/>
@@ -39259,7 +39275,7 @@
         <v>132.61</v>
       </c>
       <c r="H29" t="s" s="99">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I29" s="105"/>
       <c r="J29" s="103"/>
@@ -39293,7 +39309,7 @@
       <c r="D31" s="103"/>
       <c r="E31" s="103"/>
       <c r="F31" t="s" s="99">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G31" s="105"/>
       <c r="H31" s="103"/>
@@ -39320,7 +39336,7 @@
         <v>136.86</v>
       </c>
       <c r="H32" t="s" s="100">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I32" s="102"/>
       <c r="J32" s="101"/>
@@ -39359,16 +39375,16 @@
         <v>57.77</v>
       </c>
       <c r="E34" t="s" s="100">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F34" t="s" s="100">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G34" s="102">
         <v>66.77</v>
       </c>
       <c r="H34" t="s" s="100">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I34" s="102">
         <v>3.17</v>
@@ -39377,7 +39393,7 @@
         <v>3.17</v>
       </c>
       <c r="K34" t="s" s="100">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L34" s="101"/>
       <c r="M34" s="101"/>
@@ -39444,10 +39460,10 @@
         <v>15.74</v>
       </c>
       <c r="K37" t="s" s="99">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="99">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" s="103"/>
     </row>
@@ -39476,11 +39492,11 @@
         <v>116.89</v>
       </c>
       <c r="J38" t="s" s="100">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K38" s="101"/>
       <c r="L38" t="s" s="100">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M38" s="101"/>
     </row>
@@ -39496,7 +39512,7 @@
         <v>10.7</v>
       </c>
       <c r="E39" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F39" s="103"/>
       <c r="G39" s="108">
@@ -39530,12 +39546,12 @@
         <v>226.13</v>
       </c>
       <c r="H40" t="s" s="100">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I40" s="102"/>
       <c r="J40" s="101"/>
       <c r="K40" t="s" s="100">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L40" s="101"/>
       <c r="M40" s="101"/>
@@ -39576,7 +39592,7 @@
         <v>67.64</v>
       </c>
       <c r="J42" t="s" s="100">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K42" s="101"/>
       <c r="L42" s="101"/>
@@ -39611,7 +39627,7 @@
         <v>25.1</v>
       </c>
       <c r="E44" t="s" s="100">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F44" s="100"/>
       <c r="G44" s="102">
@@ -39640,7 +39656,7 @@
         <v>8.75</v>
       </c>
       <c r="E45" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F45" s="103"/>
       <c r="G45" s="105">
@@ -39652,7 +39668,7 @@
       <c r="I45" s="105"/>
       <c r="J45" s="103"/>
       <c r="K45" t="s" s="99">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
@@ -39710,7 +39726,7 @@
         <v>130.7</v>
       </c>
       <c r="H48" t="s" s="100">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I48" s="102"/>
       <c r="J48" s="101"/>
@@ -39746,7 +39762,7 @@
       </c>
       <c r="J49" s="103"/>
       <c r="K49" t="s" s="99">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L49" s="103"/>
       <c r="M49" s="103"/>
@@ -39773,7 +39789,7 @@
       <c r="I50" s="102"/>
       <c r="J50" s="101"/>
       <c r="K50" t="s" s="100">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L50" s="101"/>
       <c r="M50" s="101"/>
@@ -39792,7 +39808,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F51" s="99"/>
       <c r="G51" s="105">
@@ -39805,12 +39821,12 @@
         <v>128.41</v>
       </c>
       <c r="J51" t="s" s="99">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K51" s="99"/>
       <c r="L51" s="99"/>
       <c r="M51" t="s" s="99">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -27530,7 +27530,9 @@
         <v>12</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="O12" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
@@ -32412,7 +32414,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" ht="16.6" customHeight="1">
+    <row r="45" ht="16.7" customHeight="1">
       <c r="A45" t="s" s="5">
         <v>86</v>
       </c>
@@ -32644,7 +32646,9 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
+      <c r="L52" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
@@ -38496,7 +38500,7 @@
     <col min="14" max="256" width="16.3516" style="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="99">
         <v>1</v>
       </c>
@@ -38535,7 +38539,7 @@
       </c>
       <c r="M1" s="99"/>
     </row>
-    <row r="2" ht="12" customHeight="1">
+    <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="100">
         <v>11</v>
       </c>
@@ -38556,7 +38560,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" ht="13.15" customHeight="1">
+    <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="99">
         <v>13</v>
       </c>
@@ -38583,7 +38587,7 @@
       <c r="L3" s="103"/>
       <c r="M3" s="103"/>
     </row>
-    <row r="4" ht="11.8" customHeight="1">
+    <row r="4" ht="20.25" customHeight="1">
       <c r="A4" t="s" s="100">
         <v>15</v>
       </c>
@@ -38617,7 +38621,7 @@
       </c>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" ht="21.7" customHeight="1">
+    <row r="5" ht="20.25" customHeight="1">
       <c r="A5" t="s" s="99">
         <v>17</v>
       </c>
@@ -38652,7 +38656,7 @@
       <c r="L5" s="103"/>
       <c r="M5" s="103"/>
     </row>
-    <row r="6" ht="11.8" customHeight="1">
+    <row r="6" ht="20.25" customHeight="1">
       <c r="A6" t="s" s="100">
         <v>19</v>
       </c>
@@ -38686,7 +38690,7 @@
       </c>
       <c r="M6" s="101"/>
     </row>
-    <row r="7" ht="11.8" customHeight="1">
+    <row r="7" ht="20.25" customHeight="1">
       <c r="A7" t="s" s="99">
         <v>21</v>
       </c>
@@ -38713,7 +38717,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" ht="11.8" customHeight="1">
+    <row r="8" ht="20.25" customHeight="1">
       <c r="A8" t="s" s="100">
         <v>23</v>
       </c>
@@ -38734,7 +38738,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" ht="11.8" customHeight="1">
+    <row r="9" ht="20.25" customHeight="1">
       <c r="A9" t="s" s="99">
         <v>25</v>
       </c>
@@ -38757,7 +38761,7 @@
       <c r="L9" s="103"/>
       <c r="M9" s="103"/>
     </row>
-    <row r="10" ht="11.8" customHeight="1">
+    <row r="10" ht="20.25" customHeight="1">
       <c r="A10" t="s" s="100">
         <v>27</v>
       </c>
@@ -38786,7 +38790,7 @@
       </c>
       <c r="M10" s="101"/>
     </row>
-    <row r="11" ht="11.8" customHeight="1">
+    <row r="11" ht="20.25" customHeight="1">
       <c r="A11" t="s" s="99">
         <v>29</v>
       </c>
@@ -38813,7 +38817,7 @@
       <c r="L11" s="103"/>
       <c r="M11" s="103"/>
     </row>
-    <row r="12" ht="11.8" customHeight="1">
+    <row r="12" ht="20.25" customHeight="1">
       <c r="A12" t="s" s="100">
         <v>31</v>
       </c>
@@ -38844,7 +38848,7 @@
       <c r="L12" s="101"/>
       <c r="M12" s="101"/>
     </row>
-    <row r="13" ht="11.8" customHeight="1">
+    <row r="13" ht="20.25" customHeight="1">
       <c r="A13" t="s" s="99">
         <v>33</v>
       </c>
@@ -38861,7 +38865,7 @@
       <c r="L13" s="103"/>
       <c r="M13" s="103"/>
     </row>
-    <row r="14" ht="13.15" customHeight="1">
+    <row r="14" ht="20.25" customHeight="1">
       <c r="A14" t="s" s="100">
         <v>35</v>
       </c>
@@ -38894,7 +38898,7 @@
       <c r="L14" s="101"/>
       <c r="M14" s="101"/>
     </row>
-    <row r="15" ht="11.8" customHeight="1">
+    <row r="15" ht="20.25" customHeight="1">
       <c r="A15" t="s" s="99">
         <v>37</v>
       </c>
@@ -38927,7 +38931,7 @@
       </c>
       <c r="M15" s="99"/>
     </row>
-    <row r="16" ht="11.8" customHeight="1">
+    <row r="16" ht="20.25" customHeight="1">
       <c r="A16" t="s" s="100">
         <v>39</v>
       </c>
@@ -38944,7 +38948,7 @@
       <c r="L16" s="101"/>
       <c r="M16" s="101"/>
     </row>
-    <row r="17" ht="13.15" customHeight="1">
+    <row r="17" ht="20.25" customHeight="1">
       <c r="A17" t="s" s="99">
         <v>41</v>
       </c>
@@ -38975,7 +38979,7 @@
       </c>
       <c r="M17" s="99"/>
     </row>
-    <row r="18" ht="11.8" customHeight="1">
+    <row r="18" ht="20.25" customHeight="1">
       <c r="A18" t="s" s="100">
         <v>43</v>
       </c>
@@ -38992,7 +38996,7 @@
       <c r="L18" s="101"/>
       <c r="M18" s="101"/>
     </row>
-    <row r="19" ht="13.15" customHeight="1">
+    <row r="19" ht="20.25" customHeight="1">
       <c r="A19" t="s" s="99">
         <v>45</v>
       </c>
@@ -39025,7 +39029,7 @@
       <c r="L19" s="103"/>
       <c r="M19" s="103"/>
     </row>
-    <row r="20" ht="11.8" customHeight="1">
+    <row r="20" ht="20.25" customHeight="1">
       <c r="A20" t="s" s="100">
         <v>47</v>
       </c>
@@ -39042,7 +39046,7 @@
       <c r="L20" s="101"/>
       <c r="M20" s="101"/>
     </row>
-    <row r="21" ht="21.7" customHeight="1">
+    <row r="21" ht="20.25" customHeight="1">
       <c r="A21" t="s" s="99">
         <v>49</v>
       </c>
@@ -39069,7 +39073,7 @@
       <c r="L21" s="103"/>
       <c r="M21" s="103"/>
     </row>
-    <row r="22" ht="11.8" customHeight="1">
+    <row r="22" ht="20.25" customHeight="1">
       <c r="A22" t="s" s="100">
         <v>51</v>
       </c>
@@ -39096,7 +39100,7 @@
       </c>
       <c r="M22" s="101"/>
     </row>
-    <row r="23" ht="11.8" customHeight="1">
+    <row r="23" ht="20.25" customHeight="1">
       <c r="A23" t="s" s="99">
         <v>53</v>
       </c>
@@ -39113,7 +39117,7 @@
       <c r="L23" s="103"/>
       <c r="M23" s="103"/>
     </row>
-    <row r="24" ht="11.8" customHeight="1">
+    <row r="24" ht="20.25" customHeight="1">
       <c r="A24" t="s" s="100">
         <v>55</v>
       </c>
@@ -39130,7 +39134,7 @@
       <c r="L24" s="101"/>
       <c r="M24" s="101"/>
     </row>
-    <row r="25" ht="13.15" customHeight="1">
+    <row r="25" ht="20.25" customHeight="1">
       <c r="A25" t="s" s="99">
         <v>57</v>
       </c>
@@ -39163,7 +39167,7 @@
       <c r="L25" s="103"/>
       <c r="M25" s="103"/>
     </row>
-    <row r="26" ht="11.8" customHeight="1">
+    <row r="26" ht="20.25" customHeight="1">
       <c r="A26" t="s" s="100">
         <v>59</v>
       </c>
@@ -39194,7 +39198,7 @@
       <c r="L26" s="101"/>
       <c r="M26" s="101"/>
     </row>
-    <row r="27" ht="11.8" customHeight="1">
+    <row r="27" ht="20.25" customHeight="1">
       <c r="A27" t="s" s="99">
         <v>61</v>
       </c>
@@ -39227,7 +39231,7 @@
       <c r="L27" s="103"/>
       <c r="M27" s="103"/>
     </row>
-    <row r="28" ht="11.8" customHeight="1">
+    <row r="28" ht="20.25" customHeight="1">
       <c r="A28" t="s" s="100">
         <v>63</v>
       </c>
@@ -39254,7 +39258,7 @@
       <c r="L28" s="101"/>
       <c r="M28" s="101"/>
     </row>
-    <row r="29" ht="11.8" customHeight="1">
+    <row r="29" ht="20.25" customHeight="1">
       <c r="A29" t="s" s="99">
         <v>65</v>
       </c>
@@ -39283,7 +39287,7 @@
       <c r="L29" s="103"/>
       <c r="M29" s="103"/>
     </row>
-    <row r="30" ht="11.8" customHeight="1">
+    <row r="30" ht="20.25" customHeight="1">
       <c r="A30" t="s" s="100">
         <v>67</v>
       </c>
@@ -39300,7 +39304,7 @@
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
     </row>
-    <row r="31" ht="11.8" customHeight="1">
+    <row r="31" ht="20.25" customHeight="1">
       <c r="A31" t="s" s="99">
         <v>69</v>
       </c>
@@ -39311,7 +39315,9 @@
       <c r="F31" t="s" s="99">
         <v>262</v>
       </c>
-      <c r="G31" s="105"/>
+      <c r="G31" s="105">
+        <v>122</v>
+      </c>
       <c r="H31" s="103"/>
       <c r="I31" s="105">
         <v>131</v>
@@ -39323,7 +39329,7 @@
       <c r="L31" s="103"/>
       <c r="M31" s="103"/>
     </row>
-    <row r="32" ht="11.8" customHeight="1">
+    <row r="32" ht="20.25" customHeight="1">
       <c r="A32" t="s" s="100">
         <v>71</v>
       </c>
@@ -39344,7 +39350,7 @@
       <c r="L32" s="101"/>
       <c r="M32" s="101"/>
     </row>
-    <row r="33" ht="11.8" customHeight="1">
+    <row r="33" ht="20.25" customHeight="1">
       <c r="A33" t="s" s="99">
         <v>73</v>
       </c>
@@ -39361,7 +39367,7 @@
       <c r="L33" s="103"/>
       <c r="M33" s="103"/>
     </row>
-    <row r="34" ht="11.8" customHeight="1">
+    <row r="34" ht="20.25" customHeight="1">
       <c r="A34" t="s" s="100">
         <v>75</v>
       </c>
@@ -39398,7 +39404,7 @@
       <c r="L34" s="101"/>
       <c r="M34" s="101"/>
     </row>
-    <row r="35" ht="11.8" customHeight="1">
+    <row r="35" ht="20.25" customHeight="1">
       <c r="A35" t="s" s="99">
         <v>77</v>
       </c>
@@ -39415,7 +39421,7 @@
       <c r="L35" s="103"/>
       <c r="M35" s="103"/>
     </row>
-    <row r="36" ht="11.8" customHeight="1">
+    <row r="36" ht="20.25" customHeight="1">
       <c r="A36" t="s" s="100">
         <v>79</v>
       </c>
@@ -39432,7 +39438,7 @@
       <c r="L36" s="101"/>
       <c r="M36" s="101"/>
     </row>
-    <row r="37" ht="11.8" customHeight="1">
+    <row r="37" ht="20.25" customHeight="1">
       <c r="A37" t="s" s="99">
         <v>81</v>
       </c>
@@ -39467,7 +39473,7 @@
       </c>
       <c r="M37" s="103"/>
     </row>
-    <row r="38" ht="11.8" customHeight="1">
+    <row r="38" ht="20.25" customHeight="1">
       <c r="A38" t="s" s="100">
         <v>83</v>
       </c>
@@ -39500,7 +39506,7 @@
       </c>
       <c r="M38" s="101"/>
     </row>
-    <row r="39" ht="11.8" customHeight="1">
+    <row r="39" ht="20.25" customHeight="1">
       <c r="A39" t="s" s="99">
         <v>85</v>
       </c>
@@ -39525,7 +39531,7 @@
       <c r="L39" s="103"/>
       <c r="M39" s="103"/>
     </row>
-    <row r="40" ht="13.15" customHeight="1">
+    <row r="40" ht="20.25" customHeight="1">
       <c r="A40" t="s" s="100">
         <v>87</v>
       </c>
@@ -39556,7 +39562,7 @@
       <c r="L40" s="101"/>
       <c r="M40" s="101"/>
     </row>
-    <row r="41" ht="11.8" customHeight="1">
+    <row r="41" ht="20.25" customHeight="1">
       <c r="A41" t="s" s="99">
         <v>89</v>
       </c>
@@ -39575,7 +39581,7 @@
       <c r="L41" s="103"/>
       <c r="M41" s="103"/>
     </row>
-    <row r="42" ht="11.8" customHeight="1">
+    <row r="42" ht="20.25" customHeight="1">
       <c r="A42" t="s" s="100">
         <v>91</v>
       </c>
@@ -39598,7 +39604,7 @@
       <c r="L42" s="101"/>
       <c r="M42" s="101"/>
     </row>
-    <row r="43" ht="11.8" customHeight="1">
+    <row r="43" ht="20.25" customHeight="1">
       <c r="A43" t="s" s="99">
         <v>93</v>
       </c>
@@ -39615,7 +39621,7 @@
       <c r="L43" s="103"/>
       <c r="M43" s="103"/>
     </row>
-    <row r="44" ht="11.8" customHeight="1">
+    <row r="44" ht="20.25" customHeight="1">
       <c r="A44" t="s" s="100">
         <v>95</v>
       </c>
@@ -39646,7 +39652,7 @@
       <c r="L44" s="101"/>
       <c r="M44" s="101"/>
     </row>
-    <row r="45" ht="11.8" customHeight="1">
+    <row r="45" ht="20.25" customHeight="1">
       <c r="A45" t="s" s="99">
         <v>97</v>
       </c>
@@ -39673,7 +39679,7 @@
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
     </row>
-    <row r="46" ht="11.8" customHeight="1">
+    <row r="46" ht="20.25" customHeight="1">
       <c r="A46" t="s" s="100">
         <v>99</v>
       </c>
@@ -39690,7 +39696,7 @@
       <c r="L46" s="101"/>
       <c r="M46" s="101"/>
     </row>
-    <row r="47" ht="11.8" customHeight="1">
+    <row r="47" ht="20.25" customHeight="1">
       <c r="A47" t="s" s="99">
         <v>101</v>
       </c>
@@ -39699,7 +39705,9 @@
       <c r="D47" s="103"/>
       <c r="E47" s="103"/>
       <c r="F47" s="103"/>
-      <c r="G47" s="105"/>
+      <c r="G47" s="105">
+        <v>220.58</v>
+      </c>
       <c r="H47" s="103"/>
       <c r="I47" s="105"/>
       <c r="J47" s="103"/>
@@ -39707,7 +39715,7 @@
       <c r="L47" s="103"/>
       <c r="M47" s="103"/>
     </row>
-    <row r="48" ht="11.8" customHeight="1">
+    <row r="48" ht="20.25" customHeight="1">
       <c r="A48" t="s" s="100">
         <v>103</v>
       </c>
@@ -39734,7 +39742,7 @@
       <c r="L48" s="101"/>
       <c r="M48" s="101"/>
     </row>
-    <row r="49" ht="11.8" customHeight="1">
+    <row r="49" ht="20.25" customHeight="1">
       <c r="A49" t="s" s="99">
         <v>105</v>
       </c>
@@ -39767,7 +39775,7 @@
       <c r="L49" s="103"/>
       <c r="M49" s="103"/>
     </row>
-    <row r="50" ht="11.8" customHeight="1">
+    <row r="50" ht="20.25" customHeight="1">
       <c r="A50" t="s" s="100">
         <v>107</v>
       </c>
@@ -39794,7 +39802,7 @@
       <c r="L50" s="101"/>
       <c r="M50" s="101"/>
     </row>
-    <row r="51" ht="11.8" customHeight="1">
+    <row r="51" ht="20.25" customHeight="1">
       <c r="A51" t="s" s="99">
         <v>109</v>
       </c>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
   <si>
     <t>State Abbrev</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>We don't "Finalize" Admissions and Releases for the FY until Oct 1. Every parole revocation is counted as a technical until a new mitt is entered, changing it to a parole violator/new crime, so those numbers are constantly changing.</t>
+  </si>
+  <si>
+    <t>Administrative databases change overtime and reflect appropriate numbers at the point at time in which the data is extracted. There were some variations in previously reported years, and over the last 1 to 1.5 years we have been working to modify the programming for the way in which new vs. technical prison admissions are determined and captured. We continue to work through this programming and make changes where applicable, however the numbers reported today are believed to be correct, however this report is continuing to grow and change as programming changes are determined to be appropriate.</t>
   </si>
   <si>
     <t>We are not providing an update, as our figures follow the Maryland State Fiscal year, which runs from July 1- June 30. Thus the 2020 figures provided are the full FY 2020 fiscal year figures reflecting populations through June 30, 2020.</t>
@@ -13370,31 +13373,33 @@
         <v>33</v>
       </c>
       <c r="C13" s="6">
-        <v>6210</v>
+        <v>6287</v>
       </c>
       <c r="D13" s="6">
-        <v>2673</v>
+        <v>3135</v>
       </c>
       <c r="E13" s="6">
-        <v>1737</v>
+        <v>1881</v>
       </c>
       <c r="F13" s="6">
-        <v>919</v>
+        <v>1454</v>
       </c>
       <c r="G13" s="6">
-        <v>818</v>
+        <v>427</v>
       </c>
       <c r="H13" s="6">
-        <v>936</v>
+        <v>1254</v>
       </c>
       <c r="I13" s="6">
-        <v>592</v>
+        <v>829</v>
       </c>
       <c r="J13" s="6">
-        <v>344</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="6"/>
     </row>
@@ -14669,35 +14674,35 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>574892</v>
+        <v>574969</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>229322</v>
+        <v>229784</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>112698</v>
+        <v>112842</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E5+E8+E11+E18+E20+E23+E24+E26+E30+E41+E47</f>
-        <v>67007</v>
+        <v>67542</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
-        <v>51978</v>
+        <v>51587</v>
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>116624</v>
+        <v>116942</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H5+H26+H37+H41+H43+H47</f>
-        <v>54951</v>
+        <v>55188</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>66950</v>
+        <v>67031</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -27544,40 +27549,44 @@
         <v>33</v>
       </c>
       <c r="C13" s="6">
-        <v>5404</v>
+        <v>3931</v>
       </c>
       <c r="D13" s="6">
-        <v>2418</v>
+        <v>2105</v>
       </c>
       <c r="E13" s="6">
-        <v>1471</v>
+        <v>1238</v>
       </c>
       <c r="F13" s="6">
-        <v>761</v>
+        <v>1010</v>
       </c>
       <c r="G13" s="6">
-        <v>710</v>
+        <v>228</v>
       </c>
       <c r="H13" s="6">
-        <v>947</v>
+        <v>867</v>
       </c>
       <c r="I13" s="6">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="J13" s="6">
-        <v>328</v>
+        <v>199</v>
       </c>
       <c r="K13" s="79">
         <v>2020</v>
       </c>
       <c r="L13" t="s" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M13" s="8">
         <v>12</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="N13" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="O13" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
@@ -27931,7 +27940,7 @@
         <v>12</v>
       </c>
       <c r="N21" t="s" s="5">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O21" t="s" s="5">
         <v>147</v>
@@ -27974,7 +27983,7 @@
         <v>12</v>
       </c>
       <c r="N22" t="s" s="5">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O22" t="s" s="5">
         <v>147</v>
@@ -28152,7 +28161,7 @@
         <v>12</v>
       </c>
       <c r="N26" t="s" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O26" t="s" s="5">
         <v>147</v>
@@ -28201,7 +28210,7 @@
         <v>12</v>
       </c>
       <c r="N27" t="s" s="5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O27" t="s" s="5">
         <v>147</v>
@@ -28408,7 +28417,7 @@
         <v>12</v>
       </c>
       <c r="N32" t="s" s="5">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O32" t="s" s="5">
         <v>147</v>
@@ -28482,7 +28491,7 @@
         <v>12</v>
       </c>
       <c r="N34" t="s" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O34" t="s" s="5">
         <v>147</v>
@@ -28638,7 +28647,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O38" t="s" s="5">
         <v>147</v>
@@ -28730,7 +28739,7 @@
         <v>12</v>
       </c>
       <c r="N40" t="s" s="5">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O40" t="s" s="5">
         <v>147</v>
@@ -28771,7 +28780,7 @@
         <v>12</v>
       </c>
       <c r="N41" t="s" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O41" t="s" s="5">
         <v>147</v>
@@ -28820,7 +28829,7 @@
         <v>12</v>
       </c>
       <c r="N42" t="s" s="5">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O42" t="s" s="5">
         <v>147</v>
@@ -28947,7 +28956,7 @@
         <v>12</v>
       </c>
       <c r="N45" t="s" s="5">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O45" t="s" s="5">
         <v>147</v>
@@ -29105,7 +29114,7 @@
         <v>12</v>
       </c>
       <c r="N49" t="s" s="5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O49" t="s" s="5">
         <v>147</v>
@@ -29154,7 +29163,7 @@
         <v>12</v>
       </c>
       <c r="N50" t="s" s="5">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O50" t="s" s="5">
         <v>147</v>
@@ -29235,35 +29244,35 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>359438</v>
+        <v>357965</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>140655</v>
+        <v>140342</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>69903</v>
+        <v>69670</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E8+E18+E20+E23+E24+E41+E47</f>
-        <v>35337</v>
+        <v>35586</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
-        <v>32357</v>
+        <v>31875</v>
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>70753</v>
+        <v>70673</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H37+H41+H47</f>
-        <v>28804</v>
+        <v>28853</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>41936</v>
+        <v>41807</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="7"/>
@@ -31200,7 +31209,7 @@
         <v>909</v>
       </c>
       <c r="K5" t="s" s="5">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L5" t="s" s="5">
         <v>147</v>
@@ -31386,7 +31395,7 @@
         <v>362</v>
       </c>
       <c r="K11" t="s" s="5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L11" t="s" s="5">
         <v>147</v>
@@ -31497,28 +31506,30 @@
         <v>7528</v>
       </c>
       <c r="D15" s="6">
-        <v>2387</v>
+        <v>2307</v>
       </c>
       <c r="E15" s="6">
-        <v>1468</v>
+        <v>1477</v>
       </c>
       <c r="F15" s="6">
-        <v>797</v>
+        <v>1477</v>
       </c>
       <c r="G15" s="6">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>919</v>
+        <v>830</v>
       </c>
       <c r="I15" s="6">
-        <v>635</v>
+        <v>37</v>
       </c>
       <c r="J15" s="6">
-        <v>284</v>
+        <v>793</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="L15" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
@@ -31800,7 +31811,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" t="s" s="5">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="5">
         <v>147</v>
@@ -32022,7 +32033,7 @@
         <v>212</v>
       </c>
       <c r="K31" t="s" s="5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="5">
         <v>147</v>
@@ -32226,7 +32237,7 @@
         <v>737</v>
       </c>
       <c r="K38" t="s" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="5">
         <v>147</v>
@@ -32332,7 +32343,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" t="s" s="5">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="5">
         <v>147</v>
@@ -32372,7 +32383,7 @@
         <v>29</v>
       </c>
       <c r="K43" t="s" s="5">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s" s="5">
         <v>147</v>
@@ -32446,7 +32457,7 @@
         <v>18</v>
       </c>
       <c r="K45" t="s" s="90">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L45" t="s" s="5">
         <v>147</v>
@@ -32478,7 +32489,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" t="s" s="5">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L46" t="s" s="5">
         <v>147</v>
@@ -32518,7 +32529,7 @@
         <v>705</v>
       </c>
       <c r="K47" t="s" s="5">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="5">
         <v>147</v>
@@ -32768,7 +32779,7 @@
         <v>2918</v>
       </c>
       <c r="K56" t="s" s="5">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s" s="5">
         <v>147</v>
@@ -32802,7 +32813,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" t="s" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L57" t="s" s="5">
         <v>147</v>
@@ -32842,7 +32853,7 @@
         <v>127</v>
       </c>
       <c r="K58" t="s" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s" s="5">
         <v>147</v>
@@ -32877,31 +32888,31 @@
       </c>
       <c r="D60" s="10">
         <f>SUM(D2:D58)</f>
-        <v>185613</v>
+        <v>185533</v>
       </c>
       <c r="E60" s="10">
         <f>SUM(E2:E58)</f>
-        <v>93162</v>
+        <v>93171</v>
       </c>
       <c r="F60" s="10">
         <f>SUM(F2:F58)+E23+E24+E33+E46+E52+E54</f>
-        <v>44910</v>
+        <v>45590</v>
       </c>
       <c r="G60" s="10">
         <f>SUM(G2:G58)</f>
-        <v>23972</v>
+        <v>23301</v>
       </c>
       <c r="H60" s="10">
         <f>SUM(H2:H58)</f>
-        <v>93190</v>
+        <v>93101</v>
       </c>
       <c r="I60" s="10">
         <f>SUM(I2:I58)+H24+H33+H46+H52+H54</f>
-        <v>65448</v>
+        <v>64850</v>
       </c>
       <c r="J60" s="10">
         <f>SUM(J2:J58)</f>
-        <v>27821</v>
+        <v>28330</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="6"/>
@@ -32947,7 +32958,7 @@
       </c>
       <c r="G62" s="8">
         <f>COUNTIF(G2:G58,"&gt;0")</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H62" s="8">
         <f>COUNTIF(H2:H58,"&gt;0")</f>
@@ -37836,7 +37847,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s" s="95">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -37860,7 +37871,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s" s="95">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -37884,7 +37895,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s" s="95">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -37897,7 +37908,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s" s="95">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -37910,7 +37921,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s" s="95">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -37923,7 +37934,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s" s="95">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -37936,7 +37947,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s" s="95">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -37949,7 +37960,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s" s="95">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -37962,7 +37973,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s" s="95">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -37975,7 +37986,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s" s="95">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -37988,7 +37999,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s" s="95">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -38001,7 +38012,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s" s="95">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -38025,7 +38036,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s" s="95">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -38038,7 +38049,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s" s="95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -38051,7 +38062,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s" s="95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -38064,7 +38075,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s" s="95">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -38077,7 +38088,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s" s="95">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -38090,7 +38101,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s" s="95">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -38103,7 +38114,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s" s="95">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -38116,7 +38127,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s" s="95">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -38129,7 +38140,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s" s="95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -38142,7 +38153,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s" s="95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -38155,7 +38166,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s" s="95">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -38168,7 +38179,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s" s="95">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -38181,7 +38192,7 @@
         <v>65</v>
       </c>
       <c r="C29" t="s" s="95">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -38194,7 +38205,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s" s="95">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -38207,7 +38218,7 @@
         <v>69</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -38220,7 +38231,7 @@
         <v>71</v>
       </c>
       <c r="C32" t="s" s="95">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -38244,7 +38255,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s" s="97">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -38257,7 +38268,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s" s="95">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -38281,7 +38292,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s" s="95">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -38294,7 +38305,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s" s="95">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -38307,7 +38318,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s" s="95">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -38320,7 +38331,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s" s="95">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -38333,7 +38344,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s" s="95">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -38346,7 +38357,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s" s="95">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -38370,7 +38381,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s" s="95">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -38383,7 +38394,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s" s="95">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -38407,7 +38418,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s" s="95">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -38420,7 +38431,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s" s="95">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -38433,7 +38444,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -38446,7 +38457,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s" s="95">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -38459,7 +38470,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s" s="95">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -38505,34 +38516,34 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="99">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s" s="99">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s" s="99">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s" s="99">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s" s="99">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s" s="99">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H1" t="s" s="99">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I1" t="s" s="99">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J1" t="s" s="99">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K1" t="s" s="99">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L1" t="s" s="99">
         <v>145</v>
@@ -38572,7 +38583,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s" s="99">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F3" s="99"/>
       <c r="G3" s="105">
@@ -38604,7 +38615,7 @@
         <v>389</v>
       </c>
       <c r="E4" t="s" s="100">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F4" s="101"/>
       <c r="G4" s="102">
@@ -38614,10 +38625,10 @@
       <c r="I4" s="102"/>
       <c r="J4" s="101"/>
       <c r="K4" t="s" s="100">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L4" t="s" s="100">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M4" s="101"/>
     </row>
@@ -38635,7 +38646,7 @@
         <v>238.5</v>
       </c>
       <c r="E5" t="s" s="99">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="105">
@@ -38651,7 +38662,7 @@
         <v>4.91</v>
       </c>
       <c r="K5" t="s" s="99">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L5" s="103"/>
       <c r="M5" s="103"/>
@@ -38670,7 +38681,7 @@
         <v>381</v>
       </c>
       <c r="E6" t="s" s="100">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F6" s="101"/>
       <c r="G6" s="102">
@@ -38678,15 +38689,15 @@
         <v>229.6630136986301</v>
       </c>
       <c r="H6" t="s" s="100">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I6" s="102"/>
       <c r="J6" s="101"/>
       <c r="K6" t="s" s="100">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L6" t="s" s="100">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M6" s="101"/>
     </row>
@@ -38704,7 +38715,7 @@
         <v>511</v>
       </c>
       <c r="E7" t="s" s="99">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="105">
@@ -38751,7 +38762,7 @@
         <v>154.4</v>
       </c>
       <c r="H9" t="s" s="99">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I9" s="105">
         <v>176.39</v>
@@ -38775,7 +38786,7 @@
         <v>22080.22</v>
       </c>
       <c r="E10" t="s" s="100">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="102">
@@ -38786,7 +38797,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
       <c r="L10" t="s" s="100">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M10" s="101"/>
     </row>
@@ -38804,7 +38815,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s" s="99">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="105">
@@ -38831,7 +38842,7 @@
         <v>354.7</v>
       </c>
       <c r="E12" t="s" s="100">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F12" s="101"/>
       <c r="G12" s="102">
@@ -38843,7 +38854,7 @@
       <c r="I12" s="102"/>
       <c r="J12" s="101"/>
       <c r="K12" t="s" s="100">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L12" s="101"/>
       <c r="M12" s="101"/>
@@ -38857,10 +38868,18 @@
       <c r="D13" s="103"/>
       <c r="E13" s="103"/>
       <c r="F13" s="103"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="103"/>
+      <c r="G13" s="105">
+        <v>94.23</v>
+      </c>
+      <c r="H13" s="105">
+        <v>94.23</v>
+      </c>
+      <c r="I13" s="105">
+        <v>20.33</v>
+      </c>
+      <c r="J13" s="105">
+        <v>20.33</v>
+      </c>
       <c r="K13" s="103"/>
       <c r="L13" s="103"/>
       <c r="M13" s="103"/>
@@ -38879,7 +38898,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s" s="100">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F14" s="100"/>
       <c r="G14" s="102">
@@ -38910,7 +38929,7 @@
         <v>7.4</v>
       </c>
       <c r="E15" t="s" s="99">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="105">
@@ -38927,7 +38946,7 @@
       </c>
       <c r="K15" s="99"/>
       <c r="L15" t="s" s="99">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M15" s="99"/>
     </row>
@@ -38962,20 +38981,20 @@
         <v>16.74</v>
       </c>
       <c r="E17" t="s" s="99">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="105">
         <v>10.18</v>
       </c>
       <c r="H17" t="s" s="99">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I17" s="105"/>
       <c r="J17" s="103"/>
       <c r="K17" s="99"/>
       <c r="L17" t="s" s="99">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M17" s="99"/>
     </row>
@@ -39010,21 +39029,21 @@
         <v>4.89</v>
       </c>
       <c r="E19" t="s" s="99">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F19" s="99"/>
       <c r="G19" s="105">
         <v>62.49</v>
       </c>
       <c r="H19" t="s" s="99">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I19" s="105"/>
       <c r="J19" t="s" s="99">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K19" t="s" s="99">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L19" s="103"/>
       <c r="M19" s="103"/>
@@ -39059,7 +39078,7 @@
         <v>123.33</v>
       </c>
       <c r="H21" t="s" s="99">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I21" s="105">
         <v>6.36</v>
@@ -39068,7 +39087,7 @@
         <v>6.36</v>
       </c>
       <c r="K21" t="s" s="99">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L21" s="103"/>
       <c r="M21" s="103"/>
@@ -39082,7 +39101,7 @@
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
       <c r="F22" t="s" s="100">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G22" s="102">
         <v>151</v>
@@ -39093,10 +39112,10 @@
       <c r="I22" s="102"/>
       <c r="J22" s="101"/>
       <c r="K22" t="s" s="100">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="100">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M22" s="101"/>
     </row>
@@ -39148,20 +39167,20 @@
         <v>1.4</v>
       </c>
       <c r="E25" t="s" s="99">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F25" s="99"/>
       <c r="G25" s="105">
         <v>83.15000000000001</v>
       </c>
       <c r="H25" t="s" s="99">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I25" s="105">
         <v>21.37</v>
       </c>
       <c r="J25" t="s" s="99">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K25" s="103"/>
       <c r="L25" s="103"/>
@@ -39181,7 +39200,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E26" t="s" s="100">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="102">
@@ -39193,7 +39212,7 @@
       <c r="I26" s="102"/>
       <c r="J26" s="101"/>
       <c r="K26" t="s" s="100">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L26" s="101"/>
       <c r="M26" s="101"/>
@@ -39212,20 +39231,20 @@
         <v>276</v>
       </c>
       <c r="E27" t="s" s="99">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F27" s="103"/>
       <c r="G27" s="105">
         <v>104.66</v>
       </c>
       <c r="H27" t="s" s="99">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I27" s="105">
         <v>0.24</v>
       </c>
       <c r="J27" t="s" s="99">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="103"/>
@@ -39241,7 +39260,7 @@
       <c r="C28" s="101"/>
       <c r="D28" s="101"/>
       <c r="E28" t="s" s="100">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F28" s="100"/>
       <c r="G28" s="102">
@@ -39272,14 +39291,14 @@
         <v>0.67</v>
       </c>
       <c r="E29" t="s" s="99">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F29" s="99"/>
       <c r="G29" s="105">
         <v>132.61</v>
       </c>
       <c r="H29" t="s" s="99">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I29" s="105"/>
       <c r="J29" s="103"/>
@@ -39313,7 +39332,7 @@
       <c r="D31" s="103"/>
       <c r="E31" s="103"/>
       <c r="F31" t="s" s="99">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G31" s="105">
         <v>122</v>
@@ -39342,7 +39361,7 @@
         <v>136.86</v>
       </c>
       <c r="H32" t="s" s="100">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I32" s="102"/>
       <c r="J32" s="101"/>
@@ -39381,16 +39400,16 @@
         <v>57.77</v>
       </c>
       <c r="E34" t="s" s="100">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F34" t="s" s="100">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G34" s="102">
         <v>66.77</v>
       </c>
       <c r="H34" t="s" s="100">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I34" s="102">
         <v>3.17</v>
@@ -39399,7 +39418,7 @@
         <v>3.17</v>
       </c>
       <c r="K34" t="s" s="100">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L34" s="101"/>
       <c r="M34" s="101"/>
@@ -39452,7 +39471,7 @@
         <v>3047</v>
       </c>
       <c r="E37" t="s" s="99">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F37" s="103"/>
       <c r="G37" s="105">
@@ -39466,10 +39485,10 @@
         <v>15.74</v>
       </c>
       <c r="K37" t="s" s="99">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="99">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" s="103"/>
     </row>
@@ -39487,7 +39506,7 @@
         <v>544</v>
       </c>
       <c r="E38" t="s" s="100">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F38" s="101"/>
       <c r="G38" s="102">
@@ -39498,11 +39517,11 @@
         <v>116.89</v>
       </c>
       <c r="J38" t="s" s="100">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K38" s="101"/>
       <c r="L38" t="s" s="100">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M38" s="101"/>
     </row>
@@ -39518,7 +39537,7 @@
         <v>10.7</v>
       </c>
       <c r="E39" t="s" s="99">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F39" s="103"/>
       <c r="G39" s="108">
@@ -39545,19 +39564,19 @@
         <v>334</v>
       </c>
       <c r="E40" t="s" s="100">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F40" s="100"/>
       <c r="G40" s="102">
         <v>226.13</v>
       </c>
       <c r="H40" t="s" s="100">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I40" s="102"/>
       <c r="J40" s="101"/>
       <c r="K40" t="s" s="100">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L40" s="101"/>
       <c r="M40" s="101"/>
@@ -39598,7 +39617,7 @@
         <v>67.64</v>
       </c>
       <c r="J42" t="s" s="100">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K42" s="101"/>
       <c r="L42" s="101"/>
@@ -39633,7 +39652,7 @@
         <v>25.1</v>
       </c>
       <c r="E44" t="s" s="100">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F44" s="100"/>
       <c r="G44" s="102">
@@ -39662,7 +39681,7 @@
         <v>8.75</v>
       </c>
       <c r="E45" t="s" s="99">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F45" s="103"/>
       <c r="G45" s="105">
@@ -39674,7 +39693,7 @@
       <c r="I45" s="105"/>
       <c r="J45" s="103"/>
       <c r="K45" t="s" s="99">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
@@ -39727,14 +39746,14 @@
       </c>
       <c r="D48" s="101"/>
       <c r="E48" t="s" s="100">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F48" s="101"/>
       <c r="G48" s="102">
         <v>130.7</v>
       </c>
       <c r="H48" t="s" s="100">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I48" s="102"/>
       <c r="J48" s="101"/>
@@ -39756,7 +39775,7 @@
         <v>2.01</v>
       </c>
       <c r="E49" t="s" s="99">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F49" s="103"/>
       <c r="G49" s="105">
@@ -39770,7 +39789,7 @@
       </c>
       <c r="J49" s="103"/>
       <c r="K49" t="s" s="99">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L49" s="103"/>
       <c r="M49" s="103"/>
@@ -39787,7 +39806,7 @@
       </c>
       <c r="D50" s="101"/>
       <c r="E50" t="s" s="100">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F50" s="101"/>
       <c r="G50" s="102">
@@ -39797,7 +39816,7 @@
       <c r="I50" s="102"/>
       <c r="J50" s="101"/>
       <c r="K50" t="s" s="100">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L50" s="101"/>
       <c r="M50" s="101"/>
@@ -39816,7 +39835,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s" s="99">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F51" s="99"/>
       <c r="G51" s="105">
@@ -39829,12 +39848,12 @@
         <v>128.41</v>
       </c>
       <c r="J51" t="s" s="99">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K51" s="99"/>
       <c r="L51" s="99"/>
       <c r="M51" t="s" s="99">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -52357,31 +52376,33 @@
         <v>33</v>
       </c>
       <c r="C13" s="6">
-        <v>5854</v>
+        <v>6227</v>
       </c>
       <c r="D13" s="6">
-        <v>2508</v>
+        <v>3083</v>
       </c>
       <c r="E13" s="6">
-        <v>1688</v>
+        <v>1951</v>
       </c>
       <c r="F13" s="6">
-        <v>928</v>
+        <v>1526</v>
       </c>
       <c r="G13" s="6">
-        <v>760</v>
+        <v>425</v>
       </c>
       <c r="H13" s="6">
-        <v>820</v>
+        <v>1132</v>
       </c>
       <c r="I13" s="8">
-        <v>530</v>
+        <v>789</v>
       </c>
       <c r="J13" s="8">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="6"/>
     </row>
@@ -53674,35 +53695,35 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>605204</v>
+        <v>605577</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>246675</v>
+        <v>247250</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>126861</v>
+        <v>127124</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E5+E8+E11+E18+E20+E23+E24+E26+E30+E41+E47</f>
-        <v>75918</v>
+        <v>76516</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
-        <v>57811</v>
+        <v>57476</v>
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>119756</v>
+        <v>120068</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H5+H26+H37+H41+H43+H47</f>
-        <v>56283</v>
+        <v>56542</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>68949</v>
+        <v>69002</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>

--- a/data/Data for web team 2020 v6 CORRECTED.xlsx
+++ b/data/Data for web team 2020 v6 CORRECTED.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
   <si>
     <t>State Abbrev</t>
   </si>
@@ -512,6 +512,9 @@
     <t>Administrative databases change overtime and reflect appropriate numbers at the point at time in which the data is extracted. There were some variations in previously reported years, and over the last 1 to 1.5 years we have been working to modify the programming for the way in which new vs. technical prison admissions are determined and captured. We continue to work through this programming and make changes where applicable, however the numbers reported today are believed to be correct, however this report is continuing to grow and change as programming changes are determined to be appropriate.</t>
   </si>
   <si>
+    <t>Auditing may result in changes in historical data.</t>
+  </si>
+  <si>
     <t>We are not providing an update, as our figures follow the Maryland State Fiscal year, which runs from July 1- June 30. Thus the 2020 figures provided are the full FY 2020 fiscal year figures reflecting populations through June 30, 2020.</t>
   </si>
   <si>
@@ -866,6 +869,9 @@
   </si>
   <si>
     <t>This is for FY2020 as this data was not available in the summer (August 2020) of 2020.</t>
+  </si>
+  <si>
+    <t>By statute, a significant number of Kentucky's state inmates are housed in county jail facilities at a daily reimbursement rate of $31.34</t>
   </si>
   <si>
     <t>July 2019 - 62.49 state</t>
@@ -13549,27 +13555,29 @@
         <v>43</v>
       </c>
       <c r="C18" s="6">
-        <v>19660</v>
+        <v>19693</v>
       </c>
       <c r="D18" s="6">
-        <v>11668</v>
+        <v>11665</v>
       </c>
       <c r="E18" s="6">
-        <v>5539</v>
+        <v>5540</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>6129</v>
+        <v>6125</v>
       </c>
       <c r="I18" s="6">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J18" s="6">
-        <v>5935</v>
+        <v>5930</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="L18" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="6"/>
     </row>
@@ -14674,19 +14682,19 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>574969</v>
+        <v>575002</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>229784</v>
+        <v>229781</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>112842</v>
+        <v>112843</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E5+E8+E11+E18+E20+E23+E24+E26+E30+E41+E47</f>
-        <v>67542</v>
+        <v>67543</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
@@ -14694,15 +14702,15 @@
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>116942</v>
+        <v>116938</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H5+H26+H37+H41+H43+H47</f>
-        <v>55188</v>
+        <v>55189</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>67031</v>
+        <v>67026</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -27778,24 +27786,24 @@
         <v>43</v>
       </c>
       <c r="C18" s="6">
-        <v>6705</v>
+        <v>12568</v>
       </c>
       <c r="D18" s="6">
-        <v>4008</v>
+        <v>7712</v>
       </c>
       <c r="E18" s="6">
-        <v>1867</v>
+        <v>3740</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>2141</v>
+        <v>3972</v>
       </c>
       <c r="I18" s="6">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="J18" s="6">
-        <v>2009</v>
+        <v>3806</v>
       </c>
       <c r="K18" s="79">
         <v>2020</v>
@@ -27804,10 +27812,14 @@
         <v>152</v>
       </c>
       <c r="M18" s="8">
-        <v>6</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N18" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
@@ -27940,7 +27952,7 @@
         <v>12</v>
       </c>
       <c r="N21" t="s" s="5">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O21" t="s" s="5">
         <v>147</v>
@@ -27983,7 +27995,7 @@
         <v>12</v>
       </c>
       <c r="N22" t="s" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O22" t="s" s="5">
         <v>147</v>
@@ -28161,7 +28173,7 @@
         <v>12</v>
       </c>
       <c r="N26" t="s" s="5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O26" t="s" s="5">
         <v>147</v>
@@ -28210,7 +28222,7 @@
         <v>12</v>
       </c>
       <c r="N27" t="s" s="5">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O27" t="s" s="5">
         <v>147</v>
@@ -28417,7 +28429,7 @@
         <v>12</v>
       </c>
       <c r="N32" t="s" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O32" t="s" s="5">
         <v>147</v>
@@ -28491,7 +28503,7 @@
         <v>12</v>
       </c>
       <c r="N34" t="s" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O34" t="s" s="5">
         <v>147</v>
@@ -28647,7 +28659,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s" s="5">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O38" t="s" s="5">
         <v>147</v>
@@ -28739,7 +28751,7 @@
         <v>12</v>
       </c>
       <c r="N40" t="s" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O40" t="s" s="5">
         <v>147</v>
@@ -28780,7 +28792,7 @@
         <v>12</v>
       </c>
       <c r="N41" t="s" s="5">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O41" t="s" s="5">
         <v>147</v>
@@ -28829,7 +28841,7 @@
         <v>12</v>
       </c>
       <c r="N42" t="s" s="5">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O42" t="s" s="5">
         <v>147</v>
@@ -28956,7 +28968,7 @@
         <v>12</v>
       </c>
       <c r="N45" t="s" s="5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O45" t="s" s="5">
         <v>147</v>
@@ -29114,7 +29126,7 @@
         <v>12</v>
       </c>
       <c r="N49" t="s" s="5">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O49" t="s" s="5">
         <v>147</v>
@@ -29163,7 +29175,7 @@
         <v>12</v>
       </c>
       <c r="N50" t="s" s="5">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O50" t="s" s="5">
         <v>147</v>
@@ -29244,19 +29256,19 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>357965</v>
+        <v>363828</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
-        <v>140342</v>
+        <v>144046</v>
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>69670</v>
+        <v>71543</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E8+E18+E20+E23+E24+E41+E47</f>
-        <v>35586</v>
+        <v>37459</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
@@ -29264,15 +29276,15 @@
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>70673</v>
+        <v>72504</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H37+H41+H47</f>
-        <v>28853</v>
+        <v>28887</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>41807</v>
+        <v>43604</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="7"/>
@@ -31209,7 +31221,7 @@
         <v>909</v>
       </c>
       <c r="K5" t="s" s="5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L5" t="s" s="5">
         <v>147</v>
@@ -31395,7 +31407,7 @@
         <v>362</v>
       </c>
       <c r="K11" t="s" s="5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L11" t="s" s="5">
         <v>147</v>
@@ -31811,7 +31823,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" t="s" s="5">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="5">
         <v>147</v>
@@ -32033,7 +32045,7 @@
         <v>212</v>
       </c>
       <c r="K31" t="s" s="5">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="5">
         <v>147</v>
@@ -32237,7 +32249,7 @@
         <v>737</v>
       </c>
       <c r="K38" t="s" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s" s="5">
         <v>147</v>
@@ -32343,7 +32355,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" t="s" s="5">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L42" t="s" s="5">
         <v>147</v>
@@ -32383,7 +32395,7 @@
         <v>29</v>
       </c>
       <c r="K43" t="s" s="5">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L43" t="s" s="5">
         <v>147</v>
@@ -32457,7 +32469,7 @@
         <v>18</v>
       </c>
       <c r="K45" t="s" s="90">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L45" t="s" s="5">
         <v>147</v>
@@ -32489,7 +32501,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" t="s" s="5">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="5">
         <v>147</v>
@@ -32529,7 +32541,7 @@
         <v>705</v>
       </c>
       <c r="K47" t="s" s="5">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L47" t="s" s="5">
         <v>147</v>
@@ -32779,7 +32791,7 @@
         <v>2918</v>
       </c>
       <c r="K56" t="s" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s" s="5">
         <v>147</v>
@@ -32813,7 +32825,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" t="s" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L57" t="s" s="5">
         <v>147</v>
@@ -32853,7 +32865,7 @@
         <v>127</v>
       </c>
       <c r="K58" t="s" s="5">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L58" t="s" s="5">
         <v>147</v>
@@ -37847,7 +37859,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s" s="95">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -37871,7 +37883,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s" s="95">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -37895,7 +37907,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s" s="95">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -37908,7 +37920,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s" s="95">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -37921,7 +37933,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s" s="95">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -37934,7 +37946,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s" s="95">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -37947,7 +37959,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s" s="95">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -37960,7 +37972,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s" s="95">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -37973,7 +37985,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s" s="95">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -37986,7 +37998,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s" s="95">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -37999,7 +38011,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s" s="95">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -38012,7 +38024,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s" s="95">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -38036,7 +38048,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s" s="95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -38049,7 +38061,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s" s="95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -38062,7 +38074,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s" s="95">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -38075,7 +38087,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s" s="95">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -38088,7 +38100,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s" s="95">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -38101,7 +38113,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s" s="95">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -38114,7 +38126,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s" s="95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -38127,7 +38139,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s" s="95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -38140,7 +38152,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s" s="95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -38153,7 +38165,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s" s="95">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -38166,7 +38178,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s" s="95">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -38179,7 +38191,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s" s="95">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -38192,7 +38204,7 @@
         <v>65</v>
       </c>
       <c r="C29" t="s" s="95">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -38205,7 +38217,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s" s="95">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -38218,7 +38230,7 @@
         <v>69</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -38231,7 +38243,7 @@
         <v>71</v>
       </c>
       <c r="C32" t="s" s="95">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -38255,7 +38267,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s" s="97">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -38268,7 +38280,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s" s="95">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -38292,7 +38304,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s" s="95">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -38305,7 +38317,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s" s="95">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -38318,7 +38330,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s" s="95">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -38331,7 +38343,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s" s="95">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -38344,7 +38356,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s" s="95">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -38357,7 +38369,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s" s="95">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -38381,7 +38393,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s" s="95">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -38394,7 +38406,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s" s="95">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -38418,7 +38430,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s" s="95">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -38431,7 +38443,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s" s="95">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -38444,7 +38456,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -38457,7 +38469,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s" s="95">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -38470,7 +38482,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s" s="95">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -38516,34 +38528,34 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="99">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s" s="99">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s" s="99">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s" s="99">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s" s="99">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s" s="99">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" t="s" s="99">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s" s="99">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J1" t="s" s="99">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K1" t="s" s="99">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L1" t="s" s="99">
         <v>145</v>
@@ -38583,7 +38595,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s" s="99">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F3" s="99"/>
       <c r="G3" s="105">
@@ -38615,7 +38627,7 @@
         <v>389</v>
       </c>
       <c r="E4" t="s" s="100">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F4" s="101"/>
       <c r="G4" s="102">
@@ -38625,10 +38637,10 @@
       <c r="I4" s="102"/>
       <c r="J4" s="101"/>
       <c r="K4" t="s" s="100">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" t="s" s="100">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" s="101"/>
     </row>
@@ -38646,7 +38658,7 @@
         <v>238.5</v>
       </c>
       <c r="E5" t="s" s="99">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="105">
@@ -38662,7 +38674,7 @@
         <v>4.91</v>
       </c>
       <c r="K5" t="s" s="99">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L5" s="103"/>
       <c r="M5" s="103"/>
@@ -38681,7 +38693,7 @@
         <v>381</v>
       </c>
       <c r="E6" t="s" s="100">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F6" s="101"/>
       <c r="G6" s="102">
@@ -38689,15 +38701,15 @@
         <v>229.6630136986301</v>
       </c>
       <c r="H6" t="s" s="100">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I6" s="102"/>
       <c r="J6" s="101"/>
       <c r="K6" t="s" s="100">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L6" t="s" s="100">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M6" s="101"/>
     </row>
@@ -38715,7 +38727,7 @@
         <v>511</v>
       </c>
       <c r="E7" t="s" s="99">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="105">
@@ -38762,7 +38774,7 @@
         <v>154.4</v>
       </c>
       <c r="H9" t="s" s="99">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I9" s="105">
         <v>176.39</v>
@@ -38786,7 +38798,7 @@
         <v>22080.22</v>
       </c>
       <c r="E10" t="s" s="100">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="102">
@@ -38797,7 +38809,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
       <c r="L10" t="s" s="100">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M10" s="101"/>
     </row>
@@ -38815,7 +38827,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="105">
@@ -38842,7 +38854,7 @@
         <v>354.7</v>
       </c>
       <c r="E12" t="s" s="100">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F12" s="101"/>
       <c r="G12" s="102">
@@ -38854,7 +38866,7 @@
       <c r="I12" s="102"/>
       <c r="J12" s="101"/>
       <c r="K12" t="s" s="100">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L12" s="101"/>
       <c r="M12" s="101"/>
@@ -38898,7 +38910,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s" s="100">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F14" s="100"/>
       <c r="G14" s="102">
@@ -38929,7 +38941,7 @@
         <v>7.4</v>
       </c>
       <c r="E15" t="s" s="99">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="105">
@@ -38946,7 +38958,7 @@
       </c>
       <c r="K15" s="99"/>
       <c r="L15" t="s" s="99">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M15" s="99"/>
     </row>
@@ -38981,20 +38993,20 @@
         <v>16.74</v>
       </c>
       <c r="E17" t="s" s="99">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="105">
         <v>10.18</v>
       </c>
       <c r="H17" t="s" s="99">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I17" s="105"/>
       <c r="J17" s="103"/>
       <c r="K17" s="99"/>
       <c r="L17" t="s" s="99">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M17" s="99"/>
     </row>
@@ -39002,16 +39014,34 @@
       <c r="A18" t="s" s="100">
         <v>43</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
+      <c r="B18" s="106">
+        <v>637</v>
+      </c>
+      <c r="C18" s="106">
+        <v>1026</v>
+      </c>
+      <c r="D18" s="106">
+        <v>1732</v>
+      </c>
+      <c r="E18" t="s" s="100">
+        <v>235</v>
+      </c>
       <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
+      <c r="G18" s="102">
+        <v>80.23999999999999</v>
+      </c>
+      <c r="H18" s="106">
+        <v>80.23999999999999</v>
+      </c>
+      <c r="I18" s="102">
+        <v>31.83</v>
+      </c>
+      <c r="J18" s="106">
+        <v>31.83</v>
+      </c>
+      <c r="K18" t="s" s="100">
+        <v>250</v>
+      </c>
       <c r="L18" s="101"/>
       <c r="M18" s="101"/>
     </row>
@@ -39029,21 +39059,21 @@
         <v>4.89</v>
       </c>
       <c r="E19" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F19" s="99"/>
       <c r="G19" s="105">
         <v>62.49</v>
       </c>
       <c r="H19" t="s" s="99">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I19" s="105"/>
       <c r="J19" t="s" s="99">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" t="s" s="99">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L19" s="103"/>
       <c r="M19" s="103"/>
@@ -39078,7 +39108,7 @@
         <v>123.33</v>
       </c>
       <c r="H21" t="s" s="99">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I21" s="105">
         <v>6.36</v>
@@ -39087,7 +39117,7 @@
         <v>6.36</v>
       </c>
       <c r="K21" t="s" s="99">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L21" s="103"/>
       <c r="M21" s="103"/>
@@ -39101,7 +39131,7 @@
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
       <c r="F22" t="s" s="100">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G22" s="102">
         <v>151</v>
@@ -39112,10 +39142,10 @@
       <c r="I22" s="102"/>
       <c r="J22" s="101"/>
       <c r="K22" t="s" s="100">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="100">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M22" s="101"/>
     </row>
@@ -39167,20 +39197,20 @@
         <v>1.4</v>
       </c>
       <c r="E25" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F25" s="99"/>
       <c r="G25" s="105">
         <v>83.15000000000001</v>
       </c>
       <c r="H25" t="s" s="99">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I25" s="105">
         <v>21.37</v>
       </c>
       <c r="J25" t="s" s="99">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K25" s="103"/>
       <c r="L25" s="103"/>
@@ -39200,7 +39230,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E26" t="s" s="100">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="102">
@@ -39212,7 +39242,7 @@
       <c r="I26" s="102"/>
       <c r="J26" s="101"/>
       <c r="K26" t="s" s="100">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L26" s="101"/>
       <c r="M26" s="101"/>
@@ -39231,20 +39261,20 @@
         <v>276</v>
       </c>
       <c r="E27" t="s" s="99">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F27" s="103"/>
       <c r="G27" s="105">
         <v>104.66</v>
       </c>
       <c r="H27" t="s" s="99">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I27" s="105">
         <v>0.24</v>
       </c>
       <c r="J27" t="s" s="99">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="103"/>
@@ -39260,7 +39290,7 @@
       <c r="C28" s="101"/>
       <c r="D28" s="101"/>
       <c r="E28" t="s" s="100">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F28" s="100"/>
       <c r="G28" s="102">
@@ -39291,14 +39321,14 @@
         <v>0.67</v>
       </c>
       <c r="E29" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F29" s="99"/>
       <c r="G29" s="105">
         <v>132.61</v>
       </c>
       <c r="H29" t="s" s="99">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I29" s="105"/>
       <c r="J29" s="103"/>
@@ -39332,7 +39362,7 @@
       <c r="D31" s="103"/>
       <c r="E31" s="103"/>
       <c r="F31" t="s" s="99">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G31" s="105">
         <v>122</v>
@@ -39361,7 +39391,7 @@
         <v>136.86</v>
       </c>
       <c r="H32" t="s" s="100">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I32" s="102"/>
       <c r="J32" s="101"/>
@@ -39400,16 +39430,16 @@
         <v>57.77</v>
       </c>
       <c r="E34" t="s" s="100">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F34" t="s" s="100">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G34" s="102">
         <v>66.77</v>
       </c>
       <c r="H34" t="s" s="100">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I34" s="102">
         <v>3.17</v>
@@ -39418,7 +39448,7 @@
         <v>3.17</v>
       </c>
       <c r="K34" t="s" s="100">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L34" s="101"/>
       <c r="M34" s="101"/>
@@ -39471,7 +39501,7 @@
         <v>3047</v>
       </c>
       <c r="E37" t="s" s="99">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F37" s="103"/>
       <c r="G37" s="105">
@@ -39485,10 +39515,10 @@
         <v>15.74</v>
       </c>
       <c r="K37" t="s" s="99">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s" s="99">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M37" s="103"/>
     </row>
@@ -39506,7 +39536,7 @@
         <v>544</v>
       </c>
       <c r="E38" t="s" s="100">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F38" s="101"/>
       <c r="G38" s="102">
@@ -39517,11 +39547,11 @@
         <v>116.89</v>
       </c>
       <c r="J38" t="s" s="100">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K38" s="101"/>
       <c r="L38" t="s" s="100">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M38" s="101"/>
     </row>
@@ -39537,7 +39567,7 @@
         <v>10.7</v>
       </c>
       <c r="E39" t="s" s="99">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F39" s="103"/>
       <c r="G39" s="108">
@@ -39564,19 +39594,19 @@
         <v>334</v>
       </c>
       <c r="E40" t="s" s="100">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F40" s="100"/>
       <c r="G40" s="102">
         <v>226.13</v>
       </c>
       <c r="H40" t="s" s="100">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I40" s="102"/>
       <c r="J40" s="101"/>
       <c r="K40" t="s" s="100">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L40" s="101"/>
       <c r="M40" s="101"/>
@@ -39617,7 +39647,7 @@
         <v>67.64</v>
       </c>
       <c r="J42" t="s" s="100">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K42" s="101"/>
       <c r="L42" s="101"/>
@@ -39652,7 +39682,7 @@
         <v>25.1</v>
       </c>
       <c r="E44" t="s" s="100">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F44" s="100"/>
       <c r="G44" s="102">
@@ -39681,7 +39711,7 @@
         <v>8.75</v>
       </c>
       <c r="E45" t="s" s="99">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F45" s="103"/>
       <c r="G45" s="105">
@@ -39693,7 +39723,7 @@
       <c r="I45" s="105"/>
       <c r="J45" s="103"/>
       <c r="K45" t="s" s="99">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
@@ -39746,14 +39776,14 @@
       </c>
       <c r="D48" s="101"/>
       <c r="E48" t="s" s="100">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F48" s="101"/>
       <c r="G48" s="102">
         <v>130.7</v>
       </c>
       <c r="H48" t="s" s="100">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I48" s="102"/>
       <c r="J48" s="101"/>
@@ -39775,7 +39805,7 @@
         <v>2.01</v>
       </c>
       <c r="E49" t="s" s="99">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F49" s="103"/>
       <c r="G49" s="105">
@@ -39789,7 +39819,7 @@
       </c>
       <c r="J49" s="103"/>
       <c r="K49" t="s" s="99">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L49" s="103"/>
       <c r="M49" s="103"/>
@@ -39806,7 +39836,7 @@
       </c>
       <c r="D50" s="101"/>
       <c r="E50" t="s" s="100">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F50" s="101"/>
       <c r="G50" s="102">
@@ -39816,7 +39846,7 @@
       <c r="I50" s="102"/>
       <c r="J50" s="101"/>
       <c r="K50" t="s" s="100">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L50" s="101"/>
       <c r="M50" s="101"/>
@@ -39835,7 +39865,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s" s="99">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F51" s="99"/>
       <c r="G51" s="105">
@@ -39848,12 +39878,12 @@
         <v>128.41</v>
       </c>
       <c r="J51" t="s" s="99">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K51" s="99"/>
       <c r="L51" s="99"/>
       <c r="M51" t="s" s="99">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -52552,27 +52582,29 @@
         <v>43</v>
       </c>
       <c r="C18" s="6">
-        <v>20368</v>
+        <v>20365</v>
       </c>
       <c r="D18" s="6">
         <v>11846</v>
       </c>
       <c r="E18" s="6">
-        <v>5365</v>
+        <v>5368</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>6481</v>
+        <v>6478</v>
       </c>
       <c r="I18" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J18" s="8">
-        <v>6284</v>
+        <v>6280</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="L18" t="s" s="5">
+        <v>147</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="6"/>
     </row>
@@ -53695,7 +53727,7 @@
       </c>
       <c r="C53" s="10">
         <f>SUM(C2:C51)</f>
-        <v>605577</v>
+        <v>605574</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(D2:D51)</f>
@@ -53703,11 +53735,11 @@
       </c>
       <c r="E53" s="10">
         <f>SUM(E2:E51)</f>
-        <v>127124</v>
+        <v>127127</v>
       </c>
       <c r="F53" s="10">
         <f>SUM(F2:F51)+E5+E8+E11+E18+E20+E23+E24+E26+E30+E41+E47</f>
-        <v>76516</v>
+        <v>76519</v>
       </c>
       <c r="G53" s="10">
         <f>SUM(G2:G51)</f>
@@ -53715,15 +53747,15 @@
       </c>
       <c r="H53" s="10">
         <f>SUM(H2:H51)</f>
-        <v>120068</v>
+        <v>120065</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(I2:I51)+H5+H26+H37+H41+H43+H47</f>
-        <v>56542</v>
+        <v>56543</v>
       </c>
       <c r="J53" s="10">
         <f>SUM(J2:J51)</f>
-        <v>69002</v>
+        <v>68998</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
